--- a/data/nzd0228/nzd0228.xlsx
+++ b/data/nzd0228/nzd0228.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG284"/>
+  <dimension ref="A1:AG288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25264,6 +25264,362 @@
         </is>
       </c>
     </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr"/>
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" t="inlineStr"/>
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="inlineStr"/>
+      <c r="O285" t="inlineStr"/>
+      <c r="P285" t="n">
+        <v>378.88</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>398.1966666666667</v>
+      </c>
+      <c r="R285" t="n">
+        <v>396.6566666666667</v>
+      </c>
+      <c r="S285" t="n">
+        <v>395.12</v>
+      </c>
+      <c r="T285" t="n">
+        <v>394.75</v>
+      </c>
+      <c r="U285" t="n">
+        <v>399.73</v>
+      </c>
+      <c r="V285" t="n">
+        <v>397.8466666666667</v>
+      </c>
+      <c r="W285" t="inlineStr"/>
+      <c r="X285" t="n">
+        <v>406.1266666666667</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>403.51</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>412.34</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>408.52</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>415.2677777777778</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>409.66</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>423.39</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>431.9677777777778</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>426.0281818181818</v>
+      </c>
+      <c r="AG285" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>406.2533333333333</v>
+      </c>
+      <c r="C286" t="n">
+        <v>390.2042857142857</v>
+      </c>
+      <c r="D286" t="n">
+        <v>389.63</v>
+      </c>
+      <c r="E286" t="n">
+        <v>382.2842857142857</v>
+      </c>
+      <c r="F286" t="n">
+        <v>386.6542857142857</v>
+      </c>
+      <c r="G286" t="n">
+        <v>389.7842857142857</v>
+      </c>
+      <c r="H286" t="n">
+        <v>400.8942857142857</v>
+      </c>
+      <c r="I286" t="n">
+        <v>394.0133333333333</v>
+      </c>
+      <c r="J286" t="n">
+        <v>389.0642857142857</v>
+      </c>
+      <c r="K286" t="n">
+        <v>361.08</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
+      <c r="M286" t="n">
+        <v>331.11</v>
+      </c>
+      <c r="N286" t="n">
+        <v>343</v>
+      </c>
+      <c r="O286" t="n">
+        <v>351.2433333333333</v>
+      </c>
+      <c r="P286" t="n">
+        <v>422.8042857142857</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>444.2333333333333</v>
+      </c>
+      <c r="R286" t="n">
+        <v>430.0133333333333</v>
+      </c>
+      <c r="S286" t="n">
+        <v>424.9542857142857</v>
+      </c>
+      <c r="T286" t="inlineStr"/>
+      <c r="U286" t="inlineStr"/>
+      <c r="V286" t="inlineStr"/>
+      <c r="W286" t="n">
+        <v>451.8055555555555</v>
+      </c>
+      <c r="X286" t="n">
+        <v>409.1233333333333</v>
+      </c>
+      <c r="Y286" t="inlineStr"/>
+      <c r="Z286" t="inlineStr"/>
+      <c r="AA286" t="inlineStr"/>
+      <c r="AB286" t="inlineStr"/>
+      <c r="AC286" t="inlineStr"/>
+      <c r="AD286" t="inlineStr"/>
+      <c r="AE286" t="inlineStr"/>
+      <c r="AF286" t="inlineStr"/>
+      <c r="AG286" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>407.22</v>
+      </c>
+      <c r="C287" t="n">
+        <v>391.2142857142857</v>
+      </c>
+      <c r="D287" t="n">
+        <v>387.81</v>
+      </c>
+      <c r="E287" t="n">
+        <v>398.5642857142857</v>
+      </c>
+      <c r="F287" t="n">
+        <v>387.8642857142857</v>
+      </c>
+      <c r="G287" t="n">
+        <v>388.3142857142857</v>
+      </c>
+      <c r="H287" t="n">
+        <v>390.5642857142857</v>
+      </c>
+      <c r="I287" t="n">
+        <v>394.13</v>
+      </c>
+      <c r="J287" t="n">
+        <v>386.5642857142857</v>
+      </c>
+      <c r="K287" t="n">
+        <v>394.94</v>
+      </c>
+      <c r="L287" t="n">
+        <v>396.87</v>
+      </c>
+      <c r="M287" t="n">
+        <v>385.31</v>
+      </c>
+      <c r="N287" t="n">
+        <v>372.25</v>
+      </c>
+      <c r="O287" t="n">
+        <v>392.64</v>
+      </c>
+      <c r="P287" t="n">
+        <v>396.4342857142857</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>408.79</v>
+      </c>
+      <c r="R287" t="n">
+        <v>408</v>
+      </c>
+      <c r="S287" t="n">
+        <v>400.0842857142857</v>
+      </c>
+      <c r="T287" t="n">
+        <v>393.3342857142857</v>
+      </c>
+      <c r="U287" t="n">
+        <v>403.4142857142857</v>
+      </c>
+      <c r="V287" t="n">
+        <v>413.47</v>
+      </c>
+      <c r="W287" t="n">
+        <v>399.8</v>
+      </c>
+      <c r="X287" t="n">
+        <v>416.45</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>405.9142857142857</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>416.08</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>415.12</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>423.31</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>413.25</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>437.75</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>442.28</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>429.7781818181818</v>
+      </c>
+      <c r="AG287" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>386.95</v>
+      </c>
+      <c r="C288" t="n">
+        <v>368.4171428571429</v>
+      </c>
+      <c r="D288" t="n">
+        <v>373.57</v>
+      </c>
+      <c r="E288" t="n">
+        <v>382.1871428571428</v>
+      </c>
+      <c r="F288" t="n">
+        <v>389.2871428571429</v>
+      </c>
+      <c r="G288" t="n">
+        <v>385.9571428571429</v>
+      </c>
+      <c r="H288" t="n">
+        <v>386.8271428571429</v>
+      </c>
+      <c r="I288" t="n">
+        <v>375.54</v>
+      </c>
+      <c r="J288" t="n">
+        <v>373.2271428571429</v>
+      </c>
+      <c r="K288" t="n">
+        <v>359.29</v>
+      </c>
+      <c r="L288" t="n">
+        <v>357.74</v>
+      </c>
+      <c r="M288" t="n">
+        <v>350.23</v>
+      </c>
+      <c r="N288" t="n">
+        <v>353.56</v>
+      </c>
+      <c r="O288" t="n">
+        <v>370.21</v>
+      </c>
+      <c r="P288" t="n">
+        <v>407.7771428571429</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>428.41</v>
+      </c>
+      <c r="R288" t="n">
+        <v>413.41</v>
+      </c>
+      <c r="S288" t="n">
+        <v>407.7071428571429</v>
+      </c>
+      <c r="T288" t="n">
+        <v>404.8671428571428</v>
+      </c>
+      <c r="U288" t="n">
+        <v>411.3071428571428</v>
+      </c>
+      <c r="V288" t="n">
+        <v>413.62</v>
+      </c>
+      <c r="W288" t="n">
+        <v>428.6133333333333</v>
+      </c>
+      <c r="X288" t="n">
+        <v>426.36</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>434.1471428571429</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>427.2</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>447.98</v>
+      </c>
+      <c r="AB288" t="inlineStr"/>
+      <c r="AC288" t="inlineStr"/>
+      <c r="AD288" t="inlineStr"/>
+      <c r="AE288" t="inlineStr"/>
+      <c r="AF288" t="inlineStr"/>
+      <c r="AG288" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25275,7 +25631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B295"/>
+  <dimension ref="A1:B299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28233,6 +28589,46 @@
       </c>
       <c r="B295" t="n">
         <v>0.62</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>-0.92</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -28401,28 +28797,28 @@
         <v>0.0314</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4572884282269737</v>
+        <v>-0.4572201716581257</v>
       </c>
       <c r="J2" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K2" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05588876046232139</v>
+        <v>0.05692912546684492</v>
       </c>
       <c r="M2" t="n">
-        <v>10.84602864557494</v>
+        <v>10.81837520339088</v>
       </c>
       <c r="N2" t="n">
-        <v>190.7517998071795</v>
+        <v>189.3490816330236</v>
       </c>
       <c r="O2" t="n">
-        <v>13.81129247417415</v>
+        <v>13.76041720417748</v>
       </c>
       <c r="P2" t="n">
-        <v>411.6629134399289</v>
+        <v>411.6625522863894</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -28478,28 +28874,28 @@
         <v>0.0362</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.8965875022050487</v>
+        <v>-0.9037142047620746</v>
       </c>
       <c r="J3" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K3" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1670145154680971</v>
+        <v>0.1718018372678564</v>
       </c>
       <c r="M3" t="n">
-        <v>11.85559307451664</v>
+        <v>11.8150934876614</v>
       </c>
       <c r="N3" t="n">
-        <v>215.9753337863429</v>
+        <v>214.6627802010867</v>
       </c>
       <c r="O3" t="n">
-        <v>14.69609927111078</v>
+        <v>14.65137468639331</v>
       </c>
       <c r="P3" t="n">
-        <v>408.8218731894547</v>
+        <v>408.8922012883074</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -28555,28 +28951,28 @@
         <v>0.0418</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.030585206129062</v>
+        <v>-1.041741029047001</v>
       </c>
       <c r="J4" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K4" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2189034995682183</v>
+        <v>0.2267347531625676</v>
       </c>
       <c r="M4" t="n">
-        <v>11.48645452106977</v>
+        <v>11.41120298422759</v>
       </c>
       <c r="N4" t="n">
-        <v>200.4569184475436</v>
+        <v>198.622058377096</v>
       </c>
       <c r="O4" t="n">
-        <v>14.1582809142757</v>
+        <v>14.09333382763269</v>
       </c>
       <c r="P4" t="n">
-        <v>413.9107862050824</v>
+        <v>414.020011727008</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -28632,28 +29028,28 @@
         <v>0.0383</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.362557907252707</v>
+        <v>-1.362467919201706</v>
       </c>
       <c r="J5" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K5" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2726460879886006</v>
+        <v>0.2778866141789937</v>
       </c>
       <c r="M5" t="n">
-        <v>12.87922173474282</v>
+        <v>12.80006355110556</v>
       </c>
       <c r="N5" t="n">
-        <v>264.0797156671679</v>
+        <v>261.1978443022034</v>
       </c>
       <c r="O5" t="n">
-        <v>16.2505297042025</v>
+        <v>16.1616163889075</v>
       </c>
       <c r="P5" t="n">
-        <v>422.1328622212822</v>
+        <v>422.131887694911</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -28709,28 +29105,28 @@
         <v>0.0371</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.703058434699996</v>
+        <v>-1.679663194739649</v>
       </c>
       <c r="J6" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K6" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3514810948955419</v>
+        <v>0.3511427159664547</v>
       </c>
       <c r="M6" t="n">
-        <v>13.50224547308594</v>
+        <v>13.42621545250093</v>
       </c>
       <c r="N6" t="n">
-        <v>287.4967182178805</v>
+        <v>284.4921980030259</v>
       </c>
       <c r="O6" t="n">
-        <v>16.95572818306193</v>
+        <v>16.86689651367512</v>
       </c>
       <c r="P6" t="n">
-        <v>422.4256445447273</v>
+        <v>422.202339590065</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -28786,28 +29182,28 @@
         <v>0.0398</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.758503061734135</v>
+        <v>-1.725883999764971</v>
       </c>
       <c r="J7" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K7" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3529610668285792</v>
+        <v>0.3490864336461685</v>
       </c>
       <c r="M7" t="n">
-        <v>13.66302641728967</v>
+        <v>13.65912446858956</v>
       </c>
       <c r="N7" t="n">
-        <v>301.362546799221</v>
+        <v>299.4196936746083</v>
       </c>
       <c r="O7" t="n">
-        <v>17.35979685362766</v>
+        <v>17.30374796610862</v>
       </c>
       <c r="P7" t="n">
-        <v>419.8515711069318</v>
+        <v>419.5340508176426</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -28863,28 +29259,28 @@
         <v>0.0381</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.941736449973108</v>
+        <v>-1.902975504469859</v>
       </c>
       <c r="J8" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K8" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3868625466970468</v>
+        <v>0.3814518474103221</v>
       </c>
       <c r="M8" t="n">
-        <v>13.91906562292693</v>
+        <v>13.93126435057576</v>
       </c>
       <c r="N8" t="n">
-        <v>314.7698116151261</v>
+        <v>313.8510878982652</v>
       </c>
       <c r="O8" t="n">
-        <v>17.74175334106317</v>
+        <v>17.7158428503491</v>
       </c>
       <c r="P8" t="n">
-        <v>427.0456604302466</v>
+        <v>426.6679907438746</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -28940,28 +29336,28 @@
         <v>0.0317</v>
       </c>
       <c r="I9" t="n">
-        <v>-2.098639697502367</v>
+        <v>-2.069532617607278</v>
       </c>
       <c r="J9" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K9" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3611535435025492</v>
+        <v>0.3597041929511208</v>
       </c>
       <c r="M9" t="n">
-        <v>15.48446206248352</v>
+        <v>15.43594823624196</v>
       </c>
       <c r="N9" t="n">
-        <v>391.4908448685153</v>
+        <v>388.6962037365767</v>
       </c>
       <c r="O9" t="n">
-        <v>19.78612758648127</v>
+        <v>19.71537987806922</v>
       </c>
       <c r="P9" t="n">
-        <v>430.2342117520283</v>
+        <v>429.9392796614269</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -29017,28 +29413,28 @@
         <v>0.0412</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.687431140913001</v>
+        <v>-1.669447813933551</v>
       </c>
       <c r="J10" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K10" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L10" t="n">
-        <v>0.264481844106071</v>
+        <v>0.2651694535100454</v>
       </c>
       <c r="M10" t="n">
-        <v>15.2762615588804</v>
+        <v>15.19007207591429</v>
       </c>
       <c r="N10" t="n">
-        <v>404.4887172729245</v>
+        <v>400.2590710790233</v>
       </c>
       <c r="O10" t="n">
-        <v>20.11190486435645</v>
+        <v>20.00647572859906</v>
       </c>
       <c r="P10" t="n">
-        <v>418.891266934441</v>
+        <v>418.7115389780411</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -29094,28 +29490,28 @@
         <v>0.0318</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.636062040305542</v>
+        <v>-1.661130194690056</v>
       </c>
       <c r="J11" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K11" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2211757345554</v>
+        <v>0.2299204064971971</v>
       </c>
       <c r="M11" t="n">
-        <v>17.49662413409958</v>
+        <v>17.50471733549399</v>
       </c>
       <c r="N11" t="n">
-        <v>498.4751828316661</v>
+        <v>496.4716474481647</v>
       </c>
       <c r="O11" t="n">
-        <v>22.3265577918242</v>
+        <v>22.28164373308587</v>
       </c>
       <c r="P11" t="n">
-        <v>422.4676770740003</v>
+        <v>422.709214875159</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -29171,28 +29567,28 @@
         <v>0.0263</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.249516080870426</v>
+        <v>-1.275941219268878</v>
       </c>
       <c r="J12" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K12" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1532051343560247</v>
+        <v>0.1597900113559787</v>
       </c>
       <c r="M12" t="n">
-        <v>16.63680671560375</v>
+        <v>16.67275928813583</v>
       </c>
       <c r="N12" t="n">
-        <v>455.4515858559893</v>
+        <v>456.6093933831742</v>
       </c>
       <c r="O12" t="n">
-        <v>21.34131171826112</v>
+        <v>21.36842047001074</v>
       </c>
       <c r="P12" t="n">
-        <v>423.2025729049412</v>
+        <v>423.4594500207651</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -29248,28 +29644,28 @@
         <v>0.0276</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.236512547117198</v>
+        <v>-1.329918373876566</v>
       </c>
       <c r="J13" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K13" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1417377585756362</v>
+        <v>0.1586476692634264</v>
       </c>
       <c r="M13" t="n">
-        <v>17.14128355640208</v>
+        <v>17.32497362917008</v>
       </c>
       <c r="N13" t="n">
-        <v>498.3332293149323</v>
+        <v>513.4011346535323</v>
       </c>
       <c r="O13" t="n">
-        <v>22.32337853719576</v>
+        <v>22.65835683922231</v>
       </c>
       <c r="P13" t="n">
-        <v>419.5706472668408</v>
+        <v>420.4568939188179</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -29325,28 +29721,28 @@
         <v>0.0428</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.169558085814479</v>
+        <v>-1.237834030617254</v>
       </c>
       <c r="J14" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K14" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1347739776923753</v>
+        <v>0.1494722743175108</v>
       </c>
       <c r="M14" t="n">
-        <v>16.76522834737712</v>
+        <v>16.87814674699158</v>
       </c>
       <c r="N14" t="n">
-        <v>486.6935881596848</v>
+        <v>490.4897732309955</v>
       </c>
       <c r="O14" t="n">
-        <v>22.06113297543181</v>
+        <v>22.14700370774782</v>
       </c>
       <c r="P14" t="n">
-        <v>410.9178897498631</v>
+        <v>411.5612266861062</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -29402,28 +29798,28 @@
         <v>0.0314</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.131008192083176</v>
+        <v>-1.175725862189586</v>
       </c>
       <c r="J15" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K15" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1318392472053963</v>
+        <v>0.1426083432377219</v>
       </c>
       <c r="M15" t="n">
-        <v>16.972599096459</v>
+        <v>17.02441221999038</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5931617655055</v>
+        <v>465.7247296237194</v>
       </c>
       <c r="O15" t="n">
-        <v>21.5544232529081</v>
+        <v>21.58065637610959</v>
       </c>
       <c r="P15" t="n">
-        <v>416.3620372340127</v>
+        <v>416.7795175487283</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -29479,28 +29875,28 @@
         <v>0.0408</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.039860459427374</v>
+        <v>-0.9907579774451382</v>
       </c>
       <c r="J16" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K16" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1291799807893504</v>
+        <v>0.1206715808035327</v>
       </c>
       <c r="M16" t="n">
-        <v>15.06577519172139</v>
+        <v>15.08003636118892</v>
       </c>
       <c r="N16" t="n">
-        <v>394.5584621477313</v>
+        <v>395.2290101979628</v>
       </c>
       <c r="O16" t="n">
-        <v>19.86349571821967</v>
+        <v>19.88036745631133</v>
       </c>
       <c r="P16" t="n">
-        <v>414.2704067560154</v>
+        <v>413.8033641497045</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -29556,28 +29952,28 @@
         <v>0.0338</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.009371784899745</v>
+        <v>-0.9189388730277231</v>
       </c>
       <c r="J17" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K17" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1134323531121065</v>
+        <v>0.09563898225508882</v>
       </c>
       <c r="M17" t="n">
-        <v>16.15503448996999</v>
+        <v>16.30306975208412</v>
       </c>
       <c r="N17" t="n">
-        <v>424.1908956092386</v>
+        <v>433.7032369122969</v>
       </c>
       <c r="O17" t="n">
-        <v>20.59589511551364</v>
+        <v>20.82554289597985</v>
       </c>
       <c r="P17" t="n">
-        <v>419.6148961709272</v>
+        <v>418.7412414512818</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -29633,28 +30029,28 @@
         <v>0.0367</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.8828565138982024</v>
+        <v>-0.819671104994969</v>
       </c>
       <c r="J18" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K18" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L18" t="n">
-        <v>0.09246170978264701</v>
+        <v>0.08211089924315307</v>
       </c>
       <c r="M18" t="n">
-        <v>15.72252091157904</v>
+        <v>15.73042354044666</v>
       </c>
       <c r="N18" t="n">
-        <v>391.0688576074012</v>
+        <v>391.5726507024327</v>
       </c>
       <c r="O18" t="n">
-        <v>19.77546099607797</v>
+        <v>19.78819473075886</v>
       </c>
       <c r="P18" t="n">
-        <v>417.3373946287518</v>
+        <v>416.7044334960687</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -29710,28 +30106,28 @@
         <v>0.0399</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.9727656559985011</v>
+        <v>-0.9154482568249948</v>
       </c>
       <c r="J19" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K19" t="n">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1095132092691087</v>
+        <v>0.1003070866993504</v>
       </c>
       <c r="M19" t="n">
-        <v>15.58073798327633</v>
+        <v>15.53617923328761</v>
       </c>
       <c r="N19" t="n">
-        <v>402.6256510060124</v>
+        <v>401.4108812570296</v>
       </c>
       <c r="O19" t="n">
-        <v>20.06553390782345</v>
+        <v>20.03524098325322</v>
       </c>
       <c r="P19" t="n">
-        <v>416.4972274105987</v>
+        <v>415.9329179266616</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -29787,28 +30183,28 @@
         <v>0.0441</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.180725048694456</v>
+        <v>-1.163560570695073</v>
       </c>
       <c r="J20" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K20" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1542541692152112</v>
+        <v>0.1539706149137067</v>
       </c>
       <c r="M20" t="n">
-        <v>15.71431164489518</v>
+        <v>15.56770482430506</v>
       </c>
       <c r="N20" t="n">
-        <v>401.3736066334533</v>
+        <v>396.519439520277</v>
       </c>
       <c r="O20" t="n">
-        <v>20.03431073517263</v>
+        <v>19.91279587401721</v>
       </c>
       <c r="P20" t="n">
-        <v>421.3444185723439</v>
+        <v>421.1756018492242</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -29864,28 +30260,28 @@
         <v>0.0381</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.6207648074968268</v>
+        <v>-0.6032852737204697</v>
       </c>
       <c r="J21" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K21" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L21" t="n">
-        <v>0.04132300341011008</v>
+        <v>0.04019088925705061</v>
       </c>
       <c r="M21" t="n">
-        <v>16.19202316948474</v>
+        <v>16.03962643306668</v>
       </c>
       <c r="N21" t="n">
-        <v>443.3902655595343</v>
+        <v>437.7467299234771</v>
       </c>
       <c r="O21" t="n">
-        <v>21.05683417704414</v>
+        <v>20.92239780530609</v>
       </c>
       <c r="P21" t="n">
-        <v>414.5413804428109</v>
+        <v>414.3619647852847</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -29941,28 +30337,28 @@
         <v>0.033</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.380914881439522</v>
+        <v>-1.334140741855506</v>
       </c>
       <c r="J22" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K22" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1617099048478525</v>
+        <v>0.155469010177092</v>
       </c>
       <c r="M22" t="n">
-        <v>17.76528172030831</v>
+        <v>17.73188307766934</v>
       </c>
       <c r="N22" t="n">
-        <v>513.7253624327196</v>
+        <v>511.0058893988974</v>
       </c>
       <c r="O22" t="n">
-        <v>22.66551041632903</v>
+        <v>22.6054393763735</v>
       </c>
       <c r="P22" t="n">
-        <v>426.6560762704315</v>
+        <v>426.2027995544934</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -30018,28 +30414,28 @@
         <v>0.056</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.953545710149038</v>
+        <v>-0.8339250454645211</v>
       </c>
       <c r="J23" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K23" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L23" t="n">
-        <v>0.07321429158773007</v>
+        <v>0.05661432156211277</v>
       </c>
       <c r="M23" t="n">
-        <v>18.33546952504481</v>
+        <v>18.60884323491345</v>
       </c>
       <c r="N23" t="n">
-        <v>557.0195100610702</v>
+        <v>573.3038133128717</v>
       </c>
       <c r="O23" t="n">
-        <v>23.60126077270175</v>
+        <v>23.94376355782173</v>
       </c>
       <c r="P23" t="n">
-        <v>416.8775643289458</v>
+        <v>415.6761912104398</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -30095,28 +30491,28 @@
         <v>0.0409</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.450619728652584</v>
+        <v>-1.377649535288531</v>
       </c>
       <c r="J24" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K24" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1376867399668517</v>
+        <v>0.1305935995066259</v>
       </c>
       <c r="M24" t="n">
-        <v>20.25542775355805</v>
+        <v>20.16111933170922</v>
       </c>
       <c r="N24" t="n">
-        <v>663.4858573895248</v>
+        <v>655.7670669286795</v>
       </c>
       <c r="O24" t="n">
-        <v>25.75821922007662</v>
+        <v>25.60794929174688</v>
       </c>
       <c r="P24" t="n">
-        <v>435.0954574127165</v>
+        <v>434.3955388066703</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -30172,28 +30568,28 @@
         <v>0.045</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.348350132432476</v>
+        <v>-1.276772648521109</v>
       </c>
       <c r="J25" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K25" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1153651840286418</v>
+        <v>0.1069024489989174</v>
       </c>
       <c r="M25" t="n">
-        <v>20.54427819553893</v>
+        <v>20.58896545181221</v>
       </c>
       <c r="N25" t="n">
-        <v>695.7528769334277</v>
+        <v>694.5747385618863</v>
       </c>
       <c r="O25" t="n">
-        <v>26.37712791289885</v>
+        <v>26.35478587584969</v>
       </c>
       <c r="P25" t="n">
-        <v>427.4118189853317</v>
+        <v>426.7120341413814</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -30249,28 +30645,28 @@
         <v>0.0511</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.8085779370787847</v>
+        <v>-0.7429753892331256</v>
       </c>
       <c r="J26" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K26" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L26" t="n">
-        <v>0.04322867628268001</v>
+        <v>0.03763640748057973</v>
       </c>
       <c r="M26" t="n">
-        <v>21.8859468152855</v>
+        <v>21.95611139051509</v>
       </c>
       <c r="N26" t="n">
-        <v>731.3308073454657</v>
+        <v>726.4831725089025</v>
       </c>
       <c r="O26" t="n">
-        <v>27.04312865305096</v>
+        <v>26.95335178616757</v>
       </c>
       <c r="P26" t="n">
-        <v>418.7242084641264</v>
+        <v>418.0682586965581</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -30326,28 +30722,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.335161814055315</v>
+        <v>-1.179556528332912</v>
       </c>
       <c r="J27" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K27" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1068506280282883</v>
+        <v>0.08457785490633341</v>
       </c>
       <c r="M27" t="n">
-        <v>21.59507896301253</v>
+        <v>22.23900001348399</v>
       </c>
       <c r="N27" t="n">
-        <v>772.8267037107171</v>
+        <v>798.0443808070989</v>
       </c>
       <c r="O27" t="n">
-        <v>27.79976085707784</v>
+        <v>28.24967930450006</v>
       </c>
       <c r="P27" t="n">
-        <v>411.5553260768292</v>
+        <v>410.070456317609</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -30403,28 +30799,28 @@
         <v>0.0585</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.09670021645599</v>
+        <v>-1.016640493552362</v>
       </c>
       <c r="J28" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K28" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L28" t="n">
-        <v>0.06864154248364063</v>
+        <v>0.05999820644049947</v>
       </c>
       <c r="M28" t="n">
-        <v>23.75141516520647</v>
+        <v>23.99238927419267</v>
       </c>
       <c r="N28" t="n">
-        <v>899.9439918988819</v>
+        <v>904.7107409575569</v>
       </c>
       <c r="O28" t="n">
-        <v>29.99906651712486</v>
+        <v>30.07840988080249</v>
       </c>
       <c r="P28" t="n">
-        <v>410.1343738931156</v>
+        <v>409.3941619896853</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -30480,28 +30876,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.168795586880317</v>
+        <v>-1.121338429674379</v>
       </c>
       <c r="J29" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K29" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L29" t="n">
-        <v>0.06439060794181739</v>
+        <v>0.06038896196349197</v>
       </c>
       <c r="M29" t="n">
-        <v>25.13953873916571</v>
+        <v>25.2117391767391</v>
       </c>
       <c r="N29" t="n">
-        <v>1065.828124152132</v>
+        <v>1060.865847254698</v>
       </c>
       <c r="O29" t="n">
-        <v>32.64702320506621</v>
+        <v>32.57093562142018</v>
       </c>
       <c r="P29" t="n">
-        <v>416.5207464142753</v>
+        <v>416.0573791976997</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -30557,28 +30953,28 @@
         <v>0.0546</v>
       </c>
       <c r="I30" t="n">
-        <v>-1.087157464293739</v>
+        <v>-1.027091363408739</v>
       </c>
       <c r="J30" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K30" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L30" t="n">
-        <v>0.04910954543086898</v>
+        <v>0.04455259584740445</v>
       </c>
       <c r="M30" t="n">
-        <v>27.26282895300105</v>
+        <v>27.30566774187638</v>
       </c>
       <c r="N30" t="n">
-        <v>1191.94933629102</v>
+        <v>1188.961631320287</v>
       </c>
       <c r="O30" t="n">
-        <v>34.52461927800247</v>
+        <v>34.48132293460166</v>
       </c>
       <c r="P30" t="n">
-        <v>428.1827477851243</v>
+        <v>427.57261758792</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -30634,28 +31030,28 @@
         <v>0.0559</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.8000163247622164</v>
+        <v>-0.7402095757245699</v>
       </c>
       <c r="J31" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K31" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02154475653503074</v>
+        <v>0.01876715535010043</v>
       </c>
       <c r="M31" t="n">
-        <v>29.03095253022103</v>
+        <v>29.08022118461361</v>
       </c>
       <c r="N31" t="n">
-        <v>1413.289756985482</v>
+        <v>1406.081697968351</v>
       </c>
       <c r="O31" t="n">
-        <v>37.59374624835203</v>
+        <v>37.49775590576523</v>
       </c>
       <c r="P31" t="n">
-        <v>429.6124860152668</v>
+        <v>428.9753467798557</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -30711,28 +31107,28 @@
         <v>0.0764</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2206619893606789</v>
+        <v>0.2465815948926738</v>
       </c>
       <c r="J32" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K32" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L32" t="n">
-        <v>0.001321935804246888</v>
+        <v>0.001684919185613309</v>
       </c>
       <c r="M32" t="n">
-        <v>31.33283613397053</v>
+        <v>31.14214097342028</v>
       </c>
       <c r="N32" t="n">
-        <v>1785.077197818515</v>
+        <v>1765.857527467909</v>
       </c>
       <c r="O32" t="n">
-        <v>42.2501739383226</v>
+        <v>42.0221076038305</v>
       </c>
       <c r="P32" t="n">
-        <v>410.7894902457197</v>
+        <v>410.5138005384754</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -30769,7 +31165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG284"/>
+  <dimension ref="A1:AG288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68097,6 +68493,546 @@
         </is>
       </c>
     </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr"/>
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" t="inlineStr"/>
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="inlineStr"/>
+      <c r="O285" t="inlineStr"/>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>-37.81326191491749,174.83104251307444</t>
+        </is>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>-37.812546251274924,174.8312092012486</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>-37.811904058677996,174.83159067759698</t>
+        </is>
+      </c>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>-37.81125377338299,174.83197626910416</t>
+        </is>
+      </c>
+      <c r="T285" t="inlineStr">
+        <is>
+          <t>-37.81061094319518,174.8323911767185</t>
+        </is>
+      </c>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>-37.80996126912367,174.83276833484777</t>
+        </is>
+      </c>
+      <c r="V285" t="inlineStr">
+        <is>
+          <t>-37.80931595573883,174.83323134663542</t>
+        </is>
+      </c>
+      <c r="W285" t="inlineStr"/>
+      <c r="X285" t="inlineStr">
+        <is>
+          <t>-37.80812498111901,174.83433166997338</t>
+        </is>
+      </c>
+      <c r="Y285" t="inlineStr">
+        <is>
+          <t>-37.80760622588055,174.83499179050332</t>
+        </is>
+      </c>
+      <c r="Z285" t="inlineStr">
+        <is>
+          <t>-37.807056710564545,174.83559408044303</t>
+        </is>
+      </c>
+      <c r="AA285" t="inlineStr">
+        <is>
+          <t>-37.80656797185129,174.83632774475183</t>
+        </is>
+      </c>
+      <c r="AB285" t="inlineStr">
+        <is>
+          <t>-37.80611363085783,174.83713010633537</t>
+        </is>
+      </c>
+      <c r="AC285" t="inlineStr">
+        <is>
+          <t>-37.805851607595194,174.83800635329192</t>
+        </is>
+      </c>
+      <c r="AD285" t="inlineStr">
+        <is>
+          <t>-37.80545603810861,174.83873124392815</t>
+        </is>
+      </c>
+      <c r="AE285" t="inlineStr">
+        <is>
+          <t>-37.8050884206548,174.83938012087634</t>
+        </is>
+      </c>
+      <c r="AF285" t="inlineStr">
+        <is>
+          <t>-37.80472283413051,174.8400730191607</t>
+        </is>
+      </c>
+      <c r="AG285" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>-37.82133582843169,174.8243530430097</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>-37.82098539272804,174.8251501482204</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>-37.82051882786087,174.82579992849656</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>-37.820069539338455,174.82645471931895</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>-37.81947400893722,174.82689216836377</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>-37.81887369429613,174.8273736710078</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>-37.81825303414887,174.82777346177022</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>-37.817691302269274,174.82826610998615</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>-37.81708240138728,174.82870206912057</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>-37.816549567057336,174.8293756259031</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr"/>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>-37.815367723952136,174.830443181382</t>
+        </is>
+      </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>-37.81468301175975,174.8306744722088</t>
+        </is>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>-37.81400774682354,174.83095918787777</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>-37.81310387787443,174.83058514301317</t>
+        </is>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>-37.81238185508988,174.83072916196556</t>
+        </is>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>-37.811785397313486,174.83124261288648</t>
+        </is>
+      </c>
+      <c r="S286" t="inlineStr">
+        <is>
+          <t>-37.8111416836661,174.8316682978975</t>
+        </is>
+      </c>
+      <c r="T286" t="inlineStr"/>
+      <c r="U286" t="inlineStr"/>
+      <c r="V286" t="inlineStr"/>
+      <c r="W286" t="inlineStr">
+        <is>
+          <t>-37.80842821660226,174.83333303893008</t>
+        </is>
+      </c>
+      <c r="X286" t="inlineStr">
+        <is>
+          <t>-37.80810729802526,174.83430595156418</t>
+        </is>
+      </c>
+      <c r="Y286" t="inlineStr"/>
+      <c r="Z286" t="inlineStr"/>
+      <c r="AA286" t="inlineStr"/>
+      <c r="AB286" t="inlineStr"/>
+      <c r="AC286" t="inlineStr"/>
+      <c r="AD286" t="inlineStr"/>
+      <c r="AE286" t="inlineStr"/>
+      <c r="AF286" t="inlineStr"/>
+      <c r="AG286" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>-37.82132930050897,174.824345773837</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>-37.82097868349819,174.8251423972508</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>-37.820530317196294,174.8258146791299</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>-37.81998009632236,174.82630815535038</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>-37.81946803350312,174.8268806727598</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>-37.81888112044182,174.8273874966167</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>-37.81830166661887,174.82787350267915</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>-37.81769082727943,174.82826492785696</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>-37.817091881366586,174.82872782725812</t>
+        </is>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>-37.81641336578697,174.829031495619</t>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>-37.81580045461925,174.82943992148665</t>
+        </is>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>-37.81519016273166,174.82986972000379</t>
+        </is>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>-37.81457902377076,174.83036921257235</t>
+        </is>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>-37.81385825157199,174.83052843673113</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>-37.813198755831095,174.83085972547593</t>
+        </is>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>-37.812508422833204,174.83109874093674</t>
+        </is>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>-37.81186370658118,174.83147231390927</t>
+        </is>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>-37.811235122235644,174.83192502407184</t>
+        </is>
+      </c>
+      <c r="T287" t="inlineStr">
+        <is>
+          <t>-37.810616685305476,174.83240553395305</t>
+        </is>
+      </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>-37.809945955244245,174.83273121069757</t>
+        </is>
+      </c>
+      <c r="V287" t="inlineStr">
+        <is>
+          <t>-37.809240271856346,174.83308174024876</t>
+        </is>
+      </c>
+      <c r="W287" t="inlineStr">
+        <is>
+          <t>-37.80871925048711,174.83379592664988</t>
+        </is>
+      </c>
+      <c r="X287" t="inlineStr">
+        <is>
+          <t>-37.80806406391769,174.83424307167854</t>
+        </is>
+      </c>
+      <c r="Y287" t="inlineStr">
+        <is>
+          <t>-37.807591031227965,174.83497232871295</t>
+        </is>
+      </c>
+      <c r="Z287" t="inlineStr">
+        <is>
+          <t>-37.80703228790486,174.83556481534376</t>
+        </is>
+      </c>
+      <c r="AA287" t="inlineStr">
+        <is>
+          <t>-37.806520862612224,174.83628200206144</t>
+        </is>
+      </c>
+      <c r="AB287" t="inlineStr">
+        <is>
+          <t>-37.806049899495264,174.8370866431092</t>
+        </is>
+      </c>
+      <c r="AC287" t="inlineStr">
+        <is>
+          <t>-37.805822357045976,174.8379889469055</t>
+        </is>
+      </c>
+      <c r="AD287" t="inlineStr">
+        <is>
+          <t>-37.805341290160676,174.8386558945606</t>
+        </is>
+      </c>
+      <c r="AE287" t="inlineStr">
+        <is>
+          <t>-37.80501181897393,174.83931384011956</t>
+        </is>
+      </c>
+      <c r="AF287" t="inlineStr">
+        <is>
+          <t>-37.80469662412393,174.84004614368672</t>
+        </is>
+      </c>
+      <c r="AG287" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>-37.82146618419316,174.82449820113828</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>-37.821130120265835,174.82531734804996</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>-37.820620211708125,174.8259300908363</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>-37.82007007304489,174.82645559386808</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>-37.81946100689907,174.82686715490914</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>-37.818893028252035,174.82740966596614</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>-37.81831926064232,174.82790969507963</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>-37.81776651336365,174.82845329188837</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>-37.81714245560351,174.82886524335052</t>
+        </is>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>-37.816556767272694,174.82939381829448</t>
+        </is>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>-37.815944113344074,174.82984578949984</t>
+        </is>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>-37.815305086447005,174.8302408825267</t>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>-37.81464546952343,174.83056426555711</t>
+        </is>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>-37.81393925294506,174.83076183087454</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>-37.81315794487262,174.83074161581143</t>
+        </is>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>-37.81243836018236,174.8308941567712</t>
+        </is>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>-37.81184446132696,174.83141586250892</t>
+        </is>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>-37.811206482616036,174.83184633534586</t>
+        </is>
+      </c>
+      <c r="T288" t="inlineStr">
+        <is>
+          <t>-37.81056990820284,174.83228857543435</t>
+        </is>
+      </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>-37.80991314823015,174.83265167956156</t>
+        </is>
+      </c>
+      <c r="V288" t="inlineStr">
+        <is>
+          <t>-37.809239545212606,174.83308030387573</t>
+        </is>
+      </c>
+      <c r="W288" t="inlineStr">
+        <is>
+          <t>-37.80855800533052,174.83353946633127</t>
+        </is>
+      </c>
+      <c r="X288" t="inlineStr">
+        <is>
+          <t>-37.80800558569794,174.83415802088481</t>
+        </is>
+      </c>
+      <c r="Y288" t="inlineStr">
+        <is>
+          <t>-37.807412604398074,174.834743794929</t>
+        </is>
+      </c>
+      <c r="Z288" t="inlineStr">
+        <is>
+          <t>-37.806959672891615,174.83547780264936</t>
+        </is>
+      </c>
+      <c r="AA288" t="inlineStr">
+        <is>
+          <t>-37.80628631541141,174.8360542597818</t>
+        </is>
+      </c>
+      <c r="AB288" t="inlineStr"/>
+      <c r="AC288" t="inlineStr"/>
+      <c r="AD288" t="inlineStr"/>
+      <c r="AE288" t="inlineStr"/>
+      <c r="AF288" t="inlineStr"/>
+      <c r="AG288" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0228/nzd0228.xlsx
+++ b/data/nzd0228/nzd0228.xlsx
@@ -28642,7 +28642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28733,35 +28733,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -28820,27 +28825,28 @@
       <c r="P2" t="n">
         <v>411.6625522863894</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.82740811445612 -37.824079223468274, 174.82052340240398 -37.81789647510416)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.8274081144561</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-37.82407922346827</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.820523402404</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-37.81789647510416</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.8239657584301</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-37.82098784928622</v>
       </c>
     </row>
@@ -28897,27 +28903,28 @@
       <c r="P3" t="n">
         <v>408.8922012883074</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.8281447699701 -37.82357740102923, 174.82111852362527 -37.81749538402756)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.8281447699701</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-37.82357740102923</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.8211185236253</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-37.81749538402756</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.8246316467977</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-37.8205363925284</v>
       </c>
     </row>
@@ -28974,27 +28981,28 @@
       <c r="P4" t="n">
         <v>414.020011727008</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.8289578840471 -37.822978447221885, 174.82153688840964 -37.81719809395159)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.8289578840471</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-37.82297844722189</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.8215368884096</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-37.81719809395159</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.8252473862284</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-37.82008827058674</v>
       </c>
     </row>
@@ -29051,27 +29059,28 @@
       <c r="P5" t="n">
         <v>422.131887694911</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.82989641121384 -37.82216977009475, 174.82165175524807 -37.817138241465805)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.8298964112138</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-37.82216977009475</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.8216517552481</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-37.81713824146581</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.825774083231</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-37.81965400578028</v>
       </c>
     </row>
@@ -29128,27 +29137,28 @@
       <c r="P6" t="n">
         <v>422.202339590065</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.83056567070395 -37.82138339265769, 174.8218641991613 -37.81686025920852)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.8305656707039</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-37.82138339265769</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.8218641991613</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-37.81686025920852</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.8262149349326</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-37.8191218259331</v>
       </c>
     </row>
@@ -29205,27 +29215,28 @@
       <c r="P7" t="n">
         <v>419.5340508176426</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.83103975668655 -37.82084274677543, 174.82242574236878 -37.81621581086305)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.8310397566866</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-37.82084274677543</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.8224257423688</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-37.81621581086305</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.8267327495277</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-37.81852927881924</v>
       </c>
     </row>
@@ -29282,27 +29293,28 @@
       <c r="P8" t="n">
         <v>426.6679907438746</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.8316560181766 -37.820140333891175, 174.82278560310982 -37.815828115016885)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.8316560181766</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-37.82014033389117</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.8227856031098</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-37.81582811501688</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.8272208106432</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-37.81798422445403</v>
       </c>
     </row>
@@ -29359,27 +29371,28 @@
       <c r="P9" t="n">
         <v>429.9392796614269</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.83225854868863 -37.81929539495736, 174.82297679419187 -37.81556582635415)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.8322585486886</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-37.81929539495736</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.8229767941919</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-37.81556582635415</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.8276176714402</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-37.81743061065576</v>
       </c>
     </row>
@@ -29436,27 +29449,28 @@
       <c r="P10" t="n">
         <v>418.7115389780411</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.83271077480404 -37.81855765989475, 174.82327223520466 -37.815083832312446)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.832710774804</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-37.81855765989475</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.8232722352047</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-37.81508383231245</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.8279915050043</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-37.8168207461036</v>
       </c>
     </row>
@@ -29513,27 +29527,28 @@
       <c r="P11" t="n">
         <v>422.709214875159</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.83304547711742 -37.818001940386345, 174.8237354091618 -37.8143170663588)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.8330454771174</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-37.81800194038635</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.8237354091618</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-37.8143170663588</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.8283904431396</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-37.81615950337257</v>
       </c>
     </row>
@@ -29590,27 +29605,28 @@
       <c r="P12" t="n">
         <v>423.4594500207651</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.83355644615486 -37.81725742419403, 174.82405445519723 -37.81389405787431)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.8335564461549</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-37.81725742419403</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.8240544551972</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-37.81389405787431</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.828805450676</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-37.81557574103417</v>
       </c>
     </row>
@@ -29667,27 +29683,28 @@
       <c r="P13" t="n">
         <v>420.4568939188179</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.83394653779038 -37.81645239033632, 174.82425333955817 -37.813450964111034)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.8339465377904</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-37.81645239033632</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.8242533395582</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-37.81345096411103</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.8290999386743</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-37.81495167722368</v>
       </c>
     </row>
@@ -29744,27 +29761,28 @@
       <c r="P14" t="n">
         <v>411.5612266861062</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.83425415998838 -37.8159023656147, 174.82469341530796 -37.812645339306556)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.8342541599884</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-37.8159023656147</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.824693415308</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-37.81264533930656</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.8294737876482</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-37.81427385246063</v>
       </c>
     </row>
@@ -29821,27 +29839,28 @@
       <c r="P15" t="n">
         <v>416.7795175487283</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.83461410236401 -37.81527612198857, 174.82508157717282 -37.811967689544076)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.834614102364</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-37.81527612198857</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.8250815771728</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-37.81196768954408</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.8298478397684</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-37.81362190576633</v>
       </c>
     </row>
@@ -29898,27 +29917,28 @@
       <c r="P16" t="n">
         <v>413.8033641497045</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.8349877523812 -37.814625027236296, 174.82544852533056 -37.811328829602)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.8349877523812</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-37.8146250272363</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.8254485253306</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-37.811328829602</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.8302181388559</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-37.81297692841915</v>
       </c>
     </row>
@@ -29975,27 +29995,28 @@
       <c r="P17" t="n">
         <v>418.7412414512818</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.8353614134447 -37.81396812089302, 174.82580870001797 -37.81069661682323)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.8353614134447</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-37.81396812089302</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.825808700018</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-37.81069661682323</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.8305850567313</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-37.81233236885812</v>
       </c>
     </row>
@@ -30052,27 +30073,28 @@
       <c r="P18" t="n">
         <v>416.7044334960687</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (174.83572972875302 -37.81331502431453, 174.8261702775595 -37.81005598713638)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>174.835729728753</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-37.81331502431453</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>174.8261702775595</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-37.81005598713638</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>174.8309500031563</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-37.81168550572545</v>
       </c>
     </row>
@@ -30129,27 +30151,28 @@
       <c r="P19" t="n">
         <v>415.9329179266616</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (174.83605507067247 -37.81273819129209, 174.82659836868444 -37.809296256787064)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>174.8360550706725</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-37.81273819129209</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>174.8265983686844</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-37.80929625678706</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>174.8313267196785</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-37.81101722403957</v>
       </c>
     </row>
@@ -30206,27 +30229,28 @@
       <c r="P20" t="n">
         <v>421.1756018492242</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (174.8363945532989 -37.812211971441215, 174.82710440793232 -37.80849634185055)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>174.8363945532989</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-37.81221197144122</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>174.8271044079323</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-37.80849634185055</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>174.8317494806156</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-37.81035415664589</v>
       </c>
     </row>
@@ -30283,27 +30307,28 @@
       <c r="P21" t="n">
         <v>414.3619647852847</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (174.8367962430527 -37.81162269056478, 174.82756573413405 -37.80781499417489)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>174.8367962430527</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-37.81162269056478</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>174.8275657341341</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-37.80781499417489</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>174.8321809885934</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-37.80971884236983</v>
       </c>
     </row>
@@ -30360,27 +30385,28 @@
       <c r="P22" t="n">
         <v>426.2027995544934</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (174.8370411601563 -37.81124317140911, 174.82827011022138 -37.80680594488338)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>174.8370411601563</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-37.81124317140911</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>174.8282701102214</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-37.80680594488338</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>174.8326556351888</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-37.80902455814625</v>
       </c>
     </row>
@@ -30437,27 +30463,28 @@
       <c r="P23" t="n">
         <v>415.6761912104398</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (174.83735456138157 -37.81095654989404, 174.82920297825015 -37.805831315584896)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>174.8373545613816</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-37.81095654989404</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>174.8292029782502</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-37.8058313155849</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>174.8332787698159</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-37.80839393273946</v>
       </c>
     </row>
@@ -30514,27 +30541,28 @@
       <c r="P24" t="n">
         <v>434.3955388066703</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (174.83781729972367 -37.810521447163765, 174.82995781176714 -37.80511745979545)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>174.8378172997237</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-37.81052144716377</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>174.8299578117671</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-37.80511745979545</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>174.8338875557454</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-37.80781945347961</v>
       </c>
     </row>
@@ -30591,27 +30619,28 @@
       <c r="P25" t="n">
         <v>426.7120341413814</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (174.83825816549606 -37.81015628733919, 174.83084598132928 -37.80436919642651)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>174.8382581654961</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-37.81015628733919</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>174.8308459813293</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-37.80436919642651</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>174.8345520734127</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-37.80726274188285</v>
       </c>
     </row>
@@ -30668,27 +30697,28 @@
       <c r="P26" t="n">
         <v>418.0682586965581</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (174.8388207152568 -37.80974929316318, 174.83165584139923 -37.803769908684906)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>174.8388207152568</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-37.80974929316318</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>174.8316558413992</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-37.80376990868491</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>174.835238278328</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-37.80675960092404</v>
       </c>
     </row>
@@ -30745,27 +30775,28 @@
       <c r="P27" t="n">
         <v>410.070456317609</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (174.83915919285985 -37.8094838527557, 174.83281400897567 -37.80294903120895)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>174.8391591928599</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-37.8094838527557</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>174.8328140089757</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-37.80294903120895</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>174.8359866009177</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-37.80621644198232</v>
       </c>
     </row>
@@ -30822,27 +30853,28 @@
       <c r="P28" t="n">
         <v>409.3941619896853</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (174.83937447503834 -37.80940443491479, 174.83442770037894 -37.80215076788109)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>174.8393744750383</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-37.80940443491479</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>174.8344277003789</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-37.80215076788109</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>174.8369010877086</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-37.80577760139793</v>
       </c>
     </row>
@@ -30899,27 +30931,28 @@
       <c r="P29" t="n">
         <v>416.0573791976997</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>LINESTRING (174.83999271345584 -37.8091894091627, 174.83555496536235 -37.801731910851345)</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>174.8399927134558</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>-37.8091894091627</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>174.8355549653623</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>-37.80173191085134</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>174.8377738394091</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>-37.80546066000702</v>
       </c>
     </row>
@@ -30976,27 +31009,28 @@
       <c r="P30" t="n">
         <v>427.57261758792</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
         <is>
           <t>LINESTRING (174.8409529506889 -37.80883923932906, 174.83615013851283 -37.801525088448514)</t>
         </is>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>174.8409529506889</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>-37.80883923932906</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>174.8361501385128</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>-37.80152508844851</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>174.8385515446009</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>-37.80518216388879</v>
       </c>
     </row>
@@ -31053,27 +31087,28 @@
       <c r="P31" t="n">
         <v>428.9753467798557</v>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
         <is>
           <t>LINESTRING (174.84215667435845 -37.80829714420948, 174.83627265929948 -37.801496862489635)</t>
         </is>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>174.8421566743584</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>-37.80829714420948</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>174.8362726592995</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>-37.80149686248964</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>174.839214666829</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>-37.80489700334956</v>
       </c>
     </row>
@@ -31130,27 +31165,28 @@
       <c r="P32" t="n">
         <v>410.5138005384754</v>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
         <is>
           <t>LINESTRING (174.84312639957614 -37.80770044396096, 174.83656475811827 -37.801301226835854)</t>
         </is>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>174.8431263995761</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>-37.80770044396096</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>174.8365647581183</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>-37.80130122683585</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>174.8398455788472</v>
       </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
         <v>-37.80450083539841</v>
       </c>
     </row>

--- a/data/nzd0228/nzd0228.xlsx
+++ b/data/nzd0228/nzd0228.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG288"/>
+  <dimension ref="A1:AG291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25609,12 +25609,323 @@
       <c r="AA288" t="n">
         <v>447.98</v>
       </c>
-      <c r="AB288" t="inlineStr"/>
-      <c r="AC288" t="inlineStr"/>
+      <c r="AB288" t="n">
+        <v>500.0133333333333</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>511.83</v>
+      </c>
       <c r="AD288" t="inlineStr"/>
       <c r="AE288" t="inlineStr"/>
       <c r="AF288" t="inlineStr"/>
       <c r="AG288" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>395.13</v>
+      </c>
+      <c r="C289" t="n">
+        <v>378.3714285714286</v>
+      </c>
+      <c r="D289" t="n">
+        <v>379.64</v>
+      </c>
+      <c r="E289" t="n">
+        <v>391.1614285714285</v>
+      </c>
+      <c r="F289" t="n">
+        <v>388.6414285714285</v>
+      </c>
+      <c r="G289" t="n">
+        <v>387.5614285714286</v>
+      </c>
+      <c r="H289" t="n">
+        <v>386.9114285714285</v>
+      </c>
+      <c r="I289" t="n">
+        <v>381.15</v>
+      </c>
+      <c r="J289" t="n">
+        <v>378.3214285714286</v>
+      </c>
+      <c r="K289" t="n">
+        <v>375.52</v>
+      </c>
+      <c r="L289" t="n">
+        <v>382.13</v>
+      </c>
+      <c r="M289" t="n">
+        <v>371.72</v>
+      </c>
+      <c r="N289" t="n">
+        <v>371.54</v>
+      </c>
+      <c r="O289" t="n">
+        <v>382.02</v>
+      </c>
+      <c r="P289" t="n">
+        <v>398.4114285714285</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>424.96</v>
+      </c>
+      <c r="R289" t="n">
+        <v>438.88</v>
+      </c>
+      <c r="S289" t="n">
+        <v>423.4714285714285</v>
+      </c>
+      <c r="T289" t="n">
+        <v>419.2714285714285</v>
+      </c>
+      <c r="U289" t="n">
+        <v>412.2814285714285</v>
+      </c>
+      <c r="V289" t="n">
+        <v>405.98</v>
+      </c>
+      <c r="W289" t="n">
+        <v>412.0133333333333</v>
+      </c>
+      <c r="X289" t="n">
+        <v>427.12</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>433.0614285714286</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>439.82</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>440.84</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>464.3333333333333</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>503.96</v>
+      </c>
+      <c r="AD289" t="inlineStr"/>
+      <c r="AE289" t="inlineStr"/>
+      <c r="AF289" t="inlineStr"/>
+      <c r="AG289" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>388.86</v>
+      </c>
+      <c r="C290" t="n">
+        <v>371.2957142857143</v>
+      </c>
+      <c r="D290" t="n">
+        <v>376.85</v>
+      </c>
+      <c r="E290" t="n">
+        <v>379.4657142857143</v>
+      </c>
+      <c r="F290" t="n">
+        <v>381.6457142857143</v>
+      </c>
+      <c r="G290" t="n">
+        <v>376.4357142857143</v>
+      </c>
+      <c r="H290" t="n">
+        <v>381.6957142857143</v>
+      </c>
+      <c r="I290" t="n">
+        <v>380.91</v>
+      </c>
+      <c r="J290" t="n">
+        <v>375.4657142857143</v>
+      </c>
+      <c r="K290" t="n">
+        <v>370.06</v>
+      </c>
+      <c r="L290" t="n">
+        <v>373.97</v>
+      </c>
+      <c r="M290" t="n">
+        <v>366.09</v>
+      </c>
+      <c r="N290" t="n">
+        <v>362.12</v>
+      </c>
+      <c r="O290" t="n">
+        <v>369.23</v>
+      </c>
+      <c r="P290" t="n">
+        <v>373.4557142857143</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>387.64</v>
+      </c>
+      <c r="R290" t="n">
+        <v>403.73</v>
+      </c>
+      <c r="S290" t="n">
+        <v>423.1157142857143</v>
+      </c>
+      <c r="T290" t="n">
+        <v>428.8057142857143</v>
+      </c>
+      <c r="U290" t="n">
+        <v>414.7657142857143</v>
+      </c>
+      <c r="V290" t="n">
+        <v>395.64</v>
+      </c>
+      <c r="W290" t="n">
+        <v>392.1133333333333</v>
+      </c>
+      <c r="X290" t="n">
+        <v>400.86</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>416.1257142857143</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>436.84</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>443.82</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>460.6733333333333</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>476.97</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>496.77</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>506.4433333333333</v>
+      </c>
+      <c r="AF290" t="inlineStr"/>
+      <c r="AG290" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>407.69</v>
+      </c>
+      <c r="C291" t="n">
+        <v>390.6842857142857</v>
+      </c>
+      <c r="D291" t="n">
+        <v>390.41</v>
+      </c>
+      <c r="E291" t="n">
+        <v>401.4042857142857</v>
+      </c>
+      <c r="F291" t="n">
+        <v>391.0742857142857</v>
+      </c>
+      <c r="G291" t="n">
+        <v>389.1842857142857</v>
+      </c>
+      <c r="H291" t="n">
+        <v>395.6442857142857</v>
+      </c>
+      <c r="I291" t="n">
+        <v>400.19</v>
+      </c>
+      <c r="J291" t="n">
+        <v>392.4542857142857</v>
+      </c>
+      <c r="K291" t="n">
+        <v>402.43</v>
+      </c>
+      <c r="L291" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="M291" t="n">
+        <v>393.1</v>
+      </c>
+      <c r="N291" t="n">
+        <v>377.23</v>
+      </c>
+      <c r="O291" t="n">
+        <v>395.62</v>
+      </c>
+      <c r="P291" t="n">
+        <v>393.2842857142857</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>401.88</v>
+      </c>
+      <c r="R291" t="n">
+        <v>413.57</v>
+      </c>
+      <c r="S291" t="n">
+        <v>421.1442857142857</v>
+      </c>
+      <c r="T291" t="n">
+        <v>418.0342857142857</v>
+      </c>
+      <c r="U291" t="n">
+        <v>409.2042857142857</v>
+      </c>
+      <c r="V291" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="W291" t="n">
+        <v>398.6933333333333</v>
+      </c>
+      <c r="X291" t="n">
+        <v>419.83</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>428.5542857142857</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>435.71</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>433.96</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>448.6433333333333</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>461.45</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>478.33</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>470.9733333333333</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>448.83</v>
+      </c>
+      <c r="AG291" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -25631,7 +25942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B299"/>
+  <dimension ref="A1:B302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28629,6 +28940,36 @@
       </c>
       <c r="B299" t="n">
         <v>-0.39</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>
@@ -28802,28 +29143,28 @@
         <v>0.0314</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4572201716581257</v>
+        <v>-0.4639946844667271</v>
       </c>
       <c r="J2" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K2" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05692912546684492</v>
+        <v>0.05967068837759737</v>
       </c>
       <c r="M2" t="n">
-        <v>10.81837520339088</v>
+        <v>10.77870932545738</v>
       </c>
       <c r="N2" t="n">
-        <v>189.3490816330236</v>
+        <v>187.7455640677177</v>
       </c>
       <c r="O2" t="n">
-        <v>13.76041720417748</v>
+        <v>13.70202773562065</v>
       </c>
       <c r="P2" t="n">
-        <v>411.6625522863894</v>
+        <v>411.7289317159377</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28880,28 +29221,28 @@
         <v>0.0362</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.9037142047620746</v>
+        <v>-0.917596969024335</v>
       </c>
       <c r="J3" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K3" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1718018372678564</v>
+        <v>0.1789540119284676</v>
       </c>
       <c r="M3" t="n">
-        <v>11.8150934876614</v>
+        <v>11.77529765373674</v>
       </c>
       <c r="N3" t="n">
-        <v>214.6627802010867</v>
+        <v>213.1046841705076</v>
       </c>
       <c r="O3" t="n">
-        <v>14.65137468639331</v>
+        <v>14.59810549936216</v>
       </c>
       <c r="P3" t="n">
-        <v>408.8922012883074</v>
+        <v>409.0292462513001</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28958,28 +29299,28 @@
         <v>0.0418</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.041741029047001</v>
+        <v>-1.055197187937913</v>
       </c>
       <c r="J4" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K4" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2267347531625676</v>
+        <v>0.2354579292869859</v>
       </c>
       <c r="M4" t="n">
-        <v>11.41120298422759</v>
+        <v>11.36451791096046</v>
       </c>
       <c r="N4" t="n">
-        <v>198.622058377096</v>
+        <v>196.7412269320427</v>
       </c>
       <c r="O4" t="n">
-        <v>14.09333382763269</v>
+        <v>14.02644740952044</v>
       </c>
       <c r="P4" t="n">
-        <v>414.020011727008</v>
+        <v>414.1520878881073</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29036,28 +29377,28 @@
         <v>0.0383</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.362467919201706</v>
+        <v>-1.353849206692782</v>
       </c>
       <c r="J5" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K5" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2778866141789937</v>
+        <v>0.2801324566505876</v>
       </c>
       <c r="M5" t="n">
-        <v>12.80006355110556</v>
+        <v>12.73550338595376</v>
       </c>
       <c r="N5" t="n">
-        <v>261.1978443022034</v>
+        <v>258.832469203729</v>
       </c>
       <c r="O5" t="n">
-        <v>16.1616163889075</v>
+        <v>16.08827116888975</v>
       </c>
       <c r="P5" t="n">
-        <v>422.131887694911</v>
+        <v>422.0478967389853</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29114,28 +29455,28 @@
         <v>0.0371</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.679663194739649</v>
+        <v>-1.659410136278512</v>
       </c>
       <c r="J6" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K6" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3511427159664547</v>
+        <v>0.351379612002251</v>
       </c>
       <c r="M6" t="n">
-        <v>13.42621545250093</v>
+        <v>13.33592767957582</v>
       </c>
       <c r="N6" t="n">
-        <v>284.4921980030259</v>
+        <v>281.5747109682216</v>
       </c>
       <c r="O6" t="n">
-        <v>16.86689651367512</v>
+        <v>16.78018804925086</v>
       </c>
       <c r="P6" t="n">
-        <v>422.202339590065</v>
+        <v>422.0075875021022</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29192,28 +29533,28 @@
         <v>0.0398</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.725883999764971</v>
+        <v>-1.703822779582158</v>
       </c>
       <c r="J7" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K7" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3490864336461685</v>
+        <v>0.3482404098848759</v>
       </c>
       <c r="M7" t="n">
-        <v>13.65912446858956</v>
+        <v>13.59714825919811</v>
       </c>
       <c r="N7" t="n">
-        <v>299.4196936746083</v>
+        <v>296.8685846824566</v>
       </c>
       <c r="O7" t="n">
-        <v>17.30374796610862</v>
+        <v>17.22987477268644</v>
       </c>
       <c r="P7" t="n">
-        <v>419.5340508176426</v>
+        <v>419.3176139406792</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29270,28 +29611,28 @@
         <v>0.0381</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.902975504469859</v>
+        <v>-1.877865916823955</v>
       </c>
       <c r="J8" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K8" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3814518474103221</v>
+        <v>0.380346406373983</v>
       </c>
       <c r="M8" t="n">
-        <v>13.93126435057576</v>
+        <v>13.87366499786472</v>
       </c>
       <c r="N8" t="n">
-        <v>313.8510878982652</v>
+        <v>311.381418127271</v>
       </c>
       <c r="O8" t="n">
-        <v>17.7158428503491</v>
+        <v>17.6460028937794</v>
       </c>
       <c r="P8" t="n">
-        <v>426.6679907438746</v>
+        <v>426.421126288671</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29348,28 +29689,28 @@
         <v>0.0317</v>
       </c>
       <c r="I9" t="n">
-        <v>-2.069532617607278</v>
+        <v>-2.042652832270525</v>
       </c>
       <c r="J9" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K9" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3597041929511208</v>
+        <v>0.3585436197154401</v>
       </c>
       <c r="M9" t="n">
-        <v>15.43594823624196</v>
+        <v>15.36632025503706</v>
       </c>
       <c r="N9" t="n">
-        <v>388.6962037365767</v>
+        <v>385.9178340927726</v>
       </c>
       <c r="O9" t="n">
-        <v>19.71537987806922</v>
+        <v>19.64479152581601</v>
       </c>
       <c r="P9" t="n">
-        <v>429.9392796614269</v>
+        <v>429.664156604888</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29426,28 +29767,28 @@
         <v>0.0412</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.669447813933551</v>
+        <v>-1.654150594169956</v>
       </c>
       <c r="J10" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K10" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2651694535100454</v>
+        <v>0.2663224101384021</v>
       </c>
       <c r="M10" t="n">
-        <v>15.19007207591429</v>
+        <v>15.07468302802256</v>
       </c>
       <c r="N10" t="n">
-        <v>400.2590710790233</v>
+        <v>396.1109083443437</v>
       </c>
       <c r="O10" t="n">
-        <v>20.00647572859906</v>
+        <v>19.90253522404479</v>
       </c>
       <c r="P10" t="n">
-        <v>418.7115389780411</v>
+        <v>418.556928942715</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29504,28 +29845,28 @@
         <v>0.0318</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.661130194690056</v>
+        <v>-1.65510852072911</v>
       </c>
       <c r="J11" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K11" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2299204064971971</v>
+        <v>0.2326981845299912</v>
       </c>
       <c r="M11" t="n">
-        <v>17.50471733549399</v>
+        <v>17.43910556393046</v>
       </c>
       <c r="N11" t="n">
-        <v>496.4716474481647</v>
+        <v>492.5593212939203</v>
       </c>
       <c r="O11" t="n">
-        <v>22.28164373308587</v>
+        <v>22.19367750720732</v>
       </c>
       <c r="P11" t="n">
-        <v>422.709214875159</v>
+        <v>422.6499757540114</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29582,28 +29923,28 @@
         <v>0.0263</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.275941219268878</v>
+        <v>-1.288615444049644</v>
       </c>
       <c r="J12" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K12" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1597900113559787</v>
+        <v>0.1657622117389519</v>
       </c>
       <c r="M12" t="n">
-        <v>16.67275928813583</v>
+        <v>16.61898253231782</v>
       </c>
       <c r="N12" t="n">
-        <v>456.6093933831742</v>
+        <v>452.6169254278581</v>
       </c>
       <c r="O12" t="n">
-        <v>21.36842047001074</v>
+        <v>21.27479554373809</v>
       </c>
       <c r="P12" t="n">
-        <v>423.4594500207651</v>
+        <v>423.5826923966558</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29660,28 +30001,28 @@
         <v>0.0276</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.329918373876566</v>
+        <v>-1.356490607951801</v>
       </c>
       <c r="J13" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K13" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1586476692634264</v>
+        <v>0.1673260896933914</v>
       </c>
       <c r="M13" t="n">
-        <v>17.32497362917008</v>
+        <v>17.26896182324754</v>
       </c>
       <c r="N13" t="n">
-        <v>513.4011346535323</v>
+        <v>509.2482923131885</v>
       </c>
       <c r="O13" t="n">
-        <v>22.65835683922231</v>
+        <v>22.56653035610899</v>
       </c>
       <c r="P13" t="n">
-        <v>420.4568939188179</v>
+        <v>420.7104047597486</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29738,28 +30079,28 @@
         <v>0.0428</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.237834030617254</v>
+        <v>-1.26365791415889</v>
       </c>
       <c r="J14" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K14" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1494722743175108</v>
+        <v>0.1580777745657357</v>
       </c>
       <c r="M14" t="n">
-        <v>16.87814674699158</v>
+        <v>16.77015773019673</v>
       </c>
       <c r="N14" t="n">
-        <v>490.4897732309955</v>
+        <v>485.3207927613382</v>
       </c>
       <c r="O14" t="n">
-        <v>22.14700370774782</v>
+        <v>22.02999756607654</v>
       </c>
       <c r="P14" t="n">
-        <v>411.5612266861062</v>
+        <v>411.8064062514709</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29816,28 +30157,28 @@
         <v>0.0314</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.175725862189586</v>
+        <v>-1.187779965512897</v>
       </c>
       <c r="J15" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K15" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1426083432377219</v>
+        <v>0.1482688635731725</v>
       </c>
       <c r="M15" t="n">
-        <v>17.02441221999038</v>
+        <v>16.93456756419399</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7247296237194</v>
+        <v>461.0917206974158</v>
       </c>
       <c r="O15" t="n">
-        <v>21.58065637610959</v>
+        <v>21.47304637673508</v>
       </c>
       <c r="P15" t="n">
-        <v>416.7795175487283</v>
+        <v>416.8926578006897</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29894,28 +30235,28 @@
         <v>0.0408</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.9907579774451382</v>
+        <v>-0.9913254906631452</v>
       </c>
       <c r="J16" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K16" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1206715808035327</v>
+        <v>0.1234316706974723</v>
       </c>
       <c r="M16" t="n">
-        <v>15.08003636118892</v>
+        <v>15.00727860365255</v>
       </c>
       <c r="N16" t="n">
-        <v>395.2290101979628</v>
+        <v>391.2909285797637</v>
       </c>
       <c r="O16" t="n">
-        <v>19.88036745631133</v>
+        <v>19.78107501072082</v>
       </c>
       <c r="P16" t="n">
-        <v>413.8033641497045</v>
+        <v>413.8089500613013</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29972,28 +30313,28 @@
         <v>0.0338</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.9189388730277231</v>
+        <v>-0.8948092832861753</v>
       </c>
       <c r="J17" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K17" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L17" t="n">
-        <v>0.09563898225508882</v>
+        <v>0.09258053229480534</v>
       </c>
       <c r="M17" t="n">
-        <v>16.30306975208412</v>
+        <v>16.27361516725412</v>
       </c>
       <c r="N17" t="n">
-        <v>433.7032369122969</v>
+        <v>432.1897449090578</v>
       </c>
       <c r="O17" t="n">
-        <v>20.82554289597985</v>
+        <v>20.78917374281763</v>
       </c>
       <c r="P17" t="n">
-        <v>418.7412414512818</v>
+        <v>418.5068848063331</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30050,28 +30391,28 @@
         <v>0.0367</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.819671104994969</v>
+        <v>-0.7577372551442576</v>
       </c>
       <c r="J18" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K18" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L18" t="n">
-        <v>0.08211089924315307</v>
+        <v>0.07116655288571117</v>
       </c>
       <c r="M18" t="n">
-        <v>15.73042354044666</v>
+        <v>15.80936060558149</v>
       </c>
       <c r="N18" t="n">
-        <v>391.5726507024327</v>
+        <v>396.2234885353814</v>
       </c>
       <c r="O18" t="n">
-        <v>19.78819473075886</v>
+        <v>19.90536331081102</v>
       </c>
       <c r="P18" t="n">
-        <v>416.7044334960687</v>
+        <v>416.0797752968863</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30128,28 +30469,28 @@
         <v>0.0399</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.9154482568249948</v>
+        <v>-0.8323789196983894</v>
       </c>
       <c r="J19" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K19" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1003070866993504</v>
+        <v>0.08422343089372575</v>
       </c>
       <c r="M19" t="n">
-        <v>15.53617923328761</v>
+        <v>15.7022974747211</v>
       </c>
       <c r="N19" t="n">
-        <v>401.4108812570296</v>
+        <v>408.1394620967262</v>
       </c>
       <c r="O19" t="n">
-        <v>20.03524098325322</v>
+        <v>20.20246178307798</v>
       </c>
       <c r="P19" t="n">
-        <v>415.9329179266616</v>
+        <v>415.1081772757175</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30206,28 +30547,28 @@
         <v>0.0441</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.163560570695073</v>
+        <v>-1.081389945247075</v>
       </c>
       <c r="J20" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K20" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1539706149137067</v>
+        <v>0.1353813098948135</v>
       </c>
       <c r="M20" t="n">
-        <v>15.56770482430506</v>
+        <v>15.72465360533394</v>
       </c>
       <c r="N20" t="n">
-        <v>396.519439520277</v>
+        <v>403.826852724066</v>
       </c>
       <c r="O20" t="n">
-        <v>19.91279587401721</v>
+        <v>20.09544358117198</v>
       </c>
       <c r="P20" t="n">
-        <v>421.1756018492242</v>
+        <v>420.3621623192773</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30284,28 +30625,28 @@
         <v>0.0381</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.6032852737204697</v>
+        <v>-0.5662801838698805</v>
       </c>
       <c r="J21" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K21" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L21" t="n">
-        <v>0.04019088925705061</v>
+        <v>0.03640120621808152</v>
       </c>
       <c r="M21" t="n">
-        <v>16.03962643306668</v>
+        <v>15.99424182595846</v>
       </c>
       <c r="N21" t="n">
-        <v>437.7467299234771</v>
+        <v>433.8671087844883</v>
       </c>
       <c r="O21" t="n">
-        <v>20.92239780530609</v>
+        <v>20.82947692056832</v>
       </c>
       <c r="P21" t="n">
-        <v>414.3619647852847</v>
+        <v>413.980037461588</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30362,28 +30703,28 @@
         <v>0.033</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.334140741855506</v>
+        <v>-1.305471696029011</v>
       </c>
       <c r="J22" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K22" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L22" t="n">
-        <v>0.155469010177092</v>
+        <v>0.1532464709691499</v>
       </c>
       <c r="M22" t="n">
-        <v>17.73188307766934</v>
+        <v>17.6171639179416</v>
       </c>
       <c r="N22" t="n">
-        <v>511.0058893988974</v>
+        <v>505.772047451453</v>
       </c>
       <c r="O22" t="n">
-        <v>22.6054393763735</v>
+        <v>22.48937632419923</v>
       </c>
       <c r="P22" t="n">
-        <v>426.2027995544934</v>
+        <v>425.9232151909313</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30440,28 +30781,28 @@
         <v>0.056</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.8339250454645211</v>
+        <v>-0.8120403385972519</v>
       </c>
       <c r="J23" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K23" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05661432156211277</v>
+        <v>0.05559318229963695</v>
       </c>
       <c r="M23" t="n">
-        <v>18.60884323491345</v>
+        <v>18.44269548049375</v>
       </c>
       <c r="N23" t="n">
-        <v>573.3038133128717</v>
+        <v>565.7577267754178</v>
       </c>
       <c r="O23" t="n">
-        <v>23.94376355782173</v>
+        <v>23.78566221015126</v>
       </c>
       <c r="P23" t="n">
-        <v>415.6761912104398</v>
+        <v>415.4552978417324</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -30518,28 +30859,28 @@
         <v>0.0409</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.377649535288531</v>
+        <v>-1.323474483469821</v>
       </c>
       <c r="J24" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K24" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1305935995066259</v>
+        <v>0.1247452994397622</v>
       </c>
       <c r="M24" t="n">
-        <v>20.16111933170922</v>
+        <v>20.09459790508983</v>
       </c>
       <c r="N24" t="n">
-        <v>655.7670669286795</v>
+        <v>651.4689773938082</v>
       </c>
       <c r="O24" t="n">
-        <v>25.60794929174688</v>
+        <v>25.52389032639437</v>
       </c>
       <c r="P24" t="n">
-        <v>434.3955388066703</v>
+        <v>433.8728388508958</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -30596,28 +30937,28 @@
         <v>0.045</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.276772648521109</v>
+        <v>-1.174076506207973</v>
       </c>
       <c r="J25" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K25" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1069024489989174</v>
+        <v>0.09304602724591904</v>
       </c>
       <c r="M25" t="n">
-        <v>20.58896545181221</v>
+        <v>20.78852447260516</v>
       </c>
       <c r="N25" t="n">
-        <v>694.5747385618863</v>
+        <v>699.4236808632577</v>
       </c>
       <c r="O25" t="n">
-        <v>26.35478587584969</v>
+        <v>26.44661946002282</v>
       </c>
       <c r="P25" t="n">
-        <v>426.7120341413814</v>
+        <v>425.7023680127334</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -30674,28 +31015,28 @@
         <v>0.0511</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.7429753892331256</v>
+        <v>-0.6234013949341122</v>
       </c>
       <c r="J26" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K26" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03763640748057973</v>
+        <v>0.0268645219217245</v>
       </c>
       <c r="M26" t="n">
-        <v>21.95611139051509</v>
+        <v>22.36567411263496</v>
       </c>
       <c r="N26" t="n">
-        <v>726.4831725089025</v>
+        <v>737.1604976947594</v>
       </c>
       <c r="O26" t="n">
-        <v>26.95335178616757</v>
+        <v>27.15069976436628</v>
       </c>
       <c r="P26" t="n">
-        <v>418.0682586965581</v>
+        <v>416.8647557621765</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -30752,28 +31093,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.179556528332912</v>
+        <v>-0.9866565002030723</v>
       </c>
       <c r="J27" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K27" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L27" t="n">
-        <v>0.08457785490633341</v>
+        <v>0.05900233165545166</v>
       </c>
       <c r="M27" t="n">
-        <v>22.23900001348399</v>
+        <v>23.12535494511587</v>
       </c>
       <c r="N27" t="n">
-        <v>798.0443808070989</v>
+        <v>839.5916565753818</v>
       </c>
       <c r="O27" t="n">
-        <v>28.24967930450006</v>
+        <v>28.97570804269296</v>
       </c>
       <c r="P27" t="n">
-        <v>410.070456317609</v>
+        <v>408.2180779656902</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -30830,28 +31171,28 @@
         <v>0.0585</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.016640493552362</v>
+        <v>-0.6684269507501563</v>
       </c>
       <c r="J28" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K28" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05999820644049947</v>
+        <v>0.02402615854587775</v>
       </c>
       <c r="M28" t="n">
-        <v>23.99238927419267</v>
+        <v>25.68221737649167</v>
       </c>
       <c r="N28" t="n">
-        <v>904.7107409575569</v>
+        <v>1039.193541929477</v>
       </c>
       <c r="O28" t="n">
-        <v>30.07840988080249</v>
+        <v>32.23652496671249</v>
       </c>
       <c r="P28" t="n">
-        <v>409.3941619896853</v>
+        <v>406.1538761750141</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -30908,28 +31249,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.121338429674379</v>
+        <v>-0.7475466006729253</v>
       </c>
       <c r="J29" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K29" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L29" t="n">
-        <v>0.06038896196349197</v>
+        <v>0.02425648593508922</v>
       </c>
       <c r="M29" t="n">
-        <v>25.2117391767391</v>
+        <v>27.31389486028259</v>
       </c>
       <c r="N29" t="n">
-        <v>1060.865847254698</v>
+        <v>1241.909875503265</v>
       </c>
       <c r="O29" t="n">
-        <v>32.57093562142018</v>
+        <v>35.24074169910821</v>
       </c>
       <c r="P29" t="n">
-        <v>416.0573791976997</v>
+        <v>412.3825915112784</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -30986,28 +31327,28 @@
         <v>0.0546</v>
       </c>
       <c r="I30" t="n">
-        <v>-1.027091363408739</v>
+        <v>-0.8557208888795285</v>
       </c>
       <c r="J30" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K30" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L30" t="n">
-        <v>0.04455259584740445</v>
+        <v>0.03002903926157441</v>
       </c>
       <c r="M30" t="n">
-        <v>27.30566774187638</v>
+        <v>27.95609329752777</v>
       </c>
       <c r="N30" t="n">
-        <v>1188.961631320287</v>
+        <v>1254.476428539621</v>
       </c>
       <c r="O30" t="n">
-        <v>34.48132293460166</v>
+        <v>35.41858874291325</v>
       </c>
       <c r="P30" t="n">
-        <v>427.57261758792</v>
+        <v>425.8137936014274</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -31064,28 +31405,28 @@
         <v>0.0559</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.7402095757245699</v>
+        <v>-0.5726820337376349</v>
       </c>
       <c r="J31" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K31" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01876715535010043</v>
+        <v>0.01100578699349009</v>
       </c>
       <c r="M31" t="n">
-        <v>29.08022118461361</v>
+        <v>29.80680410419451</v>
       </c>
       <c r="N31" t="n">
-        <v>1406.081697968351</v>
+        <v>1460.428121637145</v>
       </c>
       <c r="O31" t="n">
-        <v>37.49775590576523</v>
+        <v>38.2155481661214</v>
       </c>
       <c r="P31" t="n">
-        <v>428.9753467798557</v>
+        <v>427.1731711377008</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -31142,28 +31483,28 @@
         <v>0.0764</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2465815948926738</v>
+        <v>0.2828300315240965</v>
       </c>
       <c r="J32" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K32" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L32" t="n">
-        <v>0.001684919185613309</v>
+        <v>0.002232688532516791</v>
       </c>
       <c r="M32" t="n">
-        <v>31.14214097342028</v>
+        <v>31.19791601595013</v>
       </c>
       <c r="N32" t="n">
-        <v>1765.857527467909</v>
+        <v>1761.479291356365</v>
       </c>
       <c r="O32" t="n">
-        <v>42.0221076038305</v>
+        <v>41.96998083578744</v>
       </c>
       <c r="P32" t="n">
-        <v>410.5138005384754</v>
+        <v>410.1237296417718</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -31201,7 +31542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG288"/>
+  <dimension ref="A1:AG291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69058,8 +69399,16 @@
           <t>-37.80628631541141,174.8360542597818</t>
         </is>
       </c>
-      <c r="AB288" t="inlineStr"/>
-      <c r="AC288" t="inlineStr"/>
+      <c r="AB288" t="inlineStr">
+        <is>
+          <t>-37.805442055625015,174.8366721129736</t>
+        </is>
+      </c>
+      <c r="AC288" t="inlineStr">
+        <is>
+          <t>-37.80501914717188,174.8375109798359</t>
+        </is>
+      </c>
       <c r="AD288" t="inlineStr"/>
       <c r="AE288" t="inlineStr"/>
       <c r="AF288" t="inlineStr"/>
@@ -69069,6 +69418,491 @@
         </is>
       </c>
     </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>-37.821410944528026,174.82443668872068</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>-37.82106399601198,174.82524095636074</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>-37.82058189292478,174.82588089494126</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>-37.82002076795995,174.8263748010146</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>-37.81946419567943,174.82687328951576</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>-37.81888492372472,174.8273945773718</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>-37.81831886383534,174.82790887881356</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>-37.8177436732173,174.82839644826535</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>-37.81712313817139,174.82881275556278</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>-37.816491482531916,174.8292288672967</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>-37.81585457003541,174.82959280897697</t>
+        </is>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>-37.81523468434786,174.830013508318</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>-37.81458154793332,174.8303766222836</t>
+        </is>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>-37.813896603596774,174.83063894250105</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>-37.8131916421917,174.83083913808957</t>
+        </is>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>-37.812450680093995,174.8309301310239</t>
+        </is>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>-37.81175385529144,174.83115009261954</t>
+        </is>
+      </c>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t>-37.811147254894635,174.83168360500656</t>
+        </is>
+      </c>
+      <c r="T289" t="inlineStr">
+        <is>
+          <t>-37.81051148445817,174.83214249701118</t>
+        </is>
+      </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>-37.809909098564106,174.8326418623293</t>
+        </is>
+      </c>
+      <c r="V289" t="inlineStr">
+        <is>
+          <t>-37.809276555577334,174.83315346317917</t>
+        </is>
+      </c>
+      <c r="W289" t="inlineStr">
+        <is>
+          <t>-37.8086509023116,174.83368721867024</t>
+        </is>
+      </c>
+      <c r="X289" t="inlineStr">
+        <is>
+          <t>-37.80800110098816,174.83415149832695</t>
+        </is>
+      </c>
+      <c r="Y289" t="inlineStr">
+        <is>
+          <t>-37.807419465935546,174.83475258333533</t>
+        </is>
+      </c>
+      <c r="Z289" t="inlineStr">
+        <is>
+          <t>-37.806877262603415,174.83537905283796</t>
+        </is>
+      </c>
+      <c r="AA289" t="inlineStr">
+        <is>
+          <t>-37.8063372791477,174.83610374474264</t>
+        </is>
+      </c>
+      <c r="AB289" t="inlineStr">
+        <is>
+          <t>-37.80572480585933,174.83686493860878</t>
+        </is>
+      </c>
+      <c r="AC289" t="inlineStr">
+        <is>
+          <t>-37.80508327042293,174.83754913729496</t>
+        </is>
+      </c>
+      <c r="AD289" t="inlineStr"/>
+      <c r="AE289" t="inlineStr"/>
+      <c r="AF289" t="inlineStr"/>
+      <c r="AG289" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>-37.821453285937075,174.82448383820613</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>-37.82111099851885,174.82529525715563</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>-37.820599505679674,174.8259035072162</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>-37.82008502467082,174.82648009410974</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>-37.819498743130055,174.82693975231166</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>-37.81894112854392,174.8274992167736</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>-37.81834341877786,174.82795939048276</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>-37.81774465033645,174.82839888007737</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>-37.81713396698727,174.8288421787473</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>-37.81651344526256,174.82928435909793</t>
+        </is>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>-37.81588452800677,174.82967744692098</t>
+        </is>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>-37.81525312849655,174.8300730762998</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>-37.81461503748113,174.83047493145673</t>
+        </is>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>-37.81394279200443,174.83077202822244</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>-37.81328143105715,174.8310989946225</t>
+        </is>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>-37.81258394867494,174.83131927933334</t>
+        </is>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>-37.81187889643866,174.83151686984053</t>
+        </is>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t>-37.8111485913451,174.83168727694346</t>
+        </is>
+      </c>
+      <c r="T290" t="inlineStr">
+        <is>
+          <t>-37.810472813317304,174.8320458069239</t>
+        </is>
+      </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>-37.8098987725056,174.83261682983115</t>
+        </is>
+      </c>
+      <c r="V290" t="inlineStr">
+        <is>
+          <t>-37.80932664544547,174.8332524773249</t>
+        </is>
+      </c>
+      <c r="W290" t="inlineStr">
+        <is>
+          <t>-37.80876226650592,174.83386434394654</t>
+        </is>
+      </c>
+      <c r="X290" t="inlineStr">
+        <is>
+          <t>-37.80815605928928,174.8343768703217</t>
+        </is>
+      </c>
+      <c r="Y290" t="inlineStr">
+        <is>
+          <t>-37.80752649680044,174.83488967112064</t>
+        </is>
+      </c>
+      <c r="Z290" t="inlineStr">
+        <is>
+          <t>-37.80689672241014,174.83540237091938</t>
+        </is>
+      </c>
+      <c r="AA290" t="inlineStr">
+        <is>
+          <t>-37.80631600857149,174.8360830913473</t>
+        </is>
+      </c>
+      <c r="AB290" t="inlineStr">
+        <is>
+          <t>-37.80575380992649,174.83688471845343</t>
+        </is>
+      </c>
+      <c r="AC290" t="inlineStr">
+        <is>
+          <t>-37.80530317965598,174.83767999801586</t>
+        </is>
+      </c>
+      <c r="AD290" t="inlineStr">
+        <is>
+          <t>-37.804869672305934,174.83834620906734</t>
+        </is>
+      </c>
+      <c r="AE290" t="inlineStr">
+        <is>
+          <t>-37.80453519727506,174.8389014399544</t>
+        </is>
+      </c>
+      <c r="AF290" t="inlineStr"/>
+      <c r="AG290" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>-37.82132612658774,174.82434223951554</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>-37.82098220418324,174.8251464645911</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>-37.820513903859364,174.825793606798</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>-37.81996449322117,174.82628258771612</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>-37.819452181312755,174.82685017616652</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>-37.8188767253762,174.82737931411313</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>-37.81827775056534,174.82782430539126</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>-37.81766615493274,174.82820352470895</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>-37.81706954652607,174.8286671410963</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>-37.81638323724948,174.82895537245943</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>-37.815779417838414,174.82938048834848</t>
+        </is>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>-37.8151646421654,174.82978729837416</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>-37.814561319067806,174.83031724024517</t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>-37.813847489873524,174.83049742854067</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>-37.81321008933127,174.83089252547444</t>
+        </is>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>-37.81253309822596,174.83117079385906</t>
+        </is>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>-37.81184389215082,174.831414192967</t>
+        </is>
+      </c>
+      <c r="S291" t="inlineStr">
+        <is>
+          <t>-37.81115599817686,174.83170762743947</t>
+        </is>
+      </c>
+      <c r="T291" t="inlineStr">
+        <is>
+          <t>-37.81051650231369,174.83215504325986</t>
+        </is>
+      </c>
+      <c r="U291" t="inlineStr">
+        <is>
+          <t>-37.80992188885547,174.83267286866476</t>
+        </is>
+      </c>
+      <c r="V291" t="inlineStr">
+        <is>
+          <t>-37.809273552120196,174.83314752616496</t>
+        </is>
+      </c>
+      <c r="W291" t="inlineStr">
+        <is>
+          <t>-37.80872544360256,174.8338057768369</t>
+        </is>
+      </c>
+      <c r="X291" t="inlineStr">
+        <is>
+          <t>-37.808044118780465,174.83421406342106</t>
+        </is>
+      </c>
+      <c r="Y291" t="inlineStr">
+        <is>
+          <t>-37.807447950336865,174.8347890668026</t>
+        </is>
+      </c>
+      <c r="Z291" t="inlineStr">
+        <is>
+          <t>-37.80690410146306,174.83541121301388</t>
+        </is>
+      </c>
+      <c r="AA291" t="inlineStr">
+        <is>
+          <t>-37.80638638703991,174.83615142779507</t>
+        </is>
+      </c>
+      <c r="AB291" t="inlineStr">
+        <is>
+          <t>-37.8058491429398,174.8369497326444</t>
+        </is>
+      </c>
+      <c r="AC291" t="inlineStr">
+        <is>
+          <t>-37.80542963349727,174.83775524692786</t>
+        </is>
+      </c>
+      <c r="AD291" t="inlineStr">
+        <is>
+          <t>-37.805017023022366,174.8384429656742</t>
+        </is>
+      </c>
+      <c r="AE291" t="inlineStr">
+        <is>
+          <t>-37.804798677733814,174.83912941737543</t>
+        </is>
+      </c>
+      <c r="AF291" t="inlineStr">
+        <is>
+          <t>-37.80456346447851,174.83990960354402</t>
+        </is>
+      </c>
+      <c r="AG291" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0228/nzd0228.xlsx
+++ b/data/nzd0228/nzd0228.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG291"/>
+  <dimension ref="A1:AG292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25813,12 +25813,8 @@
       <c r="AC290" t="n">
         <v>476.97</v>
       </c>
-      <c r="AD290" t="n">
-        <v>496.77</v>
-      </c>
-      <c r="AE290" t="n">
-        <v>506.4433333333333</v>
-      </c>
+      <c r="AD290" t="inlineStr"/>
+      <c r="AE290" t="inlineStr"/>
       <c r="AF290" t="inlineStr"/>
       <c r="AG290" t="inlineStr">
         <is>
@@ -25916,9 +25912,7 @@
       <c r="AC291" t="n">
         <v>461.45</v>
       </c>
-      <c r="AD291" t="n">
-        <v>478.33</v>
-      </c>
+      <c r="AD291" t="inlineStr"/>
       <c r="AE291" t="n">
         <v>470.9733333333333</v>
       </c>
@@ -25926,6 +25920,103 @@
         <v>448.83</v>
       </c>
       <c r="AG291" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>413.1966666666667</v>
+      </c>
+      <c r="C292" t="n">
+        <v>393.3814285714286</v>
+      </c>
+      <c r="D292" t="n">
+        <v>390.7</v>
+      </c>
+      <c r="E292" t="n">
+        <v>401.9514285714286</v>
+      </c>
+      <c r="F292" t="n">
+        <v>393.4814285714286</v>
+      </c>
+      <c r="G292" t="n">
+        <v>391.6714285714286</v>
+      </c>
+      <c r="H292" t="n">
+        <v>398.1514285714285</v>
+      </c>
+      <c r="I292" t="n">
+        <v>398.0966666666667</v>
+      </c>
+      <c r="J292" t="n">
+        <v>388.6314285714286</v>
+      </c>
+      <c r="K292" t="n">
+        <v>400.54</v>
+      </c>
+      <c r="L292" t="n">
+        <v>404.44</v>
+      </c>
+      <c r="M292" t="n">
+        <v>395.19</v>
+      </c>
+      <c r="N292" t="n">
+        <v>366.86</v>
+      </c>
+      <c r="O292" t="n">
+        <v>386.2266666666667</v>
+      </c>
+      <c r="P292" t="n">
+        <v>378.3014285714286</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>393.3666666666667</v>
+      </c>
+      <c r="R292" t="n">
+        <v>399.7866666666667</v>
+      </c>
+      <c r="S292" t="n">
+        <v>392.5014285714286</v>
+      </c>
+      <c r="T292" t="n">
+        <v>398.0914285714285</v>
+      </c>
+      <c r="U292" t="n">
+        <v>398.3514285714285</v>
+      </c>
+      <c r="V292" t="n">
+        <v>399.0666666666667</v>
+      </c>
+      <c r="W292" t="n">
+        <v>381.2877777777778</v>
+      </c>
+      <c r="X292" t="n">
+        <v>412.8566666666667</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>415.8514285714285</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>416.32</v>
+      </c>
+      <c r="AA292" t="inlineStr"/>
+      <c r="AB292" t="inlineStr"/>
+      <c r="AC292" t="inlineStr"/>
+      <c r="AD292" t="n">
+        <v>424.05</v>
+      </c>
+      <c r="AE292" t="inlineStr"/>
+      <c r="AF292" t="n">
+        <v>421.7890909090909</v>
+      </c>
+      <c r="AG292" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -25942,7 +26033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B302"/>
+  <dimension ref="A1:B303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28970,6 +29061,16 @@
       </c>
       <c r="B302" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
@@ -29143,28 +29244,28 @@
         <v>0.0314</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4639946844667271</v>
+        <v>-0.4531594643063985</v>
       </c>
       <c r="J2" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K2" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05967068837759737</v>
+        <v>0.05730150423797564</v>
       </c>
       <c r="M2" t="n">
-        <v>10.77870932545738</v>
+        <v>10.79106270872022</v>
       </c>
       <c r="N2" t="n">
-        <v>187.7455640677177</v>
+        <v>187.6907948036319</v>
       </c>
       <c r="O2" t="n">
-        <v>13.70202773562065</v>
+        <v>13.70002900740111</v>
       </c>
       <c r="P2" t="n">
-        <v>411.7289317159377</v>
+        <v>411.6215513100902</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29221,28 +29322,28 @@
         <v>0.0362</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.917596969024335</v>
+        <v>-0.9113230723968588</v>
       </c>
       <c r="J3" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K3" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1789540119284676</v>
+        <v>0.1779658299927113</v>
       </c>
       <c r="M3" t="n">
-        <v>11.77529765373674</v>
+        <v>11.75862109081215</v>
       </c>
       <c r="N3" t="n">
-        <v>213.1046841705076</v>
+        <v>212.43394870969</v>
       </c>
       <c r="O3" t="n">
-        <v>14.59810549936216</v>
+        <v>14.57511402046962</v>
       </c>
       <c r="P3" t="n">
-        <v>409.0292462513001</v>
+        <v>408.9667827589175</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29299,28 +29400,28 @@
         <v>0.0418</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.055197187937913</v>
+        <v>-1.052161237300625</v>
       </c>
       <c r="J4" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K4" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2354579292869859</v>
+        <v>0.2360033094571461</v>
       </c>
       <c r="M4" t="n">
-        <v>11.36451791096046</v>
+        <v>11.32637191621032</v>
       </c>
       <c r="N4" t="n">
-        <v>196.7412269320427</v>
+        <v>195.9062824300615</v>
       </c>
       <c r="O4" t="n">
-        <v>14.02644740952044</v>
+        <v>13.99665254373564</v>
       </c>
       <c r="P4" t="n">
-        <v>414.1520878881073</v>
+        <v>414.1220513649279</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29377,28 +29478,28 @@
         <v>0.0383</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.353849206692782</v>
+        <v>-1.341044314082108</v>
       </c>
       <c r="J5" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K5" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2801324566505876</v>
+        <v>0.2774599679873636</v>
       </c>
       <c r="M5" t="n">
-        <v>12.73550338595376</v>
+        <v>12.73462541194876</v>
       </c>
       <c r="N5" t="n">
-        <v>258.832469203729</v>
+        <v>258.5962253281685</v>
       </c>
       <c r="O5" t="n">
-        <v>16.08827116888975</v>
+        <v>16.08092737774064</v>
       </c>
       <c r="P5" t="n">
-        <v>422.0478967389853</v>
+        <v>421.9228688038409</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29455,28 +29556,28 @@
         <v>0.0371</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.659410136278512</v>
+        <v>-1.64723552075572</v>
       </c>
       <c r="J6" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K6" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L6" t="n">
-        <v>0.351379612002251</v>
+        <v>0.3494749245921861</v>
       </c>
       <c r="M6" t="n">
-        <v>13.33592767957582</v>
+        <v>13.33095544294738</v>
       </c>
       <c r="N6" t="n">
-        <v>281.5747109682216</v>
+        <v>281.1575905230734</v>
       </c>
       <c r="O6" t="n">
-        <v>16.78018804925086</v>
+        <v>16.76775448660534</v>
       </c>
       <c r="P6" t="n">
-        <v>422.0075875021022</v>
+        <v>421.8899149177254</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29533,28 +29634,28 @@
         <v>0.0398</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.703822779582158</v>
+        <v>-1.690551582573956</v>
       </c>
       <c r="J7" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K7" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3482404098848759</v>
+        <v>0.3458502786458453</v>
       </c>
       <c r="M7" t="n">
-        <v>13.59714825919811</v>
+        <v>13.60780991440926</v>
       </c>
       <c r="N7" t="n">
-        <v>296.8685846824566</v>
+        <v>296.6614418926226</v>
       </c>
       <c r="O7" t="n">
-        <v>17.22987477268644</v>
+        <v>17.22386257181073</v>
       </c>
       <c r="P7" t="n">
-        <v>419.3176139406792</v>
+        <v>419.1867150190163</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29611,28 +29712,28 @@
         <v>0.0381</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.877865916823955</v>
+        <v>-1.86117932262015</v>
       </c>
       <c r="J8" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K8" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L8" t="n">
-        <v>0.380346406373983</v>
+        <v>0.3769792375928936</v>
       </c>
       <c r="M8" t="n">
-        <v>13.87366499786472</v>
+        <v>13.89806492083844</v>
       </c>
       <c r="N8" t="n">
-        <v>311.381418127271</v>
+        <v>311.7003357665214</v>
       </c>
       <c r="O8" t="n">
-        <v>17.6460028937794</v>
+        <v>17.65503712164099</v>
       </c>
       <c r="P8" t="n">
-        <v>426.421126288671</v>
+        <v>426.2563379492997</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29689,28 +29790,28 @@
         <v>0.0317</v>
       </c>
       <c r="I9" t="n">
-        <v>-2.042652832270525</v>
+        <v>-2.024552455281833</v>
       </c>
       <c r="J9" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K9" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3585436197154401</v>
+        <v>0.3554100842732127</v>
       </c>
       <c r="M9" t="n">
-        <v>15.36632025503706</v>
+        <v>15.39272636749853</v>
       </c>
       <c r="N9" t="n">
-        <v>385.9178340927726</v>
+        <v>386.0720237915726</v>
       </c>
       <c r="O9" t="n">
-        <v>19.64479152581601</v>
+        <v>19.64871557612794</v>
       </c>
       <c r="P9" t="n">
-        <v>429.664156604888</v>
+        <v>429.4782848116614</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29767,28 +29868,28 @@
         <v>0.0412</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.654150594169956</v>
+        <v>-1.64348171166302</v>
       </c>
       <c r="J10" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K10" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2663224101384021</v>
+        <v>0.2652189377096923</v>
       </c>
       <c r="M10" t="n">
-        <v>15.07468302802256</v>
+        <v>15.06492406474883</v>
       </c>
       <c r="N10" t="n">
-        <v>396.1109083443437</v>
+        <v>395.0246915829247</v>
       </c>
       <c r="O10" t="n">
-        <v>19.90253522404479</v>
+        <v>19.87522808882768</v>
       </c>
       <c r="P10" t="n">
-        <v>418.556928942715</v>
+        <v>418.4488037760322</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29845,28 +29946,28 @@
         <v>0.0318</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.65510852072911</v>
+        <v>-1.637503944367478</v>
       </c>
       <c r="J11" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K11" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2326981845299912</v>
+        <v>0.2299088674215715</v>
       </c>
       <c r="M11" t="n">
-        <v>17.43910556393046</v>
+        <v>17.45603935738989</v>
       </c>
       <c r="N11" t="n">
-        <v>492.5593212939203</v>
+        <v>492.1543205726999</v>
       </c>
       <c r="O11" t="n">
-        <v>22.19367750720732</v>
+        <v>22.18455139444339</v>
       </c>
       <c r="P11" t="n">
-        <v>422.6499757540114</v>
+        <v>422.4780769330168</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29923,28 +30024,28 @@
         <v>0.0263</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.288615444049644</v>
+        <v>-1.276286838846563</v>
       </c>
       <c r="J12" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K12" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1657622117389519</v>
+        <v>0.1641685857305828</v>
       </c>
       <c r="M12" t="n">
-        <v>16.61898253231782</v>
+        <v>16.60219803197453</v>
       </c>
       <c r="N12" t="n">
-        <v>452.6169254278581</v>
+        <v>451.40137614785</v>
       </c>
       <c r="O12" t="n">
-        <v>21.27479554373809</v>
+        <v>21.24620851229344</v>
       </c>
       <c r="P12" t="n">
-        <v>423.5826923966558</v>
+        <v>423.4615832367228</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30001,28 +30102,28 @@
         <v>0.0276</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.356490607951801</v>
+        <v>-1.348080163107386</v>
       </c>
       <c r="J13" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K13" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1673260896933914</v>
+        <v>0.1668731240798584</v>
       </c>
       <c r="M13" t="n">
-        <v>17.26896182324754</v>
+        <v>17.23136636458105</v>
       </c>
       <c r="N13" t="n">
-        <v>509.2482923131885</v>
+        <v>507.2066110625738</v>
       </c>
       <c r="O13" t="n">
-        <v>22.56653035610899</v>
+        <v>22.52124799078803</v>
       </c>
       <c r="P13" t="n">
-        <v>420.7104047597486</v>
+        <v>420.6295189383479</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30079,28 +30180,28 @@
         <v>0.0428</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.26365791415889</v>
+        <v>-1.274782518867559</v>
       </c>
       <c r="J14" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K14" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1580777745657357</v>
+        <v>0.1614851064639008</v>
       </c>
       <c r="M14" t="n">
-        <v>16.77015773019673</v>
+        <v>16.74713557505831</v>
       </c>
       <c r="N14" t="n">
-        <v>485.3207927613382</v>
+        <v>483.7606200961435</v>
       </c>
       <c r="O14" t="n">
-        <v>22.02999756607654</v>
+        <v>21.99455887477954</v>
       </c>
       <c r="P14" t="n">
-        <v>411.8064062514709</v>
+        <v>411.9127221620838</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30157,28 +30258,28 @@
         <v>0.0314</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.187779965512897</v>
+        <v>-1.188049481653424</v>
       </c>
       <c r="J15" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K15" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1482688635731725</v>
+        <v>0.1495433706426922</v>
       </c>
       <c r="M15" t="n">
-        <v>16.93456756419399</v>
+        <v>16.85689722071104</v>
       </c>
       <c r="N15" t="n">
-        <v>461.0917206974158</v>
+        <v>458.9375168531107</v>
       </c>
       <c r="O15" t="n">
-        <v>21.47304637673508</v>
+        <v>21.4228270042287</v>
       </c>
       <c r="P15" t="n">
-        <v>416.8926578006897</v>
+        <v>416.895210769185</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30235,28 +30336,28 @@
         <v>0.0408</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.9913254906631452</v>
+        <v>-1.000276825822786</v>
       </c>
       <c r="J16" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K16" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1234316706974723</v>
+        <v>0.126292920940076</v>
       </c>
       <c r="M16" t="n">
-        <v>15.00727860365255</v>
+        <v>14.99159720690467</v>
       </c>
       <c r="N16" t="n">
-        <v>391.2909285797637</v>
+        <v>389.9388809910244</v>
       </c>
       <c r="O16" t="n">
-        <v>19.78107501072082</v>
+        <v>19.74687015683813</v>
       </c>
       <c r="P16" t="n">
-        <v>413.8089500613013</v>
+        <v>413.8952405527353</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30313,28 +30414,28 @@
         <v>0.0338</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.8948092832861753</v>
+        <v>-0.8967391350371796</v>
       </c>
       <c r="J17" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K17" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L17" t="n">
-        <v>0.09258053229480534</v>
+        <v>0.09370101277997156</v>
       </c>
       <c r="M17" t="n">
-        <v>16.27361516725412</v>
+        <v>16.21120732665048</v>
       </c>
       <c r="N17" t="n">
-        <v>432.1897449090578</v>
+        <v>430.2744389735115</v>
       </c>
       <c r="O17" t="n">
-        <v>20.78917374281763</v>
+        <v>20.74305760907759</v>
       </c>
       <c r="P17" t="n">
-        <v>418.5068848063331</v>
+        <v>418.5257862412677</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30391,28 +30492,28 @@
         <v>0.0367</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.7577372551442576</v>
+        <v>-0.7549654275613098</v>
       </c>
       <c r="J18" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K18" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L18" t="n">
-        <v>0.07116655288571117</v>
+        <v>0.071288147998536</v>
       </c>
       <c r="M18" t="n">
-        <v>15.80936060558149</v>
+        <v>15.74893357687848</v>
       </c>
       <c r="N18" t="n">
-        <v>396.2234885353814</v>
+        <v>394.4070630832953</v>
       </c>
       <c r="O18" t="n">
-        <v>19.90536331081102</v>
+        <v>19.85968436514778</v>
       </c>
       <c r="P18" t="n">
-        <v>416.0797752968863</v>
+        <v>416.0516299164003</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30469,28 +30570,28 @@
         <v>0.0399</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.8323789196983894</v>
+        <v>-0.8336049662380383</v>
       </c>
       <c r="J19" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K19" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L19" t="n">
-        <v>0.08422343089372575</v>
+        <v>0.08519159721287894</v>
       </c>
       <c r="M19" t="n">
-        <v>15.7022974747211</v>
+        <v>15.63267210000817</v>
       </c>
       <c r="N19" t="n">
-        <v>408.1394620967262</v>
+        <v>406.1570513493768</v>
       </c>
       <c r="O19" t="n">
-        <v>20.20246178307798</v>
+        <v>20.15333846660093</v>
       </c>
       <c r="P19" t="n">
-        <v>415.1081772757175</v>
+        <v>415.1204197909782</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30547,28 +30648,28 @@
         <v>0.0441</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.081389945247075</v>
+        <v>-1.076579901744192</v>
       </c>
       <c r="J20" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K20" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1353813098948135</v>
+        <v>0.1353956488934798</v>
       </c>
       <c r="M20" t="n">
-        <v>15.72465360533394</v>
+        <v>15.67279313940259</v>
       </c>
       <c r="N20" t="n">
-        <v>403.826852724066</v>
+        <v>402.0644548316078</v>
       </c>
       <c r="O20" t="n">
-        <v>20.09544358117198</v>
+        <v>20.05154494874666</v>
       </c>
       <c r="P20" t="n">
-        <v>420.3621623192773</v>
+        <v>420.3142784057625</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30625,28 +30726,28 @@
         <v>0.0381</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.5662801838698805</v>
+        <v>-0.5673656469207423</v>
       </c>
       <c r="J21" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K21" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03640120621808152</v>
+        <v>0.03687417881262867</v>
       </c>
       <c r="M21" t="n">
-        <v>15.99424182595846</v>
+        <v>15.92315587412329</v>
       </c>
       <c r="N21" t="n">
-        <v>433.8671087844883</v>
+        <v>431.7974722322378</v>
       </c>
       <c r="O21" t="n">
-        <v>20.82947692056832</v>
+        <v>20.77973705878488</v>
       </c>
       <c r="P21" t="n">
-        <v>413.980037461588</v>
+        <v>413.9913029291303</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30703,28 +30804,28 @@
         <v>0.033</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.305471696029011</v>
+        <v>-1.299566275587324</v>
       </c>
       <c r="J22" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K22" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1532464709691499</v>
+        <v>0.1532944531482201</v>
       </c>
       <c r="M22" t="n">
-        <v>17.6171639179416</v>
+        <v>17.56303180764364</v>
       </c>
       <c r="N22" t="n">
-        <v>505.772047451453</v>
+        <v>503.6534577832944</v>
       </c>
       <c r="O22" t="n">
-        <v>22.48937632419923</v>
+        <v>22.44222488487481</v>
       </c>
       <c r="P22" t="n">
-        <v>425.9232151909313</v>
+        <v>425.8653269429859</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30781,28 +30882,28 @@
         <v>0.056</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.8120403385972519</v>
+        <v>-0.8270764590856575</v>
       </c>
       <c r="J23" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K23" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05559318229963695</v>
+        <v>0.05811460225261955</v>
       </c>
       <c r="M23" t="n">
-        <v>18.44269548049375</v>
+        <v>18.4109498534165</v>
       </c>
       <c r="N23" t="n">
-        <v>565.7577267754178</v>
+        <v>563.6663306355889</v>
       </c>
       <c r="O23" t="n">
-        <v>23.78566221015126</v>
+        <v>23.7416581273421</v>
       </c>
       <c r="P23" t="n">
-        <v>415.4552978417324</v>
+        <v>415.6081100746338</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -30859,28 +30960,28 @@
         <v>0.0409</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.323474483469821</v>
+        <v>-1.309629600400655</v>
       </c>
       <c r="J24" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K24" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1247452994397622</v>
+        <v>0.123625304269454</v>
       </c>
       <c r="M24" t="n">
-        <v>20.09459790508983</v>
+        <v>20.05382191925334</v>
       </c>
       <c r="N24" t="n">
-        <v>651.4689773938082</v>
+        <v>648.9029052365244</v>
       </c>
       <c r="O24" t="n">
-        <v>25.52389032639437</v>
+        <v>25.47357268300865</v>
       </c>
       <c r="P24" t="n">
-        <v>433.8728388508958</v>
+        <v>433.7385391820385</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -30937,28 +31038,28 @@
         <v>0.045</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.174076506207973</v>
+        <v>-1.152448207811839</v>
       </c>
       <c r="J25" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K25" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L25" t="n">
-        <v>0.09304602724591904</v>
+        <v>0.09067797596769644</v>
       </c>
       <c r="M25" t="n">
-        <v>20.78852447260516</v>
+        <v>20.79057061029805</v>
       </c>
       <c r="N25" t="n">
-        <v>699.4236808632577</v>
+        <v>697.8699534947351</v>
       </c>
       <c r="O25" t="n">
-        <v>26.44661946002282</v>
+        <v>26.41722834618982</v>
       </c>
       <c r="P25" t="n">
-        <v>425.7023680127334</v>
+        <v>425.4886514625125</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -31015,28 +31116,28 @@
         <v>0.0511</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.6234013949341122</v>
+        <v>-0.6074696838318763</v>
       </c>
       <c r="J26" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K26" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0268645219217245</v>
+        <v>0.02577272322764967</v>
       </c>
       <c r="M26" t="n">
-        <v>22.36567411263496</v>
+        <v>22.34945397531446</v>
       </c>
       <c r="N26" t="n">
-        <v>737.1604976947594</v>
+        <v>734.5073279900627</v>
       </c>
       <c r="O26" t="n">
-        <v>27.15069976436628</v>
+        <v>27.10179565988318</v>
       </c>
       <c r="P26" t="n">
-        <v>416.8647557621765</v>
+        <v>416.7035345450904</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -31096,7 +31197,7 @@
         <v>-0.9866565002030723</v>
       </c>
       <c r="J27" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K27" t="n">
         <v>186</v>
@@ -31174,7 +31275,7 @@
         <v>-0.6684269507501563</v>
       </c>
       <c r="J28" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K28" t="n">
         <v>184</v>
@@ -31252,7 +31353,7 @@
         <v>-0.7475466006729253</v>
       </c>
       <c r="J29" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K29" t="n">
         <v>198</v>
@@ -31327,28 +31428,28 @@
         <v>0.0546</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.8557208888795285</v>
+        <v>-1.003954400742536</v>
       </c>
       <c r="J30" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K30" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03002903926157441</v>
+        <v>0.04297664784622313</v>
       </c>
       <c r="M30" t="n">
-        <v>27.95609329752777</v>
+        <v>27.28445207776167</v>
       </c>
       <c r="N30" t="n">
-        <v>1254.476428539621</v>
+        <v>1185.284269502848</v>
       </c>
       <c r="O30" t="n">
-        <v>35.41858874291325</v>
+        <v>34.42795767254933</v>
       </c>
       <c r="P30" t="n">
-        <v>425.8137936014274</v>
+        <v>427.3341720140967</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -31405,28 +31506,28 @@
         <v>0.0559</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.5726820337376349</v>
+        <v>-0.67401376693479</v>
       </c>
       <c r="J31" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K31" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01100578699349009</v>
+        <v>0.01555056629380935</v>
       </c>
       <c r="M31" t="n">
-        <v>29.80680410419451</v>
+        <v>29.33071127479553</v>
       </c>
       <c r="N31" t="n">
-        <v>1460.428121637145</v>
+        <v>1418.604563235531</v>
       </c>
       <c r="O31" t="n">
-        <v>38.2155481661214</v>
+        <v>37.66436728840046</v>
       </c>
       <c r="P31" t="n">
-        <v>427.1731711377008</v>
+        <v>428.2618280972929</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -31483,28 +31584,28 @@
         <v>0.0764</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2828300315240965</v>
+        <v>0.2877906892648996</v>
       </c>
       <c r="J32" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K32" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L32" t="n">
-        <v>0.002232688532516791</v>
+        <v>0.00233663448141308</v>
       </c>
       <c r="M32" t="n">
-        <v>31.19791601595013</v>
+        <v>31.05055796946317</v>
       </c>
       <c r="N32" t="n">
-        <v>1761.479291356365</v>
+        <v>1751.467074094544</v>
       </c>
       <c r="O32" t="n">
-        <v>41.96998083578744</v>
+        <v>41.85053254254412</v>
       </c>
       <c r="P32" t="n">
-        <v>410.1237296417718</v>
+        <v>410.0702333137882</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -31542,7 +31643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG291"/>
+  <dimension ref="A1:AG292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69719,16 +69820,8 @@
           <t>-37.80530317965598,174.83767999801586</t>
         </is>
       </c>
-      <c r="AD290" t="inlineStr">
-        <is>
-          <t>-37.804869672305934,174.83834620906734</t>
-        </is>
-      </c>
-      <c r="AE290" t="inlineStr">
-        <is>
-          <t>-37.80453519727506,174.8389014399544</t>
-        </is>
-      </c>
+      <c r="AD290" t="inlineStr"/>
+      <c r="AE290" t="inlineStr"/>
       <c r="AF290" t="inlineStr"/>
       <c r="AG290" t="inlineStr">
         <is>
@@ -69882,11 +69975,7 @@
           <t>-37.80542963349727,174.83775524692786</t>
         </is>
       </c>
-      <c r="AD291" t="inlineStr">
-        <is>
-          <t>-37.805017023022366,174.8384429656742</t>
-        </is>
-      </c>
+      <c r="AD291" t="inlineStr"/>
       <c r="AE291" t="inlineStr">
         <is>
           <t>-37.804798677733814,174.83912941737543</t>
@@ -69898,6 +69987,157 @@
         </is>
       </c>
       <c r="AG291" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>-37.821288939927605,174.82430083032529</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>-37.820964287595764,174.82512576610864</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>-37.82051207314077,174.8257912564231</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>-37.81996148719044,174.82627766196086</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>-37.819440293928274,174.826827307123</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>-37.81886416082574,174.82735592210082</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>-37.81826594721829,174.82780002496398</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>-37.81767467761729,174.82822473547284</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>-37.817084042778404,174.82870652895767</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>-37.816390839782436,174.82897458110148</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>-37.81577266256541,174.82936140336864</t>
+        </is>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>-37.81515779517412,174.82976518526334</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>-37.81459818606318,174.83042546377288</t>
+        </is>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>-37.8138814120668,174.8305951702713</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>-37.81326399657185,174.8310485375732</t>
+        </is>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>-37.81256349900915,174.8312595653478</t>
+        </is>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>-37.81189292421511,174.831558017137</t>
+        </is>
+      </c>
+      <c r="S292" t="inlineStr">
+        <is>
+          <t>-37.811263611518484,174.8320032999471</t>
+        </is>
+      </c>
+      <c r="T292" t="inlineStr">
+        <is>
+          <t>-37.81059739041708,174.8323572901765</t>
+        </is>
+      </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>-37.80996699920727,174.83278222581905</t>
+        </is>
+      </c>
+      <c r="V292" t="inlineStr">
+        <is>
+          <t>-37.80931004571803,174.83321966411177</t>
+        </is>
+      </c>
+      <c r="W292" t="inlineStr">
+        <is>
+          <t>-37.80882284826035,174.83396069992313</t>
+        </is>
+      </c>
+      <c r="X292" t="inlineStr">
+        <is>
+          <t>-37.80808526791122,174.834273910849</t>
+        </is>
+      </c>
+      <c r="Y292" t="inlineStr">
+        <is>
+          <t>-37.807528230238596,174.83489189135628</t>
+        </is>
+      </c>
+      <c r="Z292" t="inlineStr">
+        <is>
+          <t>-37.8070307206751,174.83556293737013</t>
+        </is>
+      </c>
+      <c r="AA292" t="inlineStr"/>
+      <c r="AB292" t="inlineStr"/>
+      <c r="AC292" t="inlineStr"/>
+      <c r="AD292" t="inlineStr">
+        <is>
+          <t>-37.805450764179085,174.8387277807904</t>
+        </is>
+      </c>
+      <c r="AE292" t="inlineStr"/>
+      <c r="AF292" t="inlineStr">
+        <is>
+          <t>-37.80475246254922,174.84010339987105</t>
+        </is>
+      </c>
+      <c r="AG292" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0228/nzd0228.xlsx
+++ b/data/nzd0228/nzd0228.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG292"/>
+  <dimension ref="A1:AG293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26006,17 +26006,94 @@
       <c r="Z292" t="n">
         <v>416.32</v>
       </c>
-      <c r="AA292" t="inlineStr"/>
+      <c r="AA292" t="n">
+        <v>391.17</v>
+      </c>
       <c r="AB292" t="inlineStr"/>
-      <c r="AC292" t="inlineStr"/>
+      <c r="AC292" t="n">
+        <v>401.39</v>
+      </c>
       <c r="AD292" t="n">
         <v>424.05</v>
       </c>
-      <c r="AE292" t="inlineStr"/>
+      <c r="AE292" t="n">
+        <v>427.1377777777778</v>
+      </c>
       <c r="AF292" t="n">
         <v>421.7890909090909</v>
       </c>
       <c r="AG292" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>375.4833333333333</v>
+      </c>
+      <c r="C293" t="n">
+        <v>358.8114285714286</v>
+      </c>
+      <c r="D293" t="n">
+        <v>359.28</v>
+      </c>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="n">
+        <v>359.0714285714286</v>
+      </c>
+      <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="n">
+        <v>342.48</v>
+      </c>
+      <c r="O293" t="n">
+        <v>349.2933333333333</v>
+      </c>
+      <c r="P293" t="n">
+        <v>348.2914285714286</v>
+      </c>
+      <c r="Q293" t="inlineStr"/>
+      <c r="R293" t="inlineStr"/>
+      <c r="S293" t="inlineStr"/>
+      <c r="T293" t="inlineStr"/>
+      <c r="U293" t="inlineStr"/>
+      <c r="V293" t="n">
+        <v>360.7433333333333</v>
+      </c>
+      <c r="W293" t="n">
+        <v>379.5322222222222</v>
+      </c>
+      <c r="X293" t="n">
+        <v>407.4533333333333</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>414.7714285714285</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>427.91</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>426.61</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>448.4022222222222</v>
+      </c>
+      <c r="AC293" t="inlineStr"/>
+      <c r="AD293" t="inlineStr"/>
+      <c r="AE293" t="inlineStr"/>
+      <c r="AF293" t="inlineStr"/>
+      <c r="AG293" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -26033,7 +26110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B303"/>
+  <dimension ref="A1:B304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29071,6 +29148,16 @@
       </c>
       <c r="B303" t="n">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
@@ -29244,28 +29331,28 @@
         <v>0.0314</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4531594643063985</v>
+        <v>-0.4730058988313497</v>
       </c>
       <c r="J2" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K2" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05730150423797564</v>
+        <v>0.06179103281556486</v>
       </c>
       <c r="M2" t="n">
-        <v>10.79106270872022</v>
+        <v>10.84817498617215</v>
       </c>
       <c r="N2" t="n">
-        <v>187.6907948036319</v>
+        <v>189.4779502036405</v>
       </c>
       <c r="O2" t="n">
-        <v>13.70002900740111</v>
+        <v>13.76509898996881</v>
       </c>
       <c r="P2" t="n">
-        <v>411.6215513100902</v>
+        <v>411.8191548669276</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29322,28 +29409,28 @@
         <v>0.0362</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.9113230723968588</v>
+        <v>-0.9327607662980366</v>
       </c>
       <c r="J3" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K3" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1779658299927113</v>
+        <v>0.183924911494825</v>
       </c>
       <c r="M3" t="n">
-        <v>11.75862109081215</v>
+        <v>11.82080655151264</v>
       </c>
       <c r="N3" t="n">
-        <v>212.43394870969</v>
+        <v>214.5991714240933</v>
       </c>
       <c r="O3" t="n">
-        <v>14.57511402046962</v>
+        <v>14.64920378123307</v>
       </c>
       <c r="P3" t="n">
-        <v>408.9667827589175</v>
+        <v>409.1812198997553</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29400,28 +29487,28 @@
         <v>0.0418</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.052161237300625</v>
+        <v>-1.076066349371277</v>
       </c>
       <c r="J4" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K4" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2360033094571461</v>
+        <v>0.242641275151653</v>
       </c>
       <c r="M4" t="n">
-        <v>11.32637191621032</v>
+        <v>11.41981084605792</v>
       </c>
       <c r="N4" t="n">
-        <v>195.9062824300615</v>
+        <v>198.4720027990296</v>
       </c>
       <c r="O4" t="n">
-        <v>13.99665254373564</v>
+        <v>14.08800918508465</v>
       </c>
       <c r="P4" t="n">
-        <v>414.1220513649279</v>
+        <v>414.3596046521097</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29481,7 +29568,7 @@
         <v>-1.341044314082108</v>
       </c>
       <c r="J5" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K5" t="n">
         <v>217</v>
@@ -29556,28 +29643,28 @@
         <v>0.0371</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.64723552075572</v>
+        <v>-1.66516126066766</v>
       </c>
       <c r="J6" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K6" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3494749245921861</v>
+        <v>0.355025421907047</v>
       </c>
       <c r="M6" t="n">
-        <v>13.33095544294738</v>
+        <v>13.37356261397714</v>
       </c>
       <c r="N6" t="n">
-        <v>281.1575905230734</v>
+        <v>281.776157710084</v>
       </c>
       <c r="O6" t="n">
-        <v>16.76775448660534</v>
+        <v>16.78618949345217</v>
       </c>
       <c r="P6" t="n">
-        <v>421.8899149177254</v>
+        <v>422.0639338333922</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29637,7 +29724,7 @@
         <v>-1.690551582573956</v>
       </c>
       <c r="J7" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K7" t="n">
         <v>228</v>
@@ -29715,7 +29802,7 @@
         <v>-1.86117932262015</v>
       </c>
       <c r="J8" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K8" t="n">
         <v>228</v>
@@ -29793,7 +29880,7 @@
         <v>-2.024552455281833</v>
       </c>
       <c r="J9" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K9" t="n">
         <v>224</v>
@@ -29871,7 +29958,7 @@
         <v>-1.64348171166302</v>
       </c>
       <c r="J10" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K10" t="n">
         <v>226</v>
@@ -29949,7 +30036,7 @@
         <v>-1.637503944367478</v>
       </c>
       <c r="J11" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K11" t="n">
         <v>223</v>
@@ -30027,7 +30114,7 @@
         <v>-1.276286838846563</v>
       </c>
       <c r="J12" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K12" t="n">
         <v>218</v>
@@ -30105,7 +30192,7 @@
         <v>-1.348080163107386</v>
       </c>
       <c r="J13" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K13" t="n">
         <v>209</v>
@@ -30180,28 +30267,28 @@
         <v>0.0428</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.274782518867559</v>
+        <v>-1.306908317550116</v>
       </c>
       <c r="J14" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K14" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1614851064639008</v>
+        <v>0.1678315946214795</v>
       </c>
       <c r="M14" t="n">
-        <v>16.74713557505831</v>
+        <v>16.83275157886309</v>
       </c>
       <c r="N14" t="n">
-        <v>483.7606200961435</v>
+        <v>487.7743539675084</v>
       </c>
       <c r="O14" t="n">
-        <v>21.99455887477954</v>
+        <v>22.08561418587919</v>
       </c>
       <c r="P14" t="n">
-        <v>411.9127221620838</v>
+        <v>412.2211697301489</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30258,28 +30345,28 @@
         <v>0.0314</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.188049481653424</v>
+        <v>-1.220589444653871</v>
       </c>
       <c r="J15" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K15" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1495433706426922</v>
+        <v>0.1559979738196653</v>
       </c>
       <c r="M15" t="n">
-        <v>16.85689722071104</v>
+        <v>16.95759523452406</v>
       </c>
       <c r="N15" t="n">
-        <v>458.9375168531107</v>
+        <v>463.124720446484</v>
       </c>
       <c r="O15" t="n">
-        <v>21.4228270042287</v>
+        <v>21.52033272155624</v>
       </c>
       <c r="P15" t="n">
-        <v>416.895210769185</v>
+        <v>417.2048318407504</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30336,28 +30423,28 @@
         <v>0.0408</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.000276825822786</v>
+        <v>-1.035237873587879</v>
       </c>
       <c r="J16" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K16" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L16" t="n">
-        <v>0.126292920940076</v>
+        <v>0.1329981432978145</v>
       </c>
       <c r="M16" t="n">
-        <v>14.99159720690467</v>
+        <v>15.13506238678473</v>
       </c>
       <c r="N16" t="n">
-        <v>389.9388809910244</v>
+        <v>395.4442240755516</v>
       </c>
       <c r="O16" t="n">
-        <v>19.74687015683813</v>
+        <v>19.88577944350061</v>
       </c>
       <c r="P16" t="n">
-        <v>413.8952405527353</v>
+        <v>414.233783171815</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30417,7 +30504,7 @@
         <v>-0.8967391350371796</v>
       </c>
       <c r="J17" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K17" t="n">
         <v>223</v>
@@ -30495,7 +30582,7 @@
         <v>-0.7549654275613098</v>
       </c>
       <c r="J18" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K18" t="n">
         <v>213</v>
@@ -30573,7 +30660,7 @@
         <v>-0.8336049662380383</v>
       </c>
       <c r="J19" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K19" t="n">
         <v>205</v>
@@ -30651,7 +30738,7 @@
         <v>-1.076579901744192</v>
       </c>
       <c r="J20" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K20" t="n">
         <v>213</v>
@@ -30729,7 +30816,7 @@
         <v>-0.5673656469207423</v>
       </c>
       <c r="J21" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K21" t="n">
         <v>209</v>
@@ -30804,28 +30891,28 @@
         <v>0.033</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.299566275587324</v>
+        <v>-1.328216834791962</v>
       </c>
       <c r="J22" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K22" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1532944531482201</v>
+        <v>0.1591481376766041</v>
       </c>
       <c r="M22" t="n">
-        <v>17.56303180764364</v>
+        <v>17.6423415065969</v>
       </c>
       <c r="N22" t="n">
-        <v>503.6534577832944</v>
+        <v>505.8924833873805</v>
       </c>
       <c r="O22" t="n">
-        <v>22.44222488487481</v>
+        <v>22.49205378322266</v>
       </c>
       <c r="P22" t="n">
-        <v>425.8653269429859</v>
+        <v>426.1473449829138</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30882,28 +30969,28 @@
         <v>0.056</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.8270764590856575</v>
+        <v>-0.8435893954666361</v>
       </c>
       <c r="J23" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K23" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05811460225261955</v>
+        <v>0.06087933156966807</v>
       </c>
       <c r="M23" t="n">
-        <v>18.4109498534165</v>
+        <v>18.38551826957252</v>
       </c>
       <c r="N23" t="n">
-        <v>563.6663306355889</v>
+        <v>561.8131108522558</v>
       </c>
       <c r="O23" t="n">
-        <v>23.7416581273421</v>
+        <v>23.70259713306235</v>
       </c>
       <c r="P23" t="n">
-        <v>415.6081100746338</v>
+        <v>415.7765801889094</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -30960,28 +31047,28 @@
         <v>0.0409</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.309629600400655</v>
+        <v>-1.301809410493245</v>
       </c>
       <c r="J24" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K24" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L24" t="n">
-        <v>0.123625304269454</v>
+        <v>0.1235772477562148</v>
       </c>
       <c r="M24" t="n">
-        <v>20.05382191925334</v>
+        <v>19.98560010743408</v>
       </c>
       <c r="N24" t="n">
-        <v>648.9029052365244</v>
+        <v>645.7963574604581</v>
       </c>
       <c r="O24" t="n">
-        <v>25.47357268300865</v>
+        <v>25.41252363423314</v>
       </c>
       <c r="P24" t="n">
-        <v>433.7385391820385</v>
+        <v>433.6623819135464</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -31038,28 +31125,28 @@
         <v>0.045</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.152448207811839</v>
+        <v>-1.132411729362667</v>
       </c>
       <c r="J25" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K25" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L25" t="n">
-        <v>0.09067797596769644</v>
+        <v>0.08855954294824353</v>
       </c>
       <c r="M25" t="n">
-        <v>20.79057061029805</v>
+        <v>20.78373612639069</v>
       </c>
       <c r="N25" t="n">
-        <v>697.8699534947351</v>
+        <v>696.071887553147</v>
       </c>
       <c r="O25" t="n">
-        <v>26.41722834618982</v>
+        <v>26.38317432670199</v>
       </c>
       <c r="P25" t="n">
-        <v>425.4886514625125</v>
+        <v>425.2898891264845</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -31116,28 +31203,28 @@
         <v>0.0511</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.6074696838318763</v>
+        <v>-0.5799497264065626</v>
       </c>
       <c r="J26" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K26" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02577272322764967</v>
+        <v>0.02367656200637114</v>
       </c>
       <c r="M26" t="n">
-        <v>22.34945397531446</v>
+        <v>22.40543981308751</v>
       </c>
       <c r="N26" t="n">
-        <v>734.5073279900627</v>
+        <v>734.3587312724719</v>
       </c>
       <c r="O26" t="n">
-        <v>27.10179565988318</v>
+        <v>27.09905406600887</v>
       </c>
       <c r="P26" t="n">
-        <v>416.7035345450904</v>
+        <v>416.4238722408476</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -31194,28 +31281,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.9866565002030723</v>
+        <v>-0.931558741433912</v>
       </c>
       <c r="J27" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K27" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L27" t="n">
-        <v>0.05900233165545166</v>
+        <v>0.05350777919642968</v>
       </c>
       <c r="M27" t="n">
-        <v>23.12535494511587</v>
+        <v>23.24175889664795</v>
       </c>
       <c r="N27" t="n">
-        <v>839.5916565753818</v>
+        <v>840.9295114329854</v>
       </c>
       <c r="O27" t="n">
-        <v>28.97570804269296</v>
+        <v>28.99878465441242</v>
       </c>
       <c r="P27" t="n">
-        <v>408.2180779656902</v>
+        <v>407.6843551040413</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -31272,28 +31359,28 @@
         <v>0.0585</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.6684269507501563</v>
+        <v>-0.6072071986621086</v>
       </c>
       <c r="J28" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K28" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02402615854587775</v>
+        <v>0.01978333144627609</v>
       </c>
       <c r="M28" t="n">
-        <v>25.68221737649167</v>
+        <v>25.92783780614529</v>
       </c>
       <c r="N28" t="n">
-        <v>1039.193541929477</v>
+        <v>1052.324583555727</v>
       </c>
       <c r="O28" t="n">
-        <v>32.23652496671249</v>
+        <v>32.43955276442212</v>
       </c>
       <c r="P28" t="n">
-        <v>406.1538761750141</v>
+        <v>405.5772179283148</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -31350,28 +31437,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.7475466006729253</v>
+        <v>-0.7400375409208346</v>
       </c>
       <c r="J29" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K29" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02425648593508922</v>
+        <v>0.02399968802636321</v>
       </c>
       <c r="M29" t="n">
-        <v>27.31389486028259</v>
+        <v>27.23070675226919</v>
       </c>
       <c r="N29" t="n">
-        <v>1241.909875503265</v>
+        <v>1235.995261451546</v>
       </c>
       <c r="O29" t="n">
-        <v>35.24074169910821</v>
+        <v>35.1567242707785</v>
       </c>
       <c r="P29" t="n">
-        <v>412.3825915112784</v>
+        <v>412.3081702054872</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -31431,7 +31518,7 @@
         <v>-1.003954400742536</v>
       </c>
       <c r="J30" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K30" t="n">
         <v>185</v>
@@ -31506,28 +31593,28 @@
         <v>0.0559</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.67401376693479</v>
+        <v>-0.6567042468652129</v>
       </c>
       <c r="J31" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K31" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01555056629380935</v>
+        <v>0.01491141502351856</v>
       </c>
       <c r="M31" t="n">
-        <v>29.33071127479553</v>
+        <v>29.27498774513226</v>
       </c>
       <c r="N31" t="n">
-        <v>1418.604563235531</v>
+        <v>1412.141365779675</v>
       </c>
       <c r="O31" t="n">
-        <v>37.66436728840046</v>
+        <v>37.57846944434639</v>
       </c>
       <c r="P31" t="n">
-        <v>428.2618280972929</v>
+        <v>428.074846293204</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -31587,7 +31674,7 @@
         <v>0.2877906892648996</v>
       </c>
       <c r="J32" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K32" t="n">
         <v>174</v>
@@ -31643,7 +31730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG292"/>
+  <dimension ref="A1:AG293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57087,7 +57174,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>-37.81847275051734,174.82822543851987</t>
+          <t>-37.818472750517344,174.82822543851987</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -70123,21 +70210,132 @@
           <t>-37.8070307206751,174.83556293737013</t>
         </is>
       </c>
-      <c r="AA292" t="inlineStr"/>
+      <c r="AA292" t="inlineStr">
+        <is>
+          <t>-37.80669181195424,174.83644799286174</t>
+        </is>
+      </c>
       <c r="AB292" t="inlineStr"/>
-      <c r="AC292" t="inlineStr"/>
+      <c r="AC292" t="inlineStr">
+        <is>
+          <t>-37.80591898976794,174.83804645106585</t>
+        </is>
+      </c>
       <c r="AD292" t="inlineStr">
         <is>
           <t>-37.805450764179085,174.8387277807904</t>
         </is>
       </c>
-      <c r="AE292" t="inlineStr"/>
+      <c r="AE292" t="inlineStr">
+        <is>
+          <t>-37.80512429904864,174.83941116525656</t>
+        </is>
+      </c>
       <c r="AF292" t="inlineStr">
         <is>
           <t>-37.80475246254922,174.84010339987105</t>
         </is>
       </c>
       <c r="AG292" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>-37.82154361870967,174.8245844289692</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>-37.82119392898103,174.82539106484413</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>-37.82071042173847,174.82604590806184</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>-37.81961022311817,174.82715421976968</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>-37.814684860427725,174.8306798990543</t>
+        </is>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>-37.81401478879346,174.83097947855634</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>-37.813371969748935,174.8313610235669</t>
+        </is>
+      </c>
+      <c r="Q293" t="inlineStr"/>
+      <c r="R293" t="inlineStr"/>
+      <c r="S293" t="inlineStr"/>
+      <c r="T293" t="inlineStr"/>
+      <c r="U293" t="inlineStr"/>
+      <c r="V293" t="inlineStr">
+        <is>
+          <t>-37.809495694070094,174.83358664306004</t>
+        </is>
+      </c>
+      <c r="W293" t="inlineStr">
+        <is>
+          <t>-37.80883267265687,174.83397632576595</t>
+        </is>
+      </c>
+      <c r="X293" t="inlineStr">
+        <is>
+          <t>-37.80811715256434,174.8343202840688</t>
+        </is>
+      </c>
+      <c r="Y293" t="inlineStr">
+        <is>
+          <t>-37.80753505565089,174.83490063353506</t>
+        </is>
+      </c>
+      <c r="Z293" t="inlineStr">
+        <is>
+          <t>-37.80695503649902,174.83547224698853</t>
+        </is>
+      </c>
+      <c r="AA293" t="inlineStr">
+        <is>
+          <t>-37.806438849662804,174.83620236833576</t>
+        </is>
+      </c>
+      <c r="AB293" t="inlineStr">
+        <is>
+          <t>-37.80585105365,174.83695103569218</t>
+        </is>
+      </c>
+      <c r="AC293" t="inlineStr"/>
+      <c r="AD293" t="inlineStr"/>
+      <c r="AE293" t="inlineStr"/>
+      <c r="AF293" t="inlineStr"/>
+      <c r="AG293" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0228/nzd0228.xlsx
+++ b/data/nzd0228/nzd0228.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG293"/>
+  <dimension ref="A1:AG294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26010,15 +26010,11 @@
         <v>391.17</v>
       </c>
       <c r="AB292" t="inlineStr"/>
-      <c r="AC292" t="n">
-        <v>401.39</v>
-      </c>
+      <c r="AC292" t="inlineStr"/>
       <c r="AD292" t="n">
         <v>424.05</v>
       </c>
-      <c r="AE292" t="n">
-        <v>427.1377777777778</v>
-      </c>
+      <c r="AE292" t="inlineStr"/>
       <c r="AF292" t="n">
         <v>421.7890909090909</v>
       </c>
@@ -26043,7 +26039,9 @@
       <c r="D293" t="n">
         <v>359.28</v>
       </c>
-      <c r="E293" t="inlineStr"/>
+      <c r="E293" t="n">
+        <v>358.8714285714286</v>
+      </c>
       <c r="F293" t="n">
         <v>359.0714285714286</v>
       </c>
@@ -26096,6 +26094,101 @@
       <c r="AG293" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr"/>
+      <c r="C294" t="n">
+        <v>375.4028571428571</v>
+      </c>
+      <c r="D294" t="n">
+        <v>372.65</v>
+      </c>
+      <c r="E294" t="n">
+        <v>398.4428571428572</v>
+      </c>
+      <c r="F294" t="n">
+        <v>398.3728571428571</v>
+      </c>
+      <c r="G294" t="n">
+        <v>401.9828571428571</v>
+      </c>
+      <c r="H294" t="n">
+        <v>404.1728571428571</v>
+      </c>
+      <c r="I294" t="n">
+        <v>405.2366666666667</v>
+      </c>
+      <c r="J294" t="n">
+        <v>391.4428571428572</v>
+      </c>
+      <c r="K294" t="n">
+        <v>408.06</v>
+      </c>
+      <c r="L294" t="n">
+        <v>413.35</v>
+      </c>
+      <c r="M294" t="n">
+        <v>412.86</v>
+      </c>
+      <c r="N294" t="inlineStr"/>
+      <c r="O294" t="inlineStr"/>
+      <c r="P294" t="inlineStr"/>
+      <c r="Q294" t="n">
+        <v>412.8366666666667</v>
+      </c>
+      <c r="R294" t="n">
+        <v>413.2266666666667</v>
+      </c>
+      <c r="S294" t="n">
+        <v>404.5328571428571</v>
+      </c>
+      <c r="T294" t="n">
+        <v>398.5128571428571</v>
+      </c>
+      <c r="U294" t="n">
+        <v>395.3228571428572</v>
+      </c>
+      <c r="V294" t="n">
+        <v>395.5966666666667</v>
+      </c>
+      <c r="W294" t="n">
+        <v>390.2644444444445</v>
+      </c>
+      <c r="X294" t="n">
+        <v>414.1666666666667</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>425.3428571428572</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>436.13</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>450.29</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>474.4344444444445</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>489.34</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>503.8</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>490.0944444444444</v>
+      </c>
+      <c r="AF294" t="inlineStr"/>
+      <c r="AG294" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -26110,7 +26203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B304"/>
+  <dimension ref="A1:B305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29158,6 +29251,16 @@
       </c>
       <c r="B304" t="n">
         <v>0.37</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>
@@ -29334,7 +29437,7 @@
         <v>-0.4730058988313497</v>
       </c>
       <c r="J2" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K2" t="n">
         <v>227</v>
@@ -29409,28 +29512,28 @@
         <v>0.0362</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.9327607662980366</v>
+        <v>-0.9405521248032639</v>
       </c>
       <c r="J3" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K3" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L3" t="n">
-        <v>0.183924911494825</v>
+        <v>0.1874138448464693</v>
       </c>
       <c r="M3" t="n">
-        <v>11.82080655151264</v>
+        <v>11.80995026641598</v>
       </c>
       <c r="N3" t="n">
-        <v>214.5991714240933</v>
+        <v>214.0710375372475</v>
       </c>
       <c r="O3" t="n">
-        <v>14.64920378123307</v>
+        <v>14.63116664990347</v>
       </c>
       <c r="P3" t="n">
-        <v>409.1812198997553</v>
+        <v>409.2597854107313</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29487,28 +29590,28 @@
         <v>0.0418</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.076066349371277</v>
+        <v>-1.088044602732074</v>
       </c>
       <c r="J4" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K4" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L4" t="n">
-        <v>0.242641275151653</v>
+        <v>0.2476290176681026</v>
       </c>
       <c r="M4" t="n">
-        <v>11.41981084605792</v>
+        <v>11.43969174215925</v>
       </c>
       <c r="N4" t="n">
-        <v>198.4720027990296</v>
+        <v>198.4422578481177</v>
       </c>
       <c r="O4" t="n">
-        <v>14.08800918508465</v>
+        <v>14.08695346226847</v>
       </c>
       <c r="P4" t="n">
-        <v>414.3596046521097</v>
+        <v>414.4795447707847</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29565,28 +29668,28 @@
         <v>0.0383</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.341044314082108</v>
+        <v>-1.356075885244917</v>
       </c>
       <c r="J5" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K5" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2774599679873636</v>
+        <v>0.2824114477149131</v>
       </c>
       <c r="M5" t="n">
-        <v>12.73462541194876</v>
+        <v>12.81050560877419</v>
       </c>
       <c r="N5" t="n">
-        <v>258.5962253281685</v>
+        <v>260.5299758192027</v>
       </c>
       <c r="O5" t="n">
-        <v>16.08092737774064</v>
+        <v>16.14094098307787</v>
       </c>
       <c r="P5" t="n">
-        <v>421.9228688038409</v>
+        <v>422.0695302030713</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29643,28 +29746,28 @@
         <v>0.0371</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.66516126066766</v>
+        <v>-1.648363805254972</v>
       </c>
       <c r="J6" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K6" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L6" t="n">
-        <v>0.355025421907047</v>
+        <v>0.3512238892117416</v>
       </c>
       <c r="M6" t="n">
-        <v>13.37356261397714</v>
+        <v>13.38996396924351</v>
       </c>
       <c r="N6" t="n">
-        <v>281.776157710084</v>
+        <v>282.1583766342838</v>
       </c>
       <c r="O6" t="n">
-        <v>16.78618949345217</v>
+        <v>16.79757055750277</v>
       </c>
       <c r="P6" t="n">
-        <v>422.0639338333922</v>
+        <v>421.8996331404849</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29721,28 +29824,28 @@
         <v>0.0398</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.690551582573956</v>
+        <v>-1.668302040343748</v>
       </c>
       <c r="J7" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K7" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3458502786458453</v>
+        <v>0.3396361697576911</v>
       </c>
       <c r="M7" t="n">
-        <v>13.60780991440926</v>
+        <v>13.66370460614488</v>
       </c>
       <c r="N7" t="n">
-        <v>296.6614418926226</v>
+        <v>298.3723109349243</v>
       </c>
       <c r="O7" t="n">
-        <v>17.22386257181073</v>
+        <v>17.27345683223032</v>
       </c>
       <c r="P7" t="n">
-        <v>419.1867150190163</v>
+        <v>418.964621429648</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29799,28 +29902,28 @@
         <v>0.0381</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.86117932262015</v>
+        <v>-1.839041537284199</v>
       </c>
       <c r="J8" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K8" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3769792375928936</v>
+        <v>0.37135509667214</v>
       </c>
       <c r="M8" t="n">
-        <v>13.89806492083844</v>
+        <v>13.9495311093319</v>
       </c>
       <c r="N8" t="n">
-        <v>311.7003357665214</v>
+        <v>313.2374032969978</v>
       </c>
       <c r="O8" t="n">
-        <v>17.65503712164099</v>
+        <v>17.69851415506391</v>
       </c>
       <c r="P8" t="n">
-        <v>426.2563379492997</v>
+        <v>426.0351410954053</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29877,28 +29980,28 @@
         <v>0.0317</v>
       </c>
       <c r="I9" t="n">
-        <v>-2.024552455281833</v>
+        <v>-1.999769877667861</v>
       </c>
       <c r="J9" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K9" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3554100842732127</v>
+        <v>0.3498751028474394</v>
       </c>
       <c r="M9" t="n">
-        <v>15.39272636749853</v>
+        <v>15.45469586107373</v>
       </c>
       <c r="N9" t="n">
-        <v>386.0720237915726</v>
+        <v>387.7917871117113</v>
       </c>
       <c r="O9" t="n">
-        <v>19.64871557612794</v>
+        <v>19.69242969040924</v>
       </c>
       <c r="P9" t="n">
-        <v>429.4782848116614</v>
+        <v>429.2208821037335</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29955,28 +30058,28 @@
         <v>0.0412</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.64348171166302</v>
+        <v>-1.630058863708144</v>
       </c>
       <c r="J10" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K10" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2652189377096923</v>
+        <v>0.2633163089816111</v>
       </c>
       <c r="M10" t="n">
-        <v>15.06492406474883</v>
+        <v>15.06838938146238</v>
       </c>
       <c r="N10" t="n">
-        <v>395.0246915829247</v>
+        <v>394.3148709072975</v>
       </c>
       <c r="O10" t="n">
-        <v>19.87522808882768</v>
+        <v>19.85736314084268</v>
       </c>
       <c r="P10" t="n">
-        <v>418.4488037760322</v>
+        <v>418.3111962922009</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30033,28 +30136,28 @@
         <v>0.0318</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.637503944367478</v>
+        <v>-1.613041114190936</v>
       </c>
       <c r="J11" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K11" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2299088674215715</v>
+        <v>0.2250903947837303</v>
       </c>
       <c r="M11" t="n">
-        <v>17.45603935738989</v>
+        <v>17.50708451474084</v>
       </c>
       <c r="N11" t="n">
-        <v>492.1543205726999</v>
+        <v>493.3669278299571</v>
       </c>
       <c r="O11" t="n">
-        <v>22.18455139444339</v>
+        <v>22.21186457346517</v>
       </c>
       <c r="P11" t="n">
-        <v>422.4780769330168</v>
+        <v>422.2364276429094</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30111,28 +30214,28 @@
         <v>0.0263</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.276286838846563</v>
+        <v>-1.255728737805643</v>
       </c>
       <c r="J12" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K12" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1641685857305828</v>
+        <v>0.1603812810155619</v>
       </c>
       <c r="M12" t="n">
-        <v>16.60219803197453</v>
+        <v>16.62305645758728</v>
       </c>
       <c r="N12" t="n">
-        <v>451.40137614785</v>
+        <v>451.6837616700086</v>
       </c>
       <c r="O12" t="n">
-        <v>21.24620851229344</v>
+        <v>21.25285302424144</v>
       </c>
       <c r="P12" t="n">
-        <v>423.4615832367228</v>
+        <v>423.2572880604303</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30189,28 +30292,28 @@
         <v>0.0276</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.348080163107386</v>
+        <v>-1.32307716903241</v>
       </c>
       <c r="J13" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K13" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1668731240798584</v>
+        <v>0.1622012130876654</v>
       </c>
       <c r="M13" t="n">
-        <v>17.23136636458105</v>
+        <v>17.28344289333788</v>
       </c>
       <c r="N13" t="n">
-        <v>507.2066110625738</v>
+        <v>508.2144240292442</v>
       </c>
       <c r="O13" t="n">
-        <v>22.52124799078803</v>
+        <v>22.54361160127729</v>
       </c>
       <c r="P13" t="n">
-        <v>420.6295189383479</v>
+        <v>420.3862002626676</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30270,7 +30373,7 @@
         <v>-1.306908317550116</v>
       </c>
       <c r="J14" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K14" t="n">
         <v>211</v>
@@ -30348,7 +30451,7 @@
         <v>-1.220589444653871</v>
       </c>
       <c r="J15" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K15" t="n">
         <v>215</v>
@@ -30426,7 +30529,7 @@
         <v>-1.035237873587879</v>
       </c>
       <c r="J16" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K16" t="n">
         <v>215</v>
@@ -30501,28 +30604,28 @@
         <v>0.0338</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.8967391350371796</v>
+        <v>-0.8817612954919758</v>
       </c>
       <c r="J17" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K17" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L17" t="n">
-        <v>0.09370101277997156</v>
+        <v>0.09138724144618404</v>
       </c>
       <c r="M17" t="n">
-        <v>16.21120732665048</v>
+        <v>16.21361044307294</v>
       </c>
       <c r="N17" t="n">
-        <v>430.2744389735115</v>
+        <v>429.6941239085332</v>
       </c>
       <c r="O17" t="n">
-        <v>20.74305760907759</v>
+        <v>20.72906471379095</v>
       </c>
       <c r="P17" t="n">
-        <v>418.5257862412677</v>
+        <v>418.3773180312746</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30579,28 +30682,28 @@
         <v>0.0367</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.7549654275613098</v>
+        <v>-0.7398159617051524</v>
       </c>
       <c r="J18" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K18" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L18" t="n">
-        <v>0.071288147998536</v>
+        <v>0.06905363991120705</v>
       </c>
       <c r="M18" t="n">
-        <v>15.74893357687848</v>
+        <v>15.74859952775753</v>
       </c>
       <c r="N18" t="n">
-        <v>394.4070630832953</v>
+        <v>393.8418316129587</v>
       </c>
       <c r="O18" t="n">
-        <v>19.85968436514778</v>
+        <v>19.84544863723062</v>
       </c>
       <c r="P18" t="n">
-        <v>416.0516299164003</v>
+        <v>415.8959797586572</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30657,28 +30760,28 @@
         <v>0.0399</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.8336049662380383</v>
+        <v>-0.8234572454270586</v>
       </c>
       <c r="J19" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K19" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L19" t="n">
-        <v>0.08519159721287894</v>
+        <v>0.08394665187002215</v>
       </c>
       <c r="M19" t="n">
-        <v>15.63267210000817</v>
+        <v>15.60501675788881</v>
       </c>
       <c r="N19" t="n">
-        <v>406.1570513493768</v>
+        <v>404.7559122186381</v>
       </c>
       <c r="O19" t="n">
-        <v>20.15333846660093</v>
+        <v>20.11854647380466</v>
       </c>
       <c r="P19" t="n">
-        <v>415.1204197909782</v>
+        <v>415.0178609498478</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30735,28 +30838,28 @@
         <v>0.0441</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.076579901744192</v>
+        <v>-1.071180692551822</v>
       </c>
       <c r="J20" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K20" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1353956488934798</v>
+        <v>0.1352974735869571</v>
       </c>
       <c r="M20" t="n">
-        <v>15.67279313940259</v>
+        <v>15.62346416513673</v>
       </c>
       <c r="N20" t="n">
-        <v>402.0644548316078</v>
+        <v>400.3501567285684</v>
       </c>
       <c r="O20" t="n">
-        <v>20.05154494874666</v>
+        <v>20.00875200327518</v>
       </c>
       <c r="P20" t="n">
-        <v>420.3142784057625</v>
+        <v>420.2598864053543</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30813,28 +30916,28 @@
         <v>0.0381</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.5673656469207423</v>
+        <v>-0.5711894536686228</v>
       </c>
       <c r="J21" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K21" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03687417881262867</v>
+        <v>0.03770386294722494</v>
       </c>
       <c r="M21" t="n">
-        <v>15.92315587412329</v>
+        <v>15.86597722838233</v>
       </c>
       <c r="N21" t="n">
-        <v>431.7974722322378</v>
+        <v>429.817491513457</v>
       </c>
       <c r="O21" t="n">
-        <v>20.77973705878488</v>
+        <v>20.73204021589426</v>
       </c>
       <c r="P21" t="n">
-        <v>413.9913029291303</v>
+        <v>414.0314417537618</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30891,28 +30994,28 @@
         <v>0.033</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.328216834791962</v>
+        <v>-1.324865779732329</v>
       </c>
       <c r="J22" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K22" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1591481376766041</v>
+        <v>0.1597791323620434</v>
       </c>
       <c r="M22" t="n">
-        <v>17.6423415065969</v>
+        <v>17.57738839454574</v>
       </c>
       <c r="N22" t="n">
-        <v>505.8924833873805</v>
+        <v>503.665075312061</v>
       </c>
       <c r="O22" t="n">
-        <v>22.49205378322266</v>
+        <v>22.44248371531237</v>
       </c>
       <c r="P22" t="n">
-        <v>426.1473449829138</v>
+        <v>426.114121890759</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30969,28 +31072,28 @@
         <v>0.056</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.8435893954666361</v>
+        <v>-0.8477389442584371</v>
       </c>
       <c r="J23" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K23" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06087933156966807</v>
+        <v>0.06213195822717643</v>
       </c>
       <c r="M23" t="n">
-        <v>18.38551826957252</v>
+        <v>18.30570949807161</v>
       </c>
       <c r="N23" t="n">
-        <v>561.8131108522558</v>
+        <v>558.898110403749</v>
       </c>
       <c r="O23" t="n">
-        <v>23.70259713306235</v>
+        <v>23.64102600150317</v>
       </c>
       <c r="P23" t="n">
-        <v>415.7765801889094</v>
+        <v>415.8191990841037</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -31047,28 +31150,28 @@
         <v>0.0409</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.301809410493245</v>
+        <v>-1.286773007677864</v>
       </c>
       <c r="J24" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K24" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1235772477562148</v>
+        <v>0.1221988135513118</v>
       </c>
       <c r="M24" t="n">
-        <v>19.98560010743408</v>
+        <v>19.9503534953306</v>
       </c>
       <c r="N24" t="n">
-        <v>645.7963574604581</v>
+        <v>643.461769475615</v>
       </c>
       <c r="O24" t="n">
-        <v>25.41252363423314</v>
+        <v>25.36654823730684</v>
       </c>
       <c r="P24" t="n">
-        <v>433.6623819135464</v>
+        <v>433.5149477056639</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -31125,28 +31228,28 @@
         <v>0.045</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.132411729362667</v>
+        <v>-1.101374259731378</v>
       </c>
       <c r="J25" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K25" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08855954294824353</v>
+        <v>0.08460342682407485</v>
       </c>
       <c r="M25" t="n">
-        <v>20.78373612639069</v>
+        <v>20.8352751546319</v>
       </c>
       <c r="N25" t="n">
-        <v>696.071887553147</v>
+        <v>696.8223819205947</v>
       </c>
       <c r="O25" t="n">
-        <v>26.38317432670199</v>
+        <v>26.39739346830657</v>
       </c>
       <c r="P25" t="n">
-        <v>425.2898891264845</v>
+        <v>424.979906365204</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -31203,28 +31306,28 @@
         <v>0.0511</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.5799497264065626</v>
+        <v>-0.5443828633644247</v>
       </c>
       <c r="J26" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K26" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02367656200637114</v>
+        <v>0.02097126154532392</v>
       </c>
       <c r="M26" t="n">
-        <v>22.40543981308751</v>
+        <v>22.50803423552565</v>
       </c>
       <c r="N26" t="n">
-        <v>734.3587312724719</v>
+        <v>736.6943368409578</v>
       </c>
       <c r="O26" t="n">
-        <v>27.09905406600887</v>
+        <v>27.14211371358093</v>
       </c>
       <c r="P26" t="n">
-        <v>416.4238722408476</v>
+        <v>416.0598001598074</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -31281,28 +31384,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.931558741433912</v>
+        <v>-0.8609102702173795</v>
       </c>
       <c r="J27" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K27" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L27" t="n">
-        <v>0.05350777919642968</v>
+        <v>0.04538754346614526</v>
       </c>
       <c r="M27" t="n">
-        <v>23.24175889664795</v>
+        <v>23.57790012380488</v>
       </c>
       <c r="N27" t="n">
-        <v>840.9295114329854</v>
+        <v>859.578260820958</v>
       </c>
       <c r="O27" t="n">
-        <v>28.99878465441242</v>
+        <v>29.31856512213649</v>
       </c>
       <c r="P27" t="n">
-        <v>407.6843551040413</v>
+        <v>406.9946721464192</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -31359,28 +31462,28 @@
         <v>0.0585</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.6072071986621086</v>
+        <v>-0.5203469471138471</v>
       </c>
       <c r="J28" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K28" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01978333144627609</v>
+        <v>0.01426445128882603</v>
       </c>
       <c r="M28" t="n">
-        <v>25.92783780614529</v>
+        <v>26.33884231328966</v>
       </c>
       <c r="N28" t="n">
-        <v>1052.324583555727</v>
+        <v>1084.433472406621</v>
       </c>
       <c r="O28" t="n">
-        <v>32.43955276442212</v>
+        <v>32.93073750171138</v>
       </c>
       <c r="P28" t="n">
-        <v>405.5772179283148</v>
+        <v>404.7527693328219</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -31437,28 +31540,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.7400375409208346</v>
+        <v>-0.6564413019055634</v>
       </c>
       <c r="J29" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K29" t="n">
         <v>199</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02399968802636321</v>
+        <v>0.01832707132453937</v>
       </c>
       <c r="M29" t="n">
-        <v>27.23070675226919</v>
+        <v>27.84133844712268</v>
       </c>
       <c r="N29" t="n">
-        <v>1235.995261451546</v>
+        <v>1281.522842713254</v>
       </c>
       <c r="O29" t="n">
-        <v>35.1567242707785</v>
+        <v>35.79836368764995</v>
       </c>
       <c r="P29" t="n">
-        <v>412.3081702054872</v>
+        <v>411.4684262675205</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -31515,28 +31618,28 @@
         <v>0.0546</v>
       </c>
       <c r="I30" t="n">
-        <v>-1.003954400742536</v>
+        <v>-0.8989127819724249</v>
       </c>
       <c r="J30" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K30" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L30" t="n">
-        <v>0.04297664784622313</v>
+        <v>0.03358022269912952</v>
       </c>
       <c r="M30" t="n">
-        <v>27.28445207776167</v>
+        <v>27.69483162447153</v>
       </c>
       <c r="N30" t="n">
-        <v>1185.284269502848</v>
+        <v>1234.364524079871</v>
       </c>
       <c r="O30" t="n">
-        <v>34.42795767254933</v>
+        <v>35.13352421946696</v>
       </c>
       <c r="P30" t="n">
-        <v>427.3341720140967</v>
+        <v>426.2384360133718</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -31593,28 +31696,28 @@
         <v>0.0559</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.6567042468652129</v>
+        <v>-0.58677898050762</v>
       </c>
       <c r="J31" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K31" t="n">
         <v>180</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01491141502351856</v>
+        <v>0.01167839308705998</v>
       </c>
       <c r="M31" t="n">
-        <v>29.27498774513226</v>
+        <v>29.70016290839952</v>
       </c>
       <c r="N31" t="n">
-        <v>1412.141365779675</v>
+        <v>1445.020731531731</v>
       </c>
       <c r="O31" t="n">
-        <v>37.57846944434639</v>
+        <v>38.01342830542559</v>
       </c>
       <c r="P31" t="n">
-        <v>428.074846293204</v>
+        <v>427.3086192044127</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -31674,7 +31777,7 @@
         <v>0.2877906892648996</v>
       </c>
       <c r="J32" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K32" t="n">
         <v>174</v>
@@ -31730,7 +31833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG293"/>
+  <dimension ref="A1:AG294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70216,21 +70319,13 @@
         </is>
       </c>
       <c r="AB292" t="inlineStr"/>
-      <c r="AC292" t="inlineStr">
-        <is>
-          <t>-37.80591898976794,174.83804645106585</t>
-        </is>
-      </c>
+      <c r="AC292" t="inlineStr"/>
       <c r="AD292" t="inlineStr">
         <is>
           <t>-37.805450764179085,174.8387277807904</t>
         </is>
       </c>
-      <c r="AE292" t="inlineStr">
-        <is>
-          <t>-37.80512429904864,174.83941116525656</t>
-        </is>
-      </c>
+      <c r="AE292" t="inlineStr"/>
       <c r="AF292" t="inlineStr">
         <is>
           <t>-37.80475246254922,174.84010339987105</t>
@@ -70263,7 +70358,11 @@
           <t>-37.82071042173847,174.82604590806184</t>
         </is>
       </c>
-      <c r="E293" t="inlineStr"/>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>-37.820198170238456,174.82666549888117</t>
+        </is>
+      </c>
       <c r="F293" t="inlineStr">
         <is>
           <t>-37.81961022311817,174.82715421976968</t>
@@ -70341,6 +70440,153 @@
         </is>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr"/>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>-37.82108371562144,174.8252637379093</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>-37.820626019495435,174.82593754722018</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>-37.81998076345685,174.82630924853416</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>-37.819416138184245,174.8267808361631</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>-37.8188120694898,174.82725894140046</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>-37.81823759898736,174.82774171046464</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>-37.81764560818965,174.82815238922456</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>-37.81707338185873,174.8286775620985</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>-37.81636059053155,174.82889815308818</t>
+        </is>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>-37.81573995084497,174.82926898647605</t>
+        </is>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>-37.81509990680457,174.82957822912033</t>
+        </is>
+      </c>
+      <c r="N294" t="inlineStr"/>
+      <c r="O294" t="inlineStr"/>
+      <c r="P294" t="inlineStr"/>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>-37.81249397229267,174.83105654498743</t>
+        </is>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>-37.81184511350793,174.83141777552572</t>
+        </is>
+      </c>
+      <c r="S294" t="inlineStr">
+        <is>
+          <t>-37.81121840864115,174.83187910264547</t>
+        </is>
+      </c>
+      <c r="T294" t="inlineStr">
+        <is>
+          <t>-37.810595681109156,174.83235301632962</t>
+        </is>
+      </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>-37.809979587571505,174.83281274277886</t>
+        </is>
+      </c>
+      <c r="V294" t="inlineStr">
+        <is>
+          <t>-37.809326855364134,174.83325289227807</t>
+        </is>
+      </c>
+      <c r="W294" t="inlineStr">
+        <is>
+          <t>-37.808772613226346,174.83388080050378</t>
+        </is>
+      </c>
+      <c r="X294" t="inlineStr">
+        <is>
+          <t>-37.80807753769936,174.83426266799538</t>
+        </is>
+      </c>
+      <c r="Y294" t="inlineStr">
+        <is>
+          <t>-37.80746824602966,174.83481506201286</t>
+        </is>
+      </c>
+      <c r="Z294" t="inlineStr">
+        <is>
+          <t>-37.80690135880631,174.83540792657146</t>
+        </is>
+      </c>
+      <c r="AA294" t="inlineStr">
+        <is>
+          <t>-37.806269827138884,174.83603824995623</t>
+        </is>
+      </c>
+      <c r="AB294" t="inlineStr">
+        <is>
+          <t>-37.80564475848812,174.8368103489617</t>
+        </is>
+      </c>
+      <c r="AC294" t="inlineStr">
+        <is>
+          <t>-37.80520239134061,174.83762002210662</t>
+        </is>
+      </c>
+      <c r="AD294" t="inlineStr">
+        <is>
+          <t>-37.80481349681851,174.83830932202636</t>
+        </is>
+      </c>
+      <c r="AE294" t="inlineStr">
+        <is>
+          <t>-37.804656641169196,174.83900651946647</t>
+        </is>
+      </c>
+      <c r="AF294" t="inlineStr"/>
+      <c r="AG294" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0228/nzd0228.xlsx
+++ b/data/nzd0228/nzd0228.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG294"/>
+  <dimension ref="A1:AG295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26137,9 +26137,15 @@
       <c r="M294" t="n">
         <v>412.86</v>
       </c>
-      <c r="N294" t="inlineStr"/>
-      <c r="O294" t="inlineStr"/>
-      <c r="P294" t="inlineStr"/>
+      <c r="N294" t="n">
+        <v>392.54</v>
+      </c>
+      <c r="O294" t="n">
+        <v>407.5966666666667</v>
+      </c>
+      <c r="P294" t="n">
+        <v>402.4828571428571</v>
+      </c>
       <c r="Q294" t="n">
         <v>412.8366666666667</v>
       </c>
@@ -26187,6 +26193,87 @@
       </c>
       <c r="AF294" t="inlineStr"/>
       <c r="AG294" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>407.2366666666667</v>
+      </c>
+      <c r="C295" t="n">
+        <v>383.89</v>
+      </c>
+      <c r="D295" t="n">
+        <v>375.45</v>
+      </c>
+      <c r="E295" t="n">
+        <v>390.99</v>
+      </c>
+      <c r="F295" t="n">
+        <v>383.82</v>
+      </c>
+      <c r="G295" t="n">
+        <v>386.33</v>
+      </c>
+      <c r="H295" t="n">
+        <v>388.86</v>
+      </c>
+      <c r="I295" t="n">
+        <v>394.1166666666667</v>
+      </c>
+      <c r="J295" t="n">
+        <v>377.44</v>
+      </c>
+      <c r="K295" t="n">
+        <v>400.09</v>
+      </c>
+      <c r="L295" t="n">
+        <v>402.36</v>
+      </c>
+      <c r="M295" t="n">
+        <v>395.55</v>
+      </c>
+      <c r="N295" t="n">
+        <v>375.94</v>
+      </c>
+      <c r="O295" t="n">
+        <v>394.1166666666667</v>
+      </c>
+      <c r="P295" t="n">
+        <v>379.85</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>389.7166666666667</v>
+      </c>
+      <c r="R295" t="n">
+        <v>397.1466666666667</v>
+      </c>
+      <c r="S295" t="n">
+        <v>400.08</v>
+      </c>
+      <c r="T295" t="n">
+        <v>394.52</v>
+      </c>
+      <c r="U295" t="inlineStr"/>
+      <c r="V295" t="inlineStr"/>
+      <c r="W295" t="inlineStr"/>
+      <c r="X295" t="inlineStr"/>
+      <c r="Y295" t="inlineStr"/>
+      <c r="Z295" t="inlineStr"/>
+      <c r="AA295" t="inlineStr"/>
+      <c r="AB295" t="inlineStr"/>
+      <c r="AC295" t="inlineStr"/>
+      <c r="AD295" t="inlineStr"/>
+      <c r="AE295" t="inlineStr"/>
+      <c r="AF295" t="inlineStr"/>
+      <c r="AG295" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -26203,7 +26290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B305"/>
+  <dimension ref="A1:B306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29261,6 +29348,16 @@
       </c>
       <c r="B305" t="n">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -29434,28 +29531,28 @@
         <v>0.0314</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4730058988313497</v>
+        <v>-0.46678103660956</v>
       </c>
       <c r="J2" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K2" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06179103281556486</v>
+        <v>0.06068218903061318</v>
       </c>
       <c r="M2" t="n">
-        <v>10.84817498617215</v>
+        <v>10.83473784911084</v>
       </c>
       <c r="N2" t="n">
-        <v>189.4779502036405</v>
+        <v>188.8997870817755</v>
       </c>
       <c r="O2" t="n">
-        <v>13.76509898996881</v>
+        <v>13.74408189301037</v>
       </c>
       <c r="P2" t="n">
-        <v>411.8191548669276</v>
+        <v>411.7565370681583</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29512,28 +29609,28 @@
         <v>0.0362</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.9405521248032639</v>
+        <v>-0.9413961811347389</v>
       </c>
       <c r="J3" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K3" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1874138448464693</v>
+        <v>0.188946651587296</v>
       </c>
       <c r="M3" t="n">
-        <v>11.80995026641598</v>
+        <v>11.76317844027397</v>
       </c>
       <c r="N3" t="n">
-        <v>214.0710375372475</v>
+        <v>213.1491346197408</v>
       </c>
       <c r="O3" t="n">
-        <v>14.63116664990347</v>
+        <v>14.59962789319443</v>
       </c>
       <c r="P3" t="n">
-        <v>409.2597854107313</v>
+        <v>409.2683159738523</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29590,28 +29687,28 @@
         <v>0.0418</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.088044602732074</v>
+        <v>-1.097326724669073</v>
       </c>
       <c r="J4" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K4" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2476290176681026</v>
+        <v>0.2520163038478531</v>
       </c>
       <c r="M4" t="n">
-        <v>11.43969174215925</v>
+        <v>11.4432524995624</v>
       </c>
       <c r="N4" t="n">
-        <v>198.4422578481177</v>
+        <v>198.0804561207757</v>
       </c>
       <c r="O4" t="n">
-        <v>14.08695346226847</v>
+        <v>14.07410587287078</v>
       </c>
       <c r="P4" t="n">
-        <v>414.4795447707847</v>
+        <v>414.5726881557535</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29668,28 +29765,28 @@
         <v>0.0383</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.356075885244917</v>
+        <v>-1.352626628386029</v>
       </c>
       <c r="J5" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K5" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2824114477149131</v>
+        <v>0.2832291567383186</v>
       </c>
       <c r="M5" t="n">
-        <v>12.81050560877419</v>
+        <v>12.76770866104123</v>
       </c>
       <c r="N5" t="n">
-        <v>260.5299758192027</v>
+        <v>259.4163492422026</v>
       </c>
       <c r="O5" t="n">
-        <v>16.14094098307787</v>
+        <v>16.10640708669077</v>
       </c>
       <c r="P5" t="n">
-        <v>422.0695302030713</v>
+        <v>422.0353736209177</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29746,28 +29843,28 @@
         <v>0.0371</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.648363805254972</v>
+        <v>-1.644460671554048</v>
       </c>
       <c r="J6" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K6" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3512238892117416</v>
+        <v>0.3522185146793829</v>
       </c>
       <c r="M6" t="n">
-        <v>13.38996396924351</v>
+        <v>13.34735830220647</v>
       </c>
       <c r="N6" t="n">
-        <v>282.1583766342838</v>
+        <v>280.9782618450581</v>
       </c>
       <c r="O6" t="n">
-        <v>16.79757055750277</v>
+        <v>16.76240620689816</v>
       </c>
       <c r="P6" t="n">
-        <v>421.8996331404849</v>
+        <v>421.8613738350303</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29824,28 +29921,28 @@
         <v>0.0398</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.668302040343748</v>
+        <v>-1.659552828992926</v>
       </c>
       <c r="J7" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K7" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3396361697576911</v>
+        <v>0.33893012804781</v>
       </c>
       <c r="M7" t="n">
-        <v>13.66370460614488</v>
+        <v>13.6502018410366</v>
       </c>
       <c r="N7" t="n">
-        <v>298.3723109349243</v>
+        <v>297.5465343931584</v>
       </c>
       <c r="O7" t="n">
-        <v>17.27345683223032</v>
+        <v>17.24953722257958</v>
       </c>
       <c r="P7" t="n">
-        <v>418.964621429648</v>
+        <v>418.8771012667141</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29902,28 +29999,28 @@
         <v>0.0381</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.839041537284199</v>
+        <v>-1.830285780369932</v>
       </c>
       <c r="J8" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K8" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L8" t="n">
-        <v>0.37135509667214</v>
+        <v>0.3709119343249666</v>
       </c>
       <c r="M8" t="n">
-        <v>13.9495311093319</v>
+        <v>13.9329601861971</v>
       </c>
       <c r="N8" t="n">
-        <v>313.2374032969978</v>
+        <v>312.3355016042427</v>
       </c>
       <c r="O8" t="n">
-        <v>17.69851415506391</v>
+        <v>17.67301619996549</v>
       </c>
       <c r="P8" t="n">
-        <v>426.0351410954053</v>
+        <v>425.9474723463192</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29980,28 +30077,28 @@
         <v>0.0317</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.999769877667861</v>
+        <v>-1.985229654930971</v>
       </c>
       <c r="J9" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K9" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3498751028474394</v>
+        <v>0.3479436412155733</v>
       </c>
       <c r="M9" t="n">
-        <v>15.45469586107373</v>
+        <v>15.46535432888756</v>
       </c>
       <c r="N9" t="n">
-        <v>387.7917871117113</v>
+        <v>387.275849325586</v>
       </c>
       <c r="O9" t="n">
-        <v>19.69242969040924</v>
+        <v>19.67932542862143</v>
       </c>
       <c r="P9" t="n">
-        <v>429.2208821037335</v>
+        <v>429.0695546297974</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30058,28 +30155,28 @@
         <v>0.0412</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.630058863708144</v>
+        <v>-1.628972331195818</v>
       </c>
       <c r="J10" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K10" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2633163089816111</v>
+        <v>0.2648307234756937</v>
       </c>
       <c r="M10" t="n">
-        <v>15.06838938146238</v>
+        <v>15.00790608652579</v>
       </c>
       <c r="N10" t="n">
-        <v>394.3148709072975</v>
+        <v>392.5922694344481</v>
       </c>
       <c r="O10" t="n">
-        <v>19.85736314084268</v>
+        <v>19.81394128976989</v>
       </c>
       <c r="P10" t="n">
-        <v>418.3111962922009</v>
+        <v>418.3000346273388</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30136,28 +30233,28 @@
         <v>0.0318</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.613041114190936</v>
+        <v>-1.596033709710244</v>
       </c>
       <c r="J11" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K11" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2250903947837303</v>
+        <v>0.2224707835476388</v>
       </c>
       <c r="M11" t="n">
-        <v>17.50708451474084</v>
+        <v>17.5182163782753</v>
       </c>
       <c r="N11" t="n">
-        <v>493.3669278299571</v>
+        <v>492.848111777232</v>
       </c>
       <c r="O11" t="n">
-        <v>22.21186457346517</v>
+        <v>22.20018269693364</v>
       </c>
       <c r="P11" t="n">
-        <v>422.2364276429094</v>
+        <v>422.0680771649408</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30214,28 +30311,28 @@
         <v>0.0263</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.255728737805643</v>
+        <v>-1.245422092582393</v>
       </c>
       <c r="J12" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K12" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1603812810155619</v>
+        <v>0.1592935482695813</v>
       </c>
       <c r="M12" t="n">
-        <v>16.62305645758728</v>
+        <v>16.59555995304148</v>
       </c>
       <c r="N12" t="n">
-        <v>451.6837616700086</v>
+        <v>450.2292050394806</v>
       </c>
       <c r="O12" t="n">
-        <v>21.25285302424144</v>
+        <v>21.21860516243894</v>
       </c>
       <c r="P12" t="n">
-        <v>423.2572880604303</v>
+        <v>423.1546551476708</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30292,28 +30389,28 @@
         <v>0.0276</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.32307716903241</v>
+        <v>-1.314507847939824</v>
       </c>
       <c r="J13" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K13" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1622012130876654</v>
+        <v>0.1616976908762034</v>
       </c>
       <c r="M13" t="n">
-        <v>17.28344289333788</v>
+        <v>17.24758706005535</v>
       </c>
       <c r="N13" t="n">
-        <v>508.2144240292442</v>
+        <v>506.2148430009037</v>
       </c>
       <c r="O13" t="n">
-        <v>22.54361160127729</v>
+        <v>22.499218719789</v>
       </c>
       <c r="P13" t="n">
-        <v>420.3862002626676</v>
+        <v>420.3026311520506</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30370,28 +30467,28 @@
         <v>0.0428</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.306908317550116</v>
+        <v>-1.296969720916878</v>
       </c>
       <c r="J14" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K14" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1678315946214795</v>
+        <v>0.1680583117019647</v>
       </c>
       <c r="M14" t="n">
-        <v>16.83275157886309</v>
+        <v>16.75460284689573</v>
       </c>
       <c r="N14" t="n">
-        <v>487.7743539675084</v>
+        <v>484.1403933693431</v>
       </c>
       <c r="O14" t="n">
-        <v>22.08561418587919</v>
+        <v>22.00319052704273</v>
       </c>
       <c r="P14" t="n">
-        <v>412.2211697301489</v>
+        <v>412.1250321454904</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30448,28 +30545,28 @@
         <v>0.0314</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.220589444653871</v>
+        <v>-1.194349526534894</v>
       </c>
       <c r="J15" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K15" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1559979738196653</v>
+        <v>0.1521375570753232</v>
       </c>
       <c r="M15" t="n">
-        <v>16.95759523452406</v>
+        <v>16.9318851169568</v>
       </c>
       <c r="N15" t="n">
-        <v>463.124720446484</v>
+        <v>461.3336086353728</v>
       </c>
       <c r="O15" t="n">
-        <v>21.52033272155624</v>
+        <v>21.47867800017899</v>
       </c>
       <c r="P15" t="n">
-        <v>417.2048318407504</v>
+        <v>416.9530625045193</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30526,28 +30623,28 @@
         <v>0.0408</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.035237873587879</v>
+        <v>-1.028936662243158</v>
       </c>
       <c r="J16" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K16" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1329981432978145</v>
+        <v>0.1333894181496272</v>
       </c>
       <c r="M16" t="n">
-        <v>15.13506238678473</v>
+        <v>15.09431746189206</v>
       </c>
       <c r="N16" t="n">
-        <v>395.4442240755516</v>
+        <v>393.0955997011546</v>
       </c>
       <c r="O16" t="n">
-        <v>19.88577944350061</v>
+        <v>19.82663863848723</v>
       </c>
       <c r="P16" t="n">
-        <v>414.233783171815</v>
+        <v>414.1724363770844</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30604,28 +30701,28 @@
         <v>0.0338</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.8817612954919758</v>
+        <v>-0.886753501900262</v>
       </c>
       <c r="J17" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K17" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L17" t="n">
-        <v>0.09138724144618404</v>
+        <v>0.09307047423926562</v>
       </c>
       <c r="M17" t="n">
-        <v>16.21361044307294</v>
+        <v>16.16824276913093</v>
       </c>
       <c r="N17" t="n">
-        <v>429.6941239085332</v>
+        <v>427.9355067880104</v>
       </c>
       <c r="O17" t="n">
-        <v>20.72906471379095</v>
+        <v>20.68660210832147</v>
       </c>
       <c r="P17" t="n">
-        <v>418.3773180312746</v>
+        <v>418.4269093726744</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30682,28 +30779,28 @@
         <v>0.0367</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.7398159617051524</v>
+        <v>-0.7394813922702704</v>
       </c>
       <c r="J18" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K18" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L18" t="n">
-        <v>0.06905363991120705</v>
+        <v>0.06960439225360093</v>
       </c>
       <c r="M18" t="n">
-        <v>15.74859952775753</v>
+        <v>15.67695355024705</v>
       </c>
       <c r="N18" t="n">
-        <v>393.8418316129587</v>
+        <v>392.0106419341964</v>
       </c>
       <c r="O18" t="n">
-        <v>19.84544863723062</v>
+        <v>19.79925862082206</v>
       </c>
       <c r="P18" t="n">
-        <v>415.8959797586572</v>
+        <v>415.8925350761365</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30760,28 +30857,28 @@
         <v>0.0399</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.8234572454270586</v>
+        <v>-0.8176225830528744</v>
       </c>
       <c r="J19" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K19" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L19" t="n">
-        <v>0.08394665187002215</v>
+        <v>0.08356442269000697</v>
       </c>
       <c r="M19" t="n">
-        <v>15.60501675788881</v>
+        <v>15.5571820923222</v>
       </c>
       <c r="N19" t="n">
-        <v>404.7559122186381</v>
+        <v>402.9922253682045</v>
       </c>
       <c r="O19" t="n">
-        <v>20.11854647380466</v>
+        <v>20.07466625795319</v>
       </c>
       <c r="P19" t="n">
-        <v>415.0178609498478</v>
+        <v>414.9587654270384</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30838,28 +30935,28 @@
         <v>0.0441</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.071180692551822</v>
+        <v>-1.069440873841092</v>
       </c>
       <c r="J20" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K20" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1352974735869571</v>
+        <v>0.1360281258687365</v>
       </c>
       <c r="M20" t="n">
-        <v>15.62346416513673</v>
+        <v>15.55842886761743</v>
       </c>
       <c r="N20" t="n">
-        <v>400.3501567285684</v>
+        <v>398.5054125653728</v>
       </c>
       <c r="O20" t="n">
-        <v>20.00875200327518</v>
+        <v>19.96260034578093</v>
       </c>
       <c r="P20" t="n">
-        <v>420.2598864053543</v>
+        <v>420.2423221634722</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30919,7 +31016,7 @@
         <v>-0.5711894536686228</v>
       </c>
       <c r="J21" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K21" t="n">
         <v>210</v>
@@ -30997,7 +31094,7 @@
         <v>-1.324865779732329</v>
       </c>
       <c r="J22" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K22" t="n">
         <v>221</v>
@@ -31075,7 +31172,7 @@
         <v>-0.8477389442584371</v>
       </c>
       <c r="J23" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K23" t="n">
         <v>188</v>
@@ -31153,7 +31250,7 @@
         <v>-1.286773007677864</v>
       </c>
       <c r="J24" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K24" t="n">
         <v>193</v>
@@ -31231,7 +31328,7 @@
         <v>-1.101374259731378</v>
       </c>
       <c r="J25" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K25" t="n">
         <v>195</v>
@@ -31309,7 +31406,7 @@
         <v>-0.5443828633644247</v>
       </c>
       <c r="J26" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K26" t="n">
         <v>192</v>
@@ -31387,7 +31484,7 @@
         <v>-0.8609102702173795</v>
       </c>
       <c r="J27" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K27" t="n">
         <v>189</v>
@@ -31465,7 +31562,7 @@
         <v>-0.5203469471138471</v>
       </c>
       <c r="J28" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K28" t="n">
         <v>186</v>
@@ -31543,7 +31640,7 @@
         <v>-0.6564413019055634</v>
       </c>
       <c r="J29" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K29" t="n">
         <v>199</v>
@@ -31621,7 +31718,7 @@
         <v>-0.8989127819724249</v>
       </c>
       <c r="J30" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K30" t="n">
         <v>186</v>
@@ -31699,7 +31796,7 @@
         <v>-0.58677898050762</v>
       </c>
       <c r="J31" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K31" t="n">
         <v>180</v>
@@ -31777,7 +31874,7 @@
         <v>0.2877906892648996</v>
       </c>
       <c r="J32" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K32" t="n">
         <v>174</v>
@@ -31833,7 +31930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG294"/>
+  <dimension ref="A1:AG295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70502,9 +70599,21 @@
           <t>-37.81509990680457,174.82957822912033</t>
         </is>
       </c>
-      <c r="N294" t="inlineStr"/>
-      <c r="O294" t="inlineStr"/>
-      <c r="P294" t="inlineStr"/>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>-37.81450688940125,174.83015746201656</t>
+        </is>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>-37.813804238353875,174.83037280622574</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>-37.81317699342839,174.83079674355602</t>
+        </is>
+      </c>
       <c r="Q294" t="inlineStr">
         <is>
           <t>-37.81249397229267,174.83105654498743</t>
@@ -70582,6 +70691,125 @@
       </c>
       <c r="AF294" t="inlineStr"/>
       <c r="AG294" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>-37.82132918795857,174.8243456485064</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>-37.82102733726424,174.8251986055162</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>-37.82060834361944,174.82591485388147</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>-37.82002170979594,174.82637634433456</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>-37.81948800569913,174.82691909549987</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>-37.81889114465327,174.82740615917768</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>-37.81830969019445,174.82789000785053</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>-37.81769088156398,174.82826506295743</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>-37.817126480533084,174.82882183715512</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>-37.816392649908856,174.82897915458824</t>
+        </is>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>-37.815780298960746,174.8293829776939</t>
+        </is>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>-37.815156615787636,174.82976137630686</t>
+        </is>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>-37.81456590522807,174.83033070295411</t>
+        </is>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>-37.81385291887459,174.83051307137393</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>-37.81325842493329,174.83103241274273</t>
+        </is>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>-37.812576532996495,174.83129762518936</t>
+        </is>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>-37.811902315583794,174.831585564617</t>
+        </is>
+      </c>
+      <c r="S295" t="inlineStr">
+        <is>
+          <t>-37.81123513833735,174.83192506831216</t>
+        </is>
+      </c>
+      <c r="T295" t="inlineStr">
+        <is>
+          <t>-37.810611876070936,174.83239350922568</t>
+        </is>
+      </c>
+      <c r="U295" t="inlineStr"/>
+      <c r="V295" t="inlineStr"/>
+      <c r="W295" t="inlineStr"/>
+      <c r="X295" t="inlineStr"/>
+      <c r="Y295" t="inlineStr"/>
+      <c r="Z295" t="inlineStr"/>
+      <c r="AA295" t="inlineStr"/>
+      <c r="AB295" t="inlineStr"/>
+      <c r="AC295" t="inlineStr"/>
+      <c r="AD295" t="inlineStr"/>
+      <c r="AE295" t="inlineStr"/>
+      <c r="AF295" t="inlineStr"/>
+      <c r="AG295" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0228/nzd0228.xlsx
+++ b/data/nzd0228/nzd0228.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG295"/>
+  <dimension ref="A1:AG296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26191,7 +26191,9 @@
       <c r="AE294" t="n">
         <v>490.0944444444444</v>
       </c>
-      <c r="AF294" t="inlineStr"/>
+      <c r="AF294" t="n">
+        <v>469.0390909090909</v>
+      </c>
       <c r="AG294" t="inlineStr">
         <is>
           <t>L9</t>
@@ -26279,6 +26281,105 @@
         </is>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>397.9433333333333</v>
+      </c>
+      <c r="C296" t="n">
+        <v>378.9671428571429</v>
+      </c>
+      <c r="D296" t="n">
+        <v>376.89</v>
+      </c>
+      <c r="E296" t="n">
+        <v>384.1871428571428</v>
+      </c>
+      <c r="F296" t="n">
+        <v>366.9071428571429</v>
+      </c>
+      <c r="G296" t="n">
+        <v>374.3071428571428</v>
+      </c>
+      <c r="H296" t="n">
+        <v>370.9671428571429</v>
+      </c>
+      <c r="I296" t="n">
+        <v>377.0833333333333</v>
+      </c>
+      <c r="J296" t="n">
+        <v>373.2671428571429</v>
+      </c>
+      <c r="K296" t="n">
+        <v>386.58</v>
+      </c>
+      <c r="L296" t="n">
+        <v>391</v>
+      </c>
+      <c r="M296" t="n">
+        <v>382.62</v>
+      </c>
+      <c r="N296" t="n">
+        <v>374.89</v>
+      </c>
+      <c r="O296" t="n">
+        <v>386.5933333333333</v>
+      </c>
+      <c r="P296" t="n">
+        <v>385.8171428571428</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>391.0733333333333</v>
+      </c>
+      <c r="R296" t="n">
+        <v>394.4633333333333</v>
+      </c>
+      <c r="S296" t="n">
+        <v>389.4371428571428</v>
+      </c>
+      <c r="T296" t="n">
+        <v>387.2871428571429</v>
+      </c>
+      <c r="U296" t="n">
+        <v>382.1571428571429</v>
+      </c>
+      <c r="V296" t="n">
+        <v>373.9833333333333</v>
+      </c>
+      <c r="W296" t="n">
+        <v>364.4422222222223</v>
+      </c>
+      <c r="X296" t="n">
+        <v>378.6833333333333</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>385.5471428571428</v>
+      </c>
+      <c r="Z296" t="inlineStr"/>
+      <c r="AA296" t="inlineStr"/>
+      <c r="AB296" t="inlineStr"/>
+      <c r="AC296" t="n">
+        <v>456.86</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>493.69</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>500.8222222222223</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>482.9427272727273</v>
+      </c>
+      <c r="AG296" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26290,7 +26391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B306"/>
+  <dimension ref="A1:B307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29358,6 +29459,16 @@
       </c>
       <c r="B306" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -31930,7 +32041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG295"/>
+  <dimension ref="A1:AG296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70689,7 +70800,11 @@
           <t>-37.804656641169196,174.83900651946647</t>
         </is>
       </c>
-      <c r="AF294" t="inlineStr"/>
+      <c r="AF294" t="inlineStr">
+        <is>
+          <t>-37.804422216069725,174.83976477002497</t>
+        </is>
+      </c>
       <c r="AG294" t="inlineStr">
         <is>
           <t>L9</t>
@@ -70815,6 +70930,161 @@
         </is>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>-37.8213919460369,174.82441553288197</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>-37.82106003880393,174.825236384704</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>-37.82059925316709,174.8259031830258</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>-37.82005908496991,174.82643758844736</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>-37.81957152757318,174.8270797763355</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>-37.818951881637645,174.82751923639964</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>-37.818393927503855,174.82806329160957</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>-37.817760229951304,174.82843765397797</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>-37.81714230392439,174.82886483121973</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>-37.816446993840714,174.82911646092583</t>
+        </is>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>-37.81582200535567,174.8295008067774</t>
+        </is>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>-37.81519897533963,174.82989818140078</t>
+        </is>
+      </c>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>-37.81456963814804,174.8303416609742</t>
+        </is>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>-37.81388008792313,174.83059135494307</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>-37.813236955599955,174.83097027861626</t>
+        </is>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>-37.81257168840177,174.83128347874447</t>
+        </is>
+      </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>-37.811911861096924,174.83161356427215</t>
+        </is>
+      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>-37.8112751242221,174.8320349317935</t>
+        </is>
+      </c>
+      <c r="T296" t="inlineStr">
+        <is>
+          <t>-37.81064121238178,174.83246686008644</t>
+        </is>
+      </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>-37.810034311233075,174.8329454053029</t>
+        </is>
+      </c>
+      <c r="V296" t="inlineStr">
+        <is>
+          <t>-37.80943155614731,174.83345985844352</t>
+        </is>
+      </c>
+      <c r="W296" t="inlineStr">
+        <is>
+          <t>-37.80891711885053,174.83411063895528</t>
+        </is>
+      </c>
+      <c r="X296" t="inlineStr">
+        <is>
+          <t>-37.808286921786895,174.83456719853154</t>
+        </is>
+      </c>
+      <c r="Y296" t="inlineStr">
+        <is>
+          <t>-37.80771974779206,174.8351371933415</t>
+        </is>
+      </c>
+      <c r="Z296" t="inlineStr"/>
+      <c r="AA296" t="inlineStr"/>
+      <c r="AB296" t="inlineStr"/>
+      <c r="AC296" t="inlineStr">
+        <is>
+          <t>-37.805467031883936,174.83777750165018</t>
+        </is>
+      </c>
+      <c r="AD296" t="inlineStr">
+        <is>
+          <t>-37.80489428403728,174.8383623701218</t>
+        </is>
+      </c>
+      <c r="AE296" t="inlineStr">
+        <is>
+          <t>-37.804576952395,174.83893756858515</t>
+        </is>
+      </c>
+      <c r="AF296" t="inlineStr">
+        <is>
+          <t>-37.804325038575755,174.83966512645026</t>
+        </is>
+      </c>
+      <c r="AG296" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0228/nzd0228.xlsx
+++ b/data/nzd0228/nzd0228.xlsx
@@ -29642,28 +29642,28 @@
         <v>0.0314</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.46678103660956</v>
+        <v>-0.4681606307476771</v>
       </c>
       <c r="J2" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K2" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06068218903061318</v>
+        <v>0.06150893797023338</v>
       </c>
       <c r="M2" t="n">
-        <v>10.83473784911084</v>
+        <v>10.79460514406474</v>
       </c>
       <c r="N2" t="n">
-        <v>188.8997870817755</v>
+        <v>188.0873253188062</v>
       </c>
       <c r="O2" t="n">
-        <v>13.74408189301037</v>
+        <v>13.71449325782058</v>
       </c>
       <c r="P2" t="n">
-        <v>411.7565370681583</v>
+        <v>411.7704922322069</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29720,28 +29720,28 @@
         <v>0.0362</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.9413961811347389</v>
+        <v>-0.9460547046843413</v>
       </c>
       <c r="J3" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K3" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L3" t="n">
-        <v>0.188946651587296</v>
+        <v>0.191639893244573</v>
       </c>
       <c r="M3" t="n">
-        <v>11.76317844027397</v>
+        <v>11.73660068572537</v>
       </c>
       <c r="N3" t="n">
-        <v>213.1491346197408</v>
+        <v>212.376917475206</v>
       </c>
       <c r="O3" t="n">
-        <v>14.59962789319443</v>
+        <v>14.57315742985047</v>
       </c>
       <c r="P3" t="n">
-        <v>409.2683159738523</v>
+        <v>409.3156646819155</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29798,28 +29798,28 @@
         <v>0.0418</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.097326724669073</v>
+        <v>-1.105131146827278</v>
       </c>
       <c r="J4" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K4" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2520163038478531</v>
+        <v>0.2560692034560283</v>
       </c>
       <c r="M4" t="n">
-        <v>11.4432524995624</v>
+        <v>11.43767871687818</v>
       </c>
       <c r="N4" t="n">
-        <v>198.0804561207757</v>
+        <v>197.5713565026745</v>
       </c>
       <c r="O4" t="n">
-        <v>14.07410587287078</v>
+        <v>14.05600784371845</v>
       </c>
       <c r="P4" t="n">
-        <v>414.5726881557535</v>
+        <v>414.6514233812269</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29876,28 +29876,28 @@
         <v>0.0383</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.352626628386029</v>
+        <v>-1.354999940380642</v>
       </c>
       <c r="J5" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K5" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2832291567383186</v>
+        <v>0.2858330223696431</v>
       </c>
       <c r="M5" t="n">
-        <v>12.76770866104123</v>
+        <v>12.72393920745399</v>
       </c>
       <c r="N5" t="n">
-        <v>259.4163492422026</v>
+        <v>258.2760455534352</v>
       </c>
       <c r="O5" t="n">
-        <v>16.10640708669077</v>
+        <v>16.0709690296956</v>
       </c>
       <c r="P5" t="n">
-        <v>422.0353736209177</v>
+        <v>422.0590011642044</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29954,28 +29954,28 @@
         <v>0.0371</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.644460671554048</v>
+        <v>-1.655010751688846</v>
       </c>
       <c r="J6" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K6" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3522185146793829</v>
+        <v>0.3567617469337458</v>
       </c>
       <c r="M6" t="n">
-        <v>13.34735830220647</v>
+        <v>13.34894931663992</v>
       </c>
       <c r="N6" t="n">
-        <v>280.9782618450581</v>
+        <v>280.3843263976361</v>
       </c>
       <c r="O6" t="n">
-        <v>16.76240620689816</v>
+        <v>16.74468054032791</v>
       </c>
       <c r="P6" t="n">
-        <v>421.8613738350303</v>
+        <v>421.9653394654287</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30032,28 +30032,28 @@
         <v>0.0398</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.659552828992926</v>
+        <v>-1.660798020173245</v>
       </c>
       <c r="J7" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K7" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L7" t="n">
-        <v>0.33893012804781</v>
+        <v>0.3412745059093181</v>
       </c>
       <c r="M7" t="n">
-        <v>13.6502018410366</v>
+        <v>13.59745679973063</v>
       </c>
       <c r="N7" t="n">
-        <v>297.5465343931584</v>
+        <v>296.268021466011</v>
       </c>
       <c r="O7" t="n">
-        <v>17.24953722257958</v>
+        <v>17.21243798728149</v>
       </c>
       <c r="P7" t="n">
-        <v>418.8771012667141</v>
+        <v>418.8896233024658</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30110,28 +30110,28 @@
         <v>0.0381</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.830285780369932</v>
+        <v>-1.836585781061394</v>
       </c>
       <c r="J8" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K8" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3709119343249666</v>
+        <v>0.3744768845575529</v>
       </c>
       <c r="M8" t="n">
-        <v>13.9329601861971</v>
+        <v>13.90522276335882</v>
       </c>
       <c r="N8" t="n">
-        <v>312.3355016042427</v>
+        <v>311.2220836820705</v>
       </c>
       <c r="O8" t="n">
-        <v>17.67301619996549</v>
+        <v>17.64148756998883</v>
       </c>
       <c r="P8" t="n">
-        <v>425.9474723463192</v>
+        <v>426.0108808513027</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30188,28 +30188,28 @@
         <v>0.0317</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.985229654930971</v>
+        <v>-1.985631721610092</v>
       </c>
       <c r="J9" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K9" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3479436412155733</v>
+        <v>0.3501306376224874</v>
       </c>
       <c r="M9" t="n">
-        <v>15.46535432888756</v>
+        <v>15.39906394324648</v>
       </c>
       <c r="N9" t="n">
-        <v>387.275849325586</v>
+        <v>385.5707075761558</v>
       </c>
       <c r="O9" t="n">
-        <v>19.67932542862143</v>
+        <v>19.63595446053376</v>
       </c>
       <c r="P9" t="n">
-        <v>429.0695546297974</v>
+        <v>429.0737602973472</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30266,28 +30266,28 @@
         <v>0.0412</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.628972331195818</v>
+        <v>-1.63134240884582</v>
       </c>
       <c r="J10" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K10" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2648307234756937</v>
+        <v>0.2671724573949352</v>
       </c>
       <c r="M10" t="n">
-        <v>15.00790608652579</v>
+        <v>14.95403315055515</v>
       </c>
       <c r="N10" t="n">
-        <v>392.5922694344481</v>
+        <v>390.9105482493451</v>
       </c>
       <c r="O10" t="n">
-        <v>19.81394128976989</v>
+        <v>19.77145791916583</v>
       </c>
       <c r="P10" t="n">
-        <v>418.3000346273388</v>
+        <v>418.3245061418818</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30344,28 +30344,28 @@
         <v>0.0318</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.596033709710244</v>
+        <v>-1.590887502113793</v>
       </c>
       <c r="J11" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K11" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2224707835476388</v>
+        <v>0.2229492540776661</v>
       </c>
       <c r="M11" t="n">
-        <v>17.5182163782753</v>
+        <v>17.46724883936427</v>
       </c>
       <c r="N11" t="n">
-        <v>492.848111777232</v>
+        <v>490.821152956316</v>
       </c>
       <c r="O11" t="n">
-        <v>22.20018269693364</v>
+        <v>22.15448381155192</v>
       </c>
       <c r="P11" t="n">
-        <v>422.0680771649408</v>
+        <v>422.0168737395195</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30422,28 +30422,28 @@
         <v>0.0263</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.245422092582393</v>
+        <v>-1.245271068880077</v>
       </c>
       <c r="J12" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K12" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1592935482695813</v>
+        <v>0.1605677654986942</v>
       </c>
       <c r="M12" t="n">
-        <v>16.59555995304148</v>
+        <v>16.52116142236372</v>
       </c>
       <c r="N12" t="n">
-        <v>450.2292050394806</v>
+        <v>448.1920978228195</v>
       </c>
       <c r="O12" t="n">
-        <v>21.21860516243894</v>
+        <v>21.17054788669437</v>
       </c>
       <c r="P12" t="n">
-        <v>423.1546551476708</v>
+        <v>423.1531435291059</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30500,28 +30500,28 @@
         <v>0.0276</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.314507847939824</v>
+        <v>-1.317756047592643</v>
       </c>
       <c r="J13" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K13" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1616976908762034</v>
+        <v>0.1637299033977025</v>
       </c>
       <c r="M13" t="n">
-        <v>17.24758706005535</v>
+        <v>17.18206349925455</v>
       </c>
       <c r="N13" t="n">
-        <v>506.2148430009037</v>
+        <v>503.8860977356931</v>
       </c>
       <c r="O13" t="n">
-        <v>22.499218719789</v>
+        <v>22.44740737224887</v>
       </c>
       <c r="P13" t="n">
-        <v>420.3026311520506</v>
+        <v>420.3344749947696</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30578,28 +30578,28 @@
         <v>0.0428</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.296969720916878</v>
+        <v>-1.300050946182973</v>
       </c>
       <c r="J14" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K14" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1680583117019647</v>
+        <v>0.1700263549159508</v>
       </c>
       <c r="M14" t="n">
-        <v>16.75460284689573</v>
+        <v>16.69189265614979</v>
       </c>
       <c r="N14" t="n">
-        <v>484.1403933693431</v>
+        <v>481.9368578477237</v>
       </c>
       <c r="O14" t="n">
-        <v>22.00319052704273</v>
+        <v>21.95306032988849</v>
       </c>
       <c r="P14" t="n">
-        <v>412.1250321454904</v>
+        <v>412.155089688792</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30656,28 +30656,28 @@
         <v>0.0314</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.194349526534894</v>
+        <v>-1.193797304805681</v>
       </c>
       <c r="J15" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K15" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1521375570753232</v>
+        <v>0.153255870126551</v>
       </c>
       <c r="M15" t="n">
-        <v>16.9318851169568</v>
+        <v>16.85696088265988</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3336086353728</v>
+        <v>459.2192484370099</v>
       </c>
       <c r="O15" t="n">
-        <v>21.47867800017899</v>
+        <v>21.42940149507237</v>
       </c>
       <c r="P15" t="n">
-        <v>416.9530625045193</v>
+        <v>416.9477263497575</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30734,28 +30734,28 @@
         <v>0.0408</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.028936662243158</v>
+        <v>-1.030360547239897</v>
       </c>
       <c r="J16" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K16" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1333894181496272</v>
+        <v>0.1348002908886167</v>
       </c>
       <c r="M16" t="n">
-        <v>15.09431746189206</v>
+        <v>15.03373268300181</v>
       </c>
       <c r="N16" t="n">
-        <v>393.0955997011546</v>
+        <v>391.3047149858878</v>
       </c>
       <c r="O16" t="n">
-        <v>19.82663863848723</v>
+        <v>19.78142348229489</v>
       </c>
       <c r="P16" t="n">
-        <v>414.1724363770844</v>
+        <v>414.1864387851293</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30812,28 +30812,28 @@
         <v>0.0338</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.886753501900262</v>
+        <v>-0.8904294358697882</v>
       </c>
       <c r="J17" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K17" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L17" t="n">
-        <v>0.09307047423926562</v>
+        <v>0.09453844305925019</v>
       </c>
       <c r="M17" t="n">
-        <v>16.16824276913093</v>
+        <v>16.11607825283072</v>
       </c>
       <c r="N17" t="n">
-        <v>427.9355067880104</v>
+        <v>426.1241283983302</v>
       </c>
       <c r="O17" t="n">
-        <v>20.68660210832147</v>
+        <v>20.6427742418099</v>
       </c>
       <c r="P17" t="n">
-        <v>418.4269093726744</v>
+        <v>418.4636201337864</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30890,28 +30890,28 @@
         <v>0.0367</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.7394813922702704</v>
+        <v>-0.7414881424363621</v>
       </c>
       <c r="J18" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K18" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L18" t="n">
-        <v>0.06960439225360093</v>
+        <v>0.0705705865731685</v>
       </c>
       <c r="M18" t="n">
-        <v>15.67695355024705</v>
+        <v>15.61532256479999</v>
       </c>
       <c r="N18" t="n">
-        <v>392.0106419341964</v>
+        <v>390.2186022952103</v>
       </c>
       <c r="O18" t="n">
-        <v>19.79925862082206</v>
+        <v>19.7539515615284</v>
       </c>
       <c r="P18" t="n">
-        <v>415.8925350761365</v>
+        <v>415.9133044459983</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30968,28 +30968,28 @@
         <v>0.0399</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.8176225830528744</v>
+        <v>-0.8215609571957184</v>
       </c>
       <c r="J19" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K19" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L19" t="n">
-        <v>0.08356442269000697</v>
+        <v>0.08504056683184547</v>
       </c>
       <c r="M19" t="n">
-        <v>15.5571820923222</v>
+        <v>15.50482524104962</v>
       </c>
       <c r="N19" t="n">
-        <v>402.9922253682045</v>
+        <v>401.14238807712</v>
       </c>
       <c r="O19" t="n">
-        <v>20.07466625795319</v>
+        <v>20.02853933958041</v>
       </c>
       <c r="P19" t="n">
-        <v>414.9587654270384</v>
+        <v>414.9988689602461</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -31046,28 +31046,28 @@
         <v>0.0441</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.069440873841092</v>
+        <v>-1.074072389839987</v>
       </c>
       <c r="J20" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K20" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1360281258687365</v>
+        <v>0.1381425828603554</v>
       </c>
       <c r="M20" t="n">
-        <v>15.55842886761743</v>
+        <v>15.51386894218749</v>
       </c>
       <c r="N20" t="n">
-        <v>398.5054125653728</v>
+        <v>396.7838086714798</v>
       </c>
       <c r="O20" t="n">
-        <v>19.96260034578093</v>
+        <v>19.91943294051012</v>
       </c>
       <c r="P20" t="n">
-        <v>420.2423221634722</v>
+        <v>420.2893268084048</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -31124,28 +31124,28 @@
         <v>0.0381</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.5711894536686228</v>
+        <v>-0.5873695123723066</v>
       </c>
       <c r="J21" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K21" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03770386294722494</v>
+        <v>0.04004414499496356</v>
       </c>
       <c r="M21" t="n">
-        <v>15.86597722838233</v>
+        <v>15.86884519183984</v>
       </c>
       <c r="N21" t="n">
-        <v>429.817491513457</v>
+        <v>429.1379328923309</v>
       </c>
       <c r="O21" t="n">
-        <v>20.73204021589426</v>
+        <v>20.71564464100335</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0314417537618</v>
+        <v>414.2024776442086</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -31202,28 +31202,28 @@
         <v>0.033</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.324865779732329</v>
+        <v>-1.340845422815862</v>
       </c>
       <c r="J22" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K22" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1597791323620434</v>
+        <v>0.1640077395934607</v>
       </c>
       <c r="M22" t="n">
-        <v>17.57738839454574</v>
+        <v>17.58661274642967</v>
       </c>
       <c r="N22" t="n">
-        <v>503.665075312061</v>
+        <v>502.7941771306561</v>
       </c>
       <c r="O22" t="n">
-        <v>22.44248371531237</v>
+        <v>22.42307242843086</v>
       </c>
       <c r="P22" t="n">
-        <v>426.114121890759</v>
+        <v>426.2736642556119</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -31280,28 +31280,28 @@
         <v>0.056</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.8477389442584371</v>
+        <v>-0.8801711137449358</v>
       </c>
       <c r="J23" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K23" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06213195822717643</v>
+        <v>0.06690634241930582</v>
       </c>
       <c r="M23" t="n">
-        <v>18.30570949807161</v>
+        <v>18.34984431747447</v>
       </c>
       <c r="N23" t="n">
-        <v>558.898110403749</v>
+        <v>560.427528909189</v>
       </c>
       <c r="O23" t="n">
-        <v>23.64102600150317</v>
+        <v>23.67335060588571</v>
       </c>
       <c r="P23" t="n">
-        <v>415.8191990841037</v>
+        <v>416.1544954993888</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -31358,28 +31358,28 @@
         <v>0.0409</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.286773007677864</v>
+        <v>-1.309559885390277</v>
       </c>
       <c r="J24" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K24" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1221988135513118</v>
+        <v>0.1269484049571303</v>
       </c>
       <c r="M24" t="n">
-        <v>19.9503534953306</v>
+        <v>19.96319487969885</v>
       </c>
       <c r="N24" t="n">
-        <v>643.461769475615</v>
+        <v>642.4725117250886</v>
       </c>
       <c r="O24" t="n">
-        <v>25.36654823730684</v>
+        <v>25.34704147874242</v>
       </c>
       <c r="P24" t="n">
-        <v>433.5149477056639</v>
+        <v>433.7398787936667</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -31436,28 +31436,28 @@
         <v>0.045</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.101374259731378</v>
+        <v>-1.112840287597352</v>
       </c>
       <c r="J25" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K25" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08460342682407485</v>
+        <v>0.08709093316919514</v>
       </c>
       <c r="M25" t="n">
-        <v>20.8352751546319</v>
+        <v>20.77975879737735</v>
       </c>
       <c r="N25" t="n">
-        <v>696.8223819205947</v>
+        <v>693.8573452999286</v>
       </c>
       <c r="O25" t="n">
-        <v>26.39739346830657</v>
+        <v>26.34117205630624</v>
       </c>
       <c r="P25" t="n">
-        <v>424.979906365204</v>
+        <v>425.0951856652358</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -31517,7 +31517,7 @@
         <v>-0.5443828633644247</v>
       </c>
       <c r="J26" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K26" t="n">
         <v>192</v>
@@ -31595,7 +31595,7 @@
         <v>-0.8609102702173795</v>
       </c>
       <c r="J27" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K27" t="n">
         <v>189</v>
@@ -31673,7 +31673,7 @@
         <v>-0.5203469471138471</v>
       </c>
       <c r="J28" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K28" t="n">
         <v>186</v>
@@ -31748,28 +31748,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.6564413019055634</v>
+        <v>-0.5973784161974056</v>
       </c>
       <c r="J29" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K29" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01832707132453937</v>
+        <v>0.01515289511747064</v>
       </c>
       <c r="M29" t="n">
-        <v>27.84133844712268</v>
+        <v>28.12950948724656</v>
       </c>
       <c r="N29" t="n">
-        <v>1281.522842713254</v>
+        <v>1294.310270011037</v>
       </c>
       <c r="O29" t="n">
-        <v>35.79836368764995</v>
+        <v>35.97652387336827</v>
       </c>
       <c r="P29" t="n">
-        <v>411.4684262675205</v>
+        <v>410.8712497769951</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -31826,28 +31826,28 @@
         <v>0.0546</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.8989127819724249</v>
+        <v>-0.8058477421317776</v>
       </c>
       <c r="J30" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K30" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03358022269912952</v>
+        <v>0.02653587707645888</v>
       </c>
       <c r="M30" t="n">
-        <v>27.69483162447153</v>
+        <v>28.05508857012766</v>
       </c>
       <c r="N30" t="n">
-        <v>1234.364524079871</v>
+        <v>1271.13799824241</v>
       </c>
       <c r="O30" t="n">
-        <v>35.13352421946696</v>
+        <v>35.65302228763236</v>
       </c>
       <c r="P30" t="n">
-        <v>426.2384360133718</v>
+        <v>425.2603631926288</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -31904,28 +31904,28 @@
         <v>0.0559</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.58677898050762</v>
+        <v>-0.4891690018294533</v>
       </c>
       <c r="J31" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K31" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01167839308705998</v>
+        <v>0.007998642596384054</v>
       </c>
       <c r="M31" t="n">
-        <v>29.70016290839952</v>
+        <v>30.13233031932332</v>
       </c>
       <c r="N31" t="n">
-        <v>1445.020731531731</v>
+        <v>1479.832098219313</v>
       </c>
       <c r="O31" t="n">
-        <v>38.01342830542559</v>
+        <v>38.46858586196422</v>
       </c>
       <c r="P31" t="n">
-        <v>427.3086192044127</v>
+        <v>426.2344774466609</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -31982,28 +31982,28 @@
         <v>0.0764</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2877906892648996</v>
+        <v>0.4184928604242546</v>
       </c>
       <c r="J32" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K32" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L32" t="n">
-        <v>0.00233663448141308</v>
+        <v>0.004931666066410489</v>
       </c>
       <c r="M32" t="n">
-        <v>31.05055796946317</v>
+        <v>31.50800971239101</v>
       </c>
       <c r="N32" t="n">
-        <v>1751.467074094544</v>
+        <v>1769.666272588056</v>
       </c>
       <c r="O32" t="n">
-        <v>41.85053254254412</v>
+        <v>42.06740154309576</v>
       </c>
       <c r="P32" t="n">
-        <v>410.0702333137882</v>
+        <v>408.6386824196878</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">

--- a/data/nzd0228/nzd0228.xlsx
+++ b/data/nzd0228/nzd0228.xlsx
@@ -29633,13 +29633,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0295</v>
+        <v>0.0347</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0314</v>
+        <v>0.0387</v>
       </c>
       <c r="I2" t="n">
         <v>-0.4681316342939172</v>
@@ -29711,13 +29711,13 @@
         <v>0.9666132788295253</v>
       </c>
       <c r="F3" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0298</v>
+        <v>0.0383</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0362</v>
+        <v>0.0414</v>
       </c>
       <c r="I3" t="n">
         <v>-0.9460924090149835</v>
@@ -29792,10 +29792,10 @@
         <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0347</v>
+        <v>0.0391</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0418</v>
+        <v>0.0435</v>
       </c>
       <c r="I4" t="n">
         <v>-1.105131146827278</v>
@@ -29867,13 +29867,13 @@
         <v>0.8998818239666017</v>
       </c>
       <c r="F5" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0332</v>
+        <v>0.0439</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0383</v>
+        <v>0.0522</v>
       </c>
       <c r="I5" t="n">
         <v>-1.355048520451136</v>
@@ -29948,10 +29948,10 @@
         <v>0.035</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0297</v>
+        <v>0.034</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0371</v>
+        <v>0.0389</v>
       </c>
       <c r="I6" t="n">
         <v>-1.655064598496367</v>
@@ -30023,13 +30023,13 @@
         <v>0.833520549423006</v>
       </c>
       <c r="F7" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0331</v>
+        <v>0.0381</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0398</v>
+        <v>0.0435</v>
       </c>
       <c r="I7" t="n">
         <v>-1.660838835063095</v>
@@ -30104,10 +30104,10 @@
         <v>0.035</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0328</v>
+        <v>0.0304</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0381</v>
+        <v>0.036</v>
       </c>
       <c r="I8" t="n">
         <v>-1.836627892258384</v>
@@ -30182,10 +30182,10 @@
         <v>0.03</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0269</v>
+        <v>0.0252</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0317</v>
+        <v>0.0309</v>
       </c>
       <c r="I9" t="n">
         <v>-1.985600976904802</v>
@@ -30257,13 +30257,13 @@
         <v>0.7334866203889712</v>
       </c>
       <c r="F10" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0315</v>
+        <v>0.0296</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0412</v>
+        <v>0.0324</v>
       </c>
       <c r="I10" t="n">
         <v>-1.631395897020545</v>
@@ -30335,13 +30335,13 @@
         <v>0.7002282313265548</v>
       </c>
       <c r="F11" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0244</v>
+        <v>0.0291</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0318</v>
+        <v>0.0357</v>
       </c>
       <c r="I11" t="n">
         <v>-1.590887502113793</v>
@@ -30413,13 +30413,13 @@
         <v>0.666907373727611</v>
       </c>
       <c r="F12" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0242</v>
+        <v>0.0296</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0263</v>
+        <v>0.0354</v>
       </c>
       <c r="I12" t="n">
         <v>-1.245271068880077</v>
@@ -30491,13 +30491,13 @@
         <v>0.6335585900715537</v>
       </c>
       <c r="F13" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0238</v>
+        <v>0.0294</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0276</v>
+        <v>0.0348</v>
       </c>
       <c r="I13" t="n">
         <v>-1.317756047592644</v>
@@ -30569,13 +30569,13 @@
         <v>0.6001933346172311</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0346</v>
+        <v>0.0323</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0428</v>
+        <v>0.0368</v>
       </c>
       <c r="I14" t="n">
         <v>-1.300050946182973</v>
@@ -30647,13 +30647,13 @@
         <v>0.5668066134470734</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0277</v>
+        <v>0.0342</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0314</v>
+        <v>0.038</v>
       </c>
       <c r="I15" t="n">
         <v>-1.193752619933006</v>
@@ -30728,10 +30728,10 @@
         <v>0.035</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0325</v>
+        <v>0.0329</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0408</v>
+        <v>0.0361</v>
       </c>
       <c r="I16" t="n">
         <v>-1.030401777112072</v>
@@ -30806,10 +30806,10 @@
         <v>0.03</v>
       </c>
       <c r="G17" t="n">
-        <v>0.029</v>
+        <v>0.0295</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0338</v>
+        <v>0.0333</v>
       </c>
       <c r="I17" t="n">
         <v>-0.8903929402147923</v>
@@ -30884,10 +30884,10 @@
         <v>0.03</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0291</v>
+        <v>0.0295</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0367</v>
+        <v>0.0316</v>
       </c>
       <c r="I18" t="n">
         <v>-0.741439316154612</v>
@@ -30959,13 +30959,13 @@
         <v>0.4332599066291577</v>
       </c>
       <c r="F19" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="G19" t="n">
-        <v>0.029</v>
+        <v>0.0293</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0399</v>
+        <v>0.0318</v>
       </c>
       <c r="I19" t="n">
         <v>-0.8216163875165678</v>
@@ -31037,13 +31037,13 @@
         <v>0.3998935455860069</v>
       </c>
       <c r="F20" t="n">
-        <v>0.035</v>
+        <v>0.025</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0332</v>
+        <v>0.0246</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0441</v>
+        <v>0.0294</v>
       </c>
       <c r="I20" t="n">
         <v>-1.074095374793443</v>
@@ -31115,13 +31115,13 @@
         <v>0.3665068244160156</v>
       </c>
       <c r="F21" t="n">
-        <v>0.035</v>
+        <v>0.025</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0299</v>
+        <v>0.0248</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0381</v>
+        <v>0.0269</v>
       </c>
       <c r="I21" t="n">
         <v>-0.5873857595019197</v>
@@ -31196,10 +31196,10 @@
         <v>0.03</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0249</v>
+        <v>0.0288</v>
       </c>
       <c r="H22" t="n">
-        <v>0.033</v>
+        <v>0.0323</v>
       </c>
       <c r="I22" t="n">
         <v>-1.340810292295533</v>
@@ -31271,13 +31271,13 @@
         <v>0.2998165589954154</v>
       </c>
       <c r="F23" t="n">
-        <v>0.045</v>
+        <v>0.025</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0373</v>
+        <v>0.0223</v>
       </c>
       <c r="H23" t="n">
-        <v>0.056</v>
+        <v>0.0255</v>
       </c>
       <c r="I23" t="n">
         <v>-0.8802075910986898</v>
@@ -31352,10 +31352,10 @@
         <v>0.03</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0265</v>
+        <v>0.0288</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0409</v>
+        <v>0.0311</v>
       </c>
       <c r="I24" t="n">
         <v>-1.309522965046964</v>
@@ -31427,13 +31427,13 @@
         <v>0.2331096724420025</v>
       </c>
       <c r="F25" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0293</v>
+        <v>0.0258</v>
       </c>
       <c r="H25" t="n">
-        <v>0.045</v>
+        <v>0.0306</v>
       </c>
       <c r="I25" t="n">
         <v>-1.112865997352646</v>
@@ -31505,13 +31505,13 @@
         <v>0.1997229512718164</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04</v>
+        <v>0.025</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0314</v>
+        <v>0.0248</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0511</v>
+        <v>0.0253</v>
       </c>
       <c r="I26" t="n">
         <v>-0.5443828633644247</v>
@@ -31583,13 +31583,13 @@
         <v>0.1663362301018416</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05</v>
+        <v>0.025</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0386</v>
+        <v>0.0246</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08119999999999999</v>
+        <v>0.0254</v>
       </c>
       <c r="I27" t="n">
         <v>-0.8609102702173795</v>
@@ -31661,13 +31661,13 @@
         <v>0.1333330740135594</v>
       </c>
       <c r="F28" t="n">
-        <v>0.045</v>
+        <v>0.03</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0377</v>
+        <v>0.0284</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0585</v>
+        <v>0.032</v>
       </c>
       <c r="I28" t="n">
         <v>-0.520396874158807</v>
@@ -31739,13 +31739,13 @@
         <v>0.09994635284249162</v>
       </c>
       <c r="F29" t="n">
-        <v>0.05</v>
+        <v>0.025</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0399</v>
+        <v>0.0236</v>
       </c>
       <c r="H29" t="n">
-        <v>0.07530000000000001</v>
+        <v>0.026</v>
       </c>
       <c r="I29" t="n">
         <v>-0.5973784161974058</v>
@@ -31817,13 +31817,13 @@
         <v>0.06655963167129487</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04</v>
+        <v>0.025</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0318</v>
+        <v>0.0217</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0546</v>
+        <v>0.027</v>
       </c>
       <c r="I30" t="n">
         <v>-0.8058477421317776</v>
@@ -31895,13 +31895,13 @@
         <v>0.03338672117085839</v>
       </c>
       <c r="F31" t="n">
-        <v>0.045</v>
+        <v>0.025</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0348</v>
+        <v>0.0229</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0559</v>
+        <v>0.0303</v>
       </c>
       <c r="I31" t="n">
         <v>-0.489208826599038</v>
@@ -31973,13 +31973,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.055</v>
+        <v>0.02</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0417</v>
+        <v>0.0198</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0764</v>
+        <v>0.0208</v>
       </c>
       <c r="I32" t="n">
         <v>0.4184631629600839</v>

--- a/data/nzd0228/nzd0228.xlsx
+++ b/data/nzd0228/nzd0228.xlsx
@@ -619,7 +619,7 @@
         <v>400.74</v>
       </c>
       <c r="E2" t="n">
-        <v>402.56</v>
+        <v>403.78</v>
       </c>
       <c r="F2" t="n">
         <v>400.15</v>
@@ -724,7 +724,7 @@
         <v>422.69</v>
       </c>
       <c r="E3" t="n">
-        <v>425.94</v>
+        <v>427.5</v>
       </c>
       <c r="F3" t="n">
         <v>426.43</v>
@@ -829,7 +829,7 @@
         <v>427.4</v>
       </c>
       <c r="E4" t="n">
-        <v>443.3</v>
+        <v>444.19</v>
       </c>
       <c r="F4" t="n">
         <v>434.95</v>
@@ -934,7 +934,7 @@
         <v>423.86</v>
       </c>
       <c r="E5" t="n">
-        <v>435.56</v>
+        <v>434.18</v>
       </c>
       <c r="F5" t="n">
         <v>431.69</v>
@@ -1031,7 +1031,7 @@
         <v>419.95</v>
       </c>
       <c r="E6" t="n">
-        <v>431.1</v>
+        <v>429.54</v>
       </c>
       <c r="F6" t="n">
         <v>450.7</v>
@@ -1108,7 +1108,7 @@
         <v>420.38</v>
       </c>
       <c r="E7" t="n">
-        <v>438.87</v>
+        <v>438.58</v>
       </c>
       <c r="F7" t="n">
         <v>437.79</v>
@@ -1436,7 +1436,7 @@
         <v>404.41</v>
       </c>
       <c r="E11" t="n">
-        <v>407.37</v>
+        <v>406.1</v>
       </c>
       <c r="F11" t="n">
         <v>405.18</v>
@@ -1535,7 +1535,7 @@
         <v>388.13</v>
       </c>
       <c r="E12" t="n">
-        <v>387.96</v>
+        <v>387.94</v>
       </c>
       <c r="F12" t="n">
         <v>388.26</v>
@@ -1719,7 +1719,7 @@
         <v>419.73</v>
       </c>
       <c r="E14" t="n">
-        <v>404.74</v>
+        <v>408.1</v>
       </c>
       <c r="F14" t="n">
         <v>411.07</v>
@@ -1824,7 +1824,7 @@
         <v>383.38</v>
       </c>
       <c r="E15" t="n">
-        <v>385.18</v>
+        <v>385.65</v>
       </c>
       <c r="F15" t="n">
         <v>388.52</v>
@@ -1925,7 +1925,7 @@
         <v>379.56</v>
       </c>
       <c r="E16" t="n">
-        <v>378.17</v>
+        <v>376.39</v>
       </c>
       <c r="F16" t="n">
         <v>387.38</v>
@@ -2000,7 +2000,7 @@
         <v>407.3</v>
       </c>
       <c r="E17" t="n">
-        <v>428.3</v>
+        <v>426.9</v>
       </c>
       <c r="F17" t="n">
         <v>431.82</v>
@@ -2079,7 +2079,7 @@
         <v>410.85</v>
       </c>
       <c r="E18" t="n">
-        <v>410.39</v>
+        <v>408.86</v>
       </c>
       <c r="F18" t="n">
         <v>411.97</v>
@@ -2172,7 +2172,7 @@
         <v>434.92</v>
       </c>
       <c r="E19" t="n">
-        <v>450.69</v>
+        <v>451.07</v>
       </c>
       <c r="F19" t="n">
         <v>448.42</v>
@@ -2275,7 +2275,7 @@
         <v>404.29</v>
       </c>
       <c r="E20" t="n">
-        <v>423.26</v>
+        <v>422.26</v>
       </c>
       <c r="F20" t="n">
         <v>412.37</v>
@@ -2378,7 +2378,7 @@
         <v>398.5</v>
       </c>
       <c r="E21" t="n">
-        <v>411.53</v>
+        <v>411.64</v>
       </c>
       <c r="F21" t="n">
         <v>412.84</v>
@@ -2471,7 +2471,7 @@
         <v>415.06</v>
       </c>
       <c r="E22" t="n">
-        <v>451.94</v>
+        <v>450.45</v>
       </c>
       <c r="F22" t="n">
         <v>439.62</v>
@@ -2556,7 +2556,7 @@
         <v>400.31</v>
       </c>
       <c r="E23" t="n">
-        <v>415.33</v>
+        <v>416.51</v>
       </c>
       <c r="F23" t="n">
         <v>416.64</v>
@@ -2661,7 +2661,7 @@
         <v>407.4</v>
       </c>
       <c r="E24" t="n">
-        <v>406.48</v>
+        <v>409.57</v>
       </c>
       <c r="F24" t="n">
         <v>418.72</v>
@@ -2766,7 +2766,7 @@
         <v>411.76</v>
       </c>
       <c r="E25" t="n">
-        <v>429.93</v>
+        <v>428.55</v>
       </c>
       <c r="F25" t="n">
         <v>433.45</v>
@@ -2839,7 +2839,7 @@
         <v>405.93</v>
       </c>
       <c r="E26" t="n">
-        <v>407.27</v>
+        <v>406.05</v>
       </c>
       <c r="F26" t="n">
         <v>399.09</v>
@@ -2942,7 +2942,7 @@
         <v>420.13</v>
       </c>
       <c r="E27" t="n">
-        <v>417.23</v>
+        <v>417.56</v>
       </c>
       <c r="F27" t="n">
         <v>413.35</v>
@@ -3013,7 +3013,7 @@
         <v>403.22</v>
       </c>
       <c r="E28" t="n">
-        <v>396.4</v>
+        <v>399.2</v>
       </c>
       <c r="F28" t="n">
         <v>394.26</v>
@@ -3106,7 +3106,7 @@
         <v>392</v>
       </c>
       <c r="E29" t="n">
-        <v>381.98</v>
+        <v>380</v>
       </c>
       <c r="F29" t="n">
         <v>373.07</v>
@@ -3165,7 +3165,7 @@
         <v>414.79</v>
       </c>
       <c r="E30" t="n">
-        <v>407.17</v>
+        <v>411.04</v>
       </c>
       <c r="F30" t="n">
         <v>415.73</v>
@@ -3262,7 +3262,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>403.51</v>
+        <v>401.84</v>
       </c>
       <c r="F31" t="n">
         <v>393.6</v>
@@ -3444,7 +3444,7 @@
         <v>397.26</v>
       </c>
       <c r="E33" t="n">
-        <v>397.67</v>
+        <v>399.83</v>
       </c>
       <c r="F33" t="n">
         <v>400.16</v>
@@ -3533,7 +3533,7 @@
         <v>397.23</v>
       </c>
       <c r="E34" t="n">
-        <v>399.05</v>
+        <v>399.38</v>
       </c>
       <c r="F34" t="n">
         <v>396.99</v>
@@ -3624,7 +3624,7 @@
         <v>406.73</v>
       </c>
       <c r="E35" t="n">
-        <v>403.45</v>
+        <v>406.54</v>
       </c>
       <c r="F35" t="n">
         <v>395.93</v>
@@ -3794,7 +3794,7 @@
         <v>398.24</v>
       </c>
       <c r="E37" t="n">
-        <v>396.4</v>
+        <v>399.73</v>
       </c>
       <c r="F37" t="n">
         <v>404.5</v>
@@ -3869,7 +3869,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>387.5</v>
+        <v>390.23</v>
       </c>
       <c r="F38" t="n">
         <v>394.11</v>
@@ -3962,7 +3962,7 @@
         <v>405.35</v>
       </c>
       <c r="E39" t="n">
-        <v>410.92</v>
+        <v>410.54</v>
       </c>
       <c r="F39" t="n">
         <v>420.29</v>
@@ -4067,7 +4067,7 @@
         <v>391.51</v>
       </c>
       <c r="E40" t="n">
-        <v>403.68</v>
+        <v>404.79</v>
       </c>
       <c r="F40" t="n">
         <v>402.51</v>
@@ -4172,7 +4172,7 @@
         <v>401.57</v>
       </c>
       <c r="E41" t="n">
-        <v>410.4</v>
+        <v>408.78</v>
       </c>
       <c r="F41" t="n">
         <v>409.57</v>
@@ -4269,7 +4269,7 @@
         <v>404.09</v>
       </c>
       <c r="E42" t="n">
-        <v>401.54</v>
+        <v>399.98</v>
       </c>
       <c r="F42" t="n">
         <v>387.56</v>
@@ -4374,7 +4374,7 @@
         <v>403.25</v>
       </c>
       <c r="E43" t="n">
-        <v>389.14</v>
+        <v>392.9</v>
       </c>
       <c r="F43" t="n">
         <v>392.49</v>
@@ -4544,7 +4544,7 @@
         <v>393.14</v>
       </c>
       <c r="E45" t="n">
-        <v>405.32</v>
+        <v>403.79</v>
       </c>
       <c r="F45" t="n">
         <v>412.1</v>
@@ -4649,7 +4649,7 @@
         <v>401.37</v>
       </c>
       <c r="E46" t="n">
-        <v>409.08</v>
+        <v>410.44</v>
       </c>
       <c r="F46" t="n">
         <v>403.19</v>
@@ -4754,7 +4754,7 @@
         <v>404.03</v>
       </c>
       <c r="E47" t="n">
-        <v>409.2</v>
+        <v>409.27</v>
       </c>
       <c r="F47" t="n">
         <v>401.28</v>
@@ -4900,7 +4900,7 @@
         <v>411.83</v>
       </c>
       <c r="E49" t="n">
-        <v>413.66</v>
+        <v>411.7</v>
       </c>
       <c r="F49" t="n">
         <v>415.67</v>
@@ -4969,7 +4969,7 @@
         <v>410.05</v>
       </c>
       <c r="E50" t="n">
-        <v>407.34</v>
+        <v>409.36</v>
       </c>
       <c r="F50" t="n">
         <v>409.09</v>
@@ -5042,7 +5042,7 @@
         <v>420.76</v>
       </c>
       <c r="E51" t="n">
-        <v>410.78</v>
+        <v>414.34</v>
       </c>
       <c r="F51" t="n">
         <v>421.05</v>
@@ -5214,7 +5214,7 @@
         <v>431.19</v>
       </c>
       <c r="E53" t="n">
-        <v>442.83</v>
+        <v>442.5</v>
       </c>
       <c r="F53" t="n">
         <v>446.11</v>
@@ -5309,7 +5309,7 @@
         <v>422.42</v>
       </c>
       <c r="E54" t="n">
-        <v>425.3</v>
+        <v>426.99</v>
       </c>
       <c r="F54" t="n">
         <v>429.59</v>
@@ -5414,7 +5414,7 @@
         <v>410.26</v>
       </c>
       <c r="E55" t="n">
-        <v>424.74</v>
+        <v>425.18</v>
       </c>
       <c r="F55" t="n">
         <v>423.59</v>
@@ -5602,7 +5602,7 @@
         <v>433.46</v>
       </c>
       <c r="E57" t="n">
-        <v>460.61</v>
+        <v>459.43</v>
       </c>
       <c r="F57" t="n">
         <v>451.39</v>
@@ -5691,7 +5691,7 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
-        <v>420.1</v>
+        <v>422.77</v>
       </c>
       <c r="F58" t="n">
         <v>430.77</v>
@@ -5879,7 +5879,7 @@
         <v>430.6</v>
       </c>
       <c r="E60" t="n">
-        <v>452.39</v>
+        <v>451.37</v>
       </c>
       <c r="F60" t="n">
         <v>445.45</v>
@@ -6047,7 +6047,7 @@
         <v>418.61</v>
       </c>
       <c r="E62" t="n">
-        <v>423.99</v>
+        <v>423.01</v>
       </c>
       <c r="F62" t="n">
         <v>409.56</v>
@@ -6124,7 +6124,7 @@
         <v>411.83</v>
       </c>
       <c r="E63" t="n">
-        <v>416.62</v>
+        <v>417.66</v>
       </c>
       <c r="F63" t="n">
         <v>416.07</v>
@@ -6219,7 +6219,7 @@
         <v>411.17</v>
       </c>
       <c r="E64" t="n">
-        <v>408.64</v>
+        <v>411.46</v>
       </c>
       <c r="F64" t="n">
         <v>415.67</v>
@@ -6314,7 +6314,7 @@
         <v>414.7</v>
       </c>
       <c r="E65" t="n">
-        <v>416.48</v>
+        <v>419.12</v>
       </c>
       <c r="F65" t="n">
         <v>419.22</v>
@@ -6403,7 +6403,7 @@
         <v>421.89</v>
       </c>
       <c r="E66" t="n">
-        <v>417.06</v>
+        <v>415.88</v>
       </c>
       <c r="F66" t="n">
         <v>408.66</v>
@@ -6492,7 +6492,7 @@
         <v>420</v>
       </c>
       <c r="E67" t="n">
-        <v>414.13</v>
+        <v>417.75</v>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
@@ -6583,7 +6583,7 @@
         <v>424.25</v>
       </c>
       <c r="E68" t="n">
-        <v>420.15</v>
+        <v>422.71</v>
       </c>
       <c r="F68" t="n">
         <v>427.37</v>
@@ -6816,7 +6816,7 @@
         <v>411.09</v>
       </c>
       <c r="E71" t="n">
-        <v>409.41</v>
+        <v>409.68</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -6913,7 +6913,7 @@
         <v>420.92</v>
       </c>
       <c r="E72" t="n">
-        <v>420.73</v>
+        <v>422.2</v>
       </c>
       <c r="F72" t="n">
         <v>422.03</v>
@@ -7010,7 +7010,7 @@
         <v>411.79</v>
       </c>
       <c r="E73" t="n">
-        <v>403.31</v>
+        <v>406.44</v>
       </c>
       <c r="F73" t="n">
         <v>405.14</v>
@@ -7188,7 +7188,7 @@
         <v>414.78</v>
       </c>
       <c r="E75" t="n">
-        <v>420.92</v>
+        <v>419.48</v>
       </c>
       <c r="F75" t="n">
         <v>412.38</v>
@@ -7293,7 +7293,7 @@
         <v>402.87</v>
       </c>
       <c r="E76" t="n">
-        <v>402.81</v>
+        <v>402.83</v>
       </c>
       <c r="F76" t="n">
         <v>402.93</v>
@@ -7487,7 +7487,7 @@
         <v>416.75</v>
       </c>
       <c r="E78" t="n">
-        <v>412.97</v>
+        <v>416.59</v>
       </c>
       <c r="F78" t="n">
         <v>421.98</v>
@@ -7586,7 +7586,7 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
-        <v>426.38</v>
+        <v>427.94</v>
       </c>
       <c r="F79" t="n">
         <v>430.65</v>
@@ -7683,7 +7683,7 @@
         <v>405.68</v>
       </c>
       <c r="E80" t="n">
-        <v>400.04</v>
+        <v>402.91</v>
       </c>
       <c r="F80" t="n">
         <v>406.84</v>
@@ -7780,7 +7780,7 @@
         <v>422.11</v>
       </c>
       <c r="E81" t="n">
-        <v>422.47</v>
+        <v>425</v>
       </c>
       <c r="F81" t="n">
         <v>432.56</v>
@@ -8015,7 +8015,7 @@
         <v>417.89</v>
       </c>
       <c r="E84" t="n">
-        <v>427.9</v>
+        <v>427.28</v>
       </c>
       <c r="F84" t="n">
         <v>424.36</v>
@@ -8108,7 +8108,7 @@
         <v>406.17</v>
       </c>
       <c r="E85" t="n">
-        <v>402.42</v>
+        <v>405.62</v>
       </c>
       <c r="F85" t="n">
         <v>408.77</v>
@@ -8203,7 +8203,7 @@
         <v>413.92</v>
       </c>
       <c r="E86" t="n">
-        <v>419.87</v>
+        <v>420.43</v>
       </c>
       <c r="F86" t="n">
         <v>422.63</v>
@@ -8304,7 +8304,7 @@
         <v>405.7</v>
       </c>
       <c r="E87" t="n">
-        <v>399.12</v>
+        <v>402.76</v>
       </c>
       <c r="F87" t="n">
         <v>418.15</v>
@@ -8409,7 +8409,7 @@
         <v>418.74</v>
       </c>
       <c r="E88" t="n">
-        <v>414.63</v>
+        <v>417.85</v>
       </c>
       <c r="F88" t="n">
         <v>421.23</v>
@@ -8514,7 +8514,7 @@
         <v>404.13</v>
       </c>
       <c r="E89" t="n">
-        <v>409.35</v>
+        <v>409.37</v>
       </c>
       <c r="F89" t="n">
         <v>407.75</v>
@@ -8652,7 +8652,7 @@
         <v>398.76</v>
       </c>
       <c r="E91" t="n">
-        <v>388.88</v>
+        <v>391.7</v>
       </c>
       <c r="F91" t="n">
         <v>379.64</v>
@@ -8749,7 +8749,7 @@
         <v>414.57</v>
       </c>
       <c r="E92" t="n">
-        <v>415.28</v>
+        <v>413.48</v>
       </c>
       <c r="F92" t="n">
         <v>396.12</v>
@@ -8834,7 +8834,7 @@
         <v>413.46</v>
       </c>
       <c r="E93" t="n">
-        <v>409.05</v>
+        <v>408.87</v>
       </c>
       <c r="F93" t="n">
         <v>397.2</v>
@@ -9024,7 +9024,7 @@
         <v>405.39</v>
       </c>
       <c r="E95" t="n">
-        <v>402.65</v>
+        <v>405.38</v>
       </c>
       <c r="F95" t="n">
         <v>398.78</v>
@@ -9206,7 +9206,7 @@
         <v>396.22</v>
       </c>
       <c r="E97" t="n">
-        <v>394.55</v>
+        <v>396.48</v>
       </c>
       <c r="F97" t="n">
         <v>390.06</v>
@@ -9301,7 +9301,7 @@
         <v>398.96</v>
       </c>
       <c r="E98" t="n">
-        <v>390.77</v>
+        <v>394.08</v>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
-        <v>414.01</v>
+        <v>416.83</v>
       </c>
       <c r="F99" t="n">
         <v>415.94</v>
@@ -9487,7 +9487,7 @@
         <v>402.7</v>
       </c>
       <c r="E100" t="n">
-        <v>393.55</v>
+        <v>396.64</v>
       </c>
       <c r="F100" t="n">
         <v>383.93</v>
@@ -9580,7 +9580,7 @@
         <v>396.89</v>
       </c>
       <c r="E101" t="n">
-        <v>384.2</v>
+        <v>386.84</v>
       </c>
       <c r="F101" t="n">
         <v>372.01</v>
@@ -9764,7 +9764,7 @@
         <v>411.82</v>
       </c>
       <c r="E103" t="n">
-        <v>408.81</v>
+        <v>409.79</v>
       </c>
       <c r="F103" t="n">
         <v>393.51</v>
@@ -9869,7 +9869,7 @@
         <v>389.44</v>
       </c>
       <c r="E104" t="n">
-        <v>395.72</v>
+        <v>398.83</v>
       </c>
       <c r="F104" t="n">
         <v>391.8</v>
@@ -9974,7 +9974,7 @@
         <v>401.28</v>
       </c>
       <c r="E105" t="n">
-        <v>409.52</v>
+        <v>409.3</v>
       </c>
       <c r="F105" t="n">
         <v>400.66</v>
@@ -10069,7 +10069,7 @@
         <v>397.23</v>
       </c>
       <c r="E106" t="n">
-        <v>406.47</v>
+        <v>407.6</v>
       </c>
       <c r="F106" t="n">
         <v>402.95</v>
@@ -10168,7 +10168,7 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="n">
-        <v>387.33</v>
+        <v>389.51</v>
       </c>
       <c r="F107" t="n">
         <v>389.53</v>
@@ -10354,7 +10354,7 @@
         <v>395.87</v>
       </c>
       <c r="E109" t="n">
-        <v>398.78</v>
+        <v>396.89</v>
       </c>
       <c r="F109" t="n">
         <v>390.33</v>
@@ -10447,7 +10447,7 @@
         <v>396.38</v>
       </c>
       <c r="E110" t="n">
-        <v>392.47</v>
+        <v>395.76</v>
       </c>
       <c r="F110" t="n">
         <v>389.97</v>
@@ -10544,7 +10544,7 @@
         <v>395.68</v>
       </c>
       <c r="E111" t="n">
-        <v>401.45</v>
+        <v>400.94</v>
       </c>
       <c r="F111" t="n">
         <v>393.57</v>
@@ -10708,7 +10708,7 @@
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="n">
-        <v>385.65</v>
+        <v>385.32</v>
       </c>
       <c r="F113" t="n">
         <v>376.8</v>
@@ -10811,7 +10811,7 @@
         <v>383.5</v>
       </c>
       <c r="E114" t="n">
-        <v>390.19</v>
+        <v>390.3</v>
       </c>
       <c r="F114" t="n">
         <v>389.48</v>
@@ -10904,7 +10904,7 @@
         <v>382.63</v>
       </c>
       <c r="E115" t="n">
-        <v>387.96</v>
+        <v>387.87</v>
       </c>
       <c r="F115" t="n">
         <v>391.04</v>
@@ -11084,7 +11084,7 @@
         <v>381.41</v>
       </c>
       <c r="E117" t="n">
-        <v>374.21</v>
+        <v>372.03</v>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -11171,7 +11171,7 @@
         <v>401.4</v>
       </c>
       <c r="E118" t="n">
-        <v>397.37</v>
+        <v>400.1</v>
       </c>
       <c r="F118" t="n">
         <v>401.04</v>
@@ -11264,7 +11264,7 @@
         <v>354.38</v>
       </c>
       <c r="E119" t="n">
-        <v>357.99</v>
+        <v>357.19</v>
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
@@ -11408,7 +11408,7 @@
         <v>380.7</v>
       </c>
       <c r="E121" t="n">
-        <v>390.4</v>
+        <v>390.09</v>
       </c>
       <c r="F121" t="n">
         <v>386.64</v>
@@ -11501,7 +11501,7 @@
         <v>392.1</v>
       </c>
       <c r="E122" t="n">
-        <v>391.14</v>
+        <v>394.32</v>
       </c>
       <c r="F122" t="n">
         <v>396.39</v>
@@ -11606,7 +11606,7 @@
         <v>378.51</v>
       </c>
       <c r="E123" t="n">
-        <v>386.7</v>
+        <v>386.37</v>
       </c>
       <c r="F123" t="n">
         <v>372.17</v>
@@ -11788,7 +11788,7 @@
         <v>384.81</v>
       </c>
       <c r="E125" t="n">
-        <v>384.73</v>
+        <v>387.17</v>
       </c>
       <c r="F125" t="n">
         <v>387.99</v>
@@ -11881,7 +11881,7 @@
         <v>381.4</v>
       </c>
       <c r="E126" t="n">
-        <v>374.76</v>
+        <v>377.78</v>
       </c>
       <c r="F126" t="n">
         <v>378.22</v>
@@ -11976,7 +11976,7 @@
         <v>379.63</v>
       </c>
       <c r="E127" t="n">
-        <v>389.63</v>
+        <v>389.3</v>
       </c>
       <c r="F127" t="n">
         <v>387.95</v>
@@ -12079,7 +12079,7 @@
         <v>382.45</v>
       </c>
       <c r="E128" t="n">
-        <v>390.79</v>
+        <v>390.95</v>
       </c>
       <c r="F128" t="n">
         <v>395.51</v>
@@ -12172,7 +12172,7 @@
         <v>381.18</v>
       </c>
       <c r="E129" t="n">
-        <v>384.65</v>
+        <v>386.29</v>
       </c>
       <c r="F129" t="n">
         <v>385.29</v>
@@ -12275,7 +12275,7 @@
         <v>410.95</v>
       </c>
       <c r="E130" t="n">
-        <v>422.29</v>
+        <v>420.71</v>
       </c>
       <c r="F130" t="n">
         <v>423.42</v>
@@ -12366,7 +12366,7 @@
         <v>402.14</v>
       </c>
       <c r="E131" t="n">
-        <v>394.94</v>
+        <v>398.1</v>
       </c>
       <c r="F131" t="n">
         <v>390.9</v>
@@ -12469,7 +12469,7 @@
         <v>405.05</v>
       </c>
       <c r="E132" t="n">
-        <v>394.48</v>
+        <v>393.12</v>
       </c>
       <c r="F132" t="n">
         <v>403.06</v>
@@ -12530,7 +12530,7 @@
         <v>398.21</v>
       </c>
       <c r="E133" t="n">
-        <v>393.11</v>
+        <v>395.8</v>
       </c>
       <c r="F133" t="n">
         <v>384.13</v>
@@ -12633,7 +12633,7 @@
         <v>364.11</v>
       </c>
       <c r="E134" t="n">
-        <v>366.74</v>
+        <v>366.1</v>
       </c>
       <c r="F134" t="n">
         <v>367.1</v>
@@ -12736,7 +12736,7 @@
         <v>387.65</v>
       </c>
       <c r="E135" t="n">
-        <v>385.67</v>
+        <v>386.29</v>
       </c>
       <c r="F135" t="n">
         <v>380.54</v>
@@ -12841,7 +12841,7 @@
         <v>388.11</v>
       </c>
       <c r="E136" t="n">
-        <v>387.5</v>
+        <v>390.1</v>
       </c>
       <c r="F136" t="n">
         <v>385.9</v>
@@ -12938,7 +12938,7 @@
         <v>392.45</v>
       </c>
       <c r="E137" t="n">
-        <v>395.2</v>
+        <v>398.4</v>
       </c>
       <c r="F137" t="n">
         <v>395.24</v>
@@ -13031,7 +13031,7 @@
         <v>381.37</v>
       </c>
       <c r="E138" t="n">
-        <v>388.61</v>
+        <v>390.48</v>
       </c>
       <c r="F138" t="n">
         <v>389.83</v>
@@ -13118,7 +13118,7 @@
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="n">
-        <v>375.32</v>
+        <v>373.45</v>
       </c>
       <c r="F139" t="n">
         <v>383.28</v>
@@ -13258,7 +13258,7 @@
         <v>393.1</v>
       </c>
       <c r="E141" t="n">
-        <v>395.85</v>
+        <v>394.87</v>
       </c>
       <c r="F141" t="n">
         <v>399.47</v>
@@ -13329,7 +13329,7 @@
         <v>386.41</v>
       </c>
       <c r="E142" t="n">
-        <v>396.97</v>
+        <v>397.37</v>
       </c>
       <c r="F142" t="n">
         <v>401.32</v>
@@ -13418,7 +13418,7 @@
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="n">
-        <v>382.31</v>
+        <v>382.09</v>
       </c>
       <c r="F143" t="n">
         <v>379.77</v>
@@ -13491,7 +13491,7 @@
         <v>379.7</v>
       </c>
       <c r="E144" t="n">
-        <v>380.78</v>
+        <v>383.18</v>
       </c>
       <c r="F144" t="n">
         <v>382.95</v>
@@ -13584,7 +13584,7 @@
         <v>380.42</v>
       </c>
       <c r="E145" t="n">
-        <v>389.54</v>
+        <v>392.34</v>
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
@@ -13681,7 +13681,7 @@
         <v>413.25</v>
       </c>
       <c r="E146" t="n">
-        <v>423.16</v>
+        <v>421.52</v>
       </c>
       <c r="F146" t="n">
         <v>419.17</v>
@@ -13772,7 +13772,7 @@
         <v>384.33</v>
       </c>
       <c r="E147" t="n">
-        <v>379.23</v>
+        <v>379.07</v>
       </c>
       <c r="F147" t="n">
         <v>376.35</v>
@@ -13855,7 +13855,7 @@
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="n">
-        <v>386.63</v>
+        <v>384.54</v>
       </c>
       <c r="F148" t="n">
         <v>398.48</v>
@@ -13946,7 +13946,7 @@
         <v>402.66</v>
       </c>
       <c r="E149" t="n">
-        <v>401.91</v>
+        <v>404.75</v>
       </c>
       <c r="F149" t="n">
         <v>399.76</v>
@@ -14039,7 +14039,7 @@
         <v>418.63</v>
       </c>
       <c r="E150" t="n">
-        <v>408</v>
+        <v>407.76</v>
       </c>
       <c r="F150" t="n">
         <v>397.19</v>
@@ -14144,7 +14144,7 @@
         <v>391.68</v>
       </c>
       <c r="E151" t="n">
-        <v>382.95</v>
+        <v>382.91</v>
       </c>
       <c r="F151" t="n">
         <v>385.21</v>
@@ -14239,7 +14239,7 @@
         <v>415.53</v>
       </c>
       <c r="E152" t="n">
-        <v>411.26</v>
+        <v>414.13</v>
       </c>
       <c r="F152" t="n">
         <v>410.53</v>
@@ -14302,7 +14302,7 @@
         <v>403.36</v>
       </c>
       <c r="E153" t="n">
-        <v>396.76</v>
+        <v>400.03</v>
       </c>
       <c r="F153" t="n">
         <v>390.07</v>
@@ -14401,7 +14401,7 @@
         <v>421.81</v>
       </c>
       <c r="E154" t="n">
-        <v>418.86</v>
+        <v>419.62</v>
       </c>
       <c r="F154" t="n">
         <v>412.83</v>
@@ -14494,7 +14494,7 @@
         <v>399.25</v>
       </c>
       <c r="E155" t="n">
-        <v>385.82</v>
+        <v>388.46</v>
       </c>
       <c r="F155" t="n">
         <v>381.13</v>
@@ -14674,7 +14674,7 @@
         <v>381.66</v>
       </c>
       <c r="E157" t="n">
-        <v>382.12</v>
+        <v>381.99</v>
       </c>
       <c r="F157" t="n">
         <v>374.83</v>
@@ -14769,7 +14769,7 @@
         <v>412.94</v>
       </c>
       <c r="E158" t="n">
-        <v>413.12</v>
+        <v>416.01</v>
       </c>
       <c r="F158" t="n">
         <v>411.9</v>
@@ -14870,7 +14870,7 @@
         <v>398.85</v>
       </c>
       <c r="E159" t="n">
-        <v>407.38</v>
+        <v>405.38</v>
       </c>
       <c r="F159" t="n">
         <v>410.05</v>
@@ -14951,7 +14951,7 @@
         <v>398.72</v>
       </c>
       <c r="E160" t="n">
-        <v>402.05</v>
+        <v>404.18</v>
       </c>
       <c r="F160" t="n">
         <v>411.85</v>
@@ -15153,7 +15153,7 @@
         <v>413.83</v>
       </c>
       <c r="E162" t="n">
-        <v>422.82</v>
+        <v>421.53</v>
       </c>
       <c r="F162" t="n">
         <v>420.03</v>
@@ -15240,7 +15240,7 @@
         <v>417.65</v>
       </c>
       <c r="E163" t="n">
-        <v>424.04</v>
+        <v>422.11</v>
       </c>
       <c r="F163" t="n">
         <v>436.41</v>
@@ -15335,7 +15335,7 @@
         <v>405.19</v>
       </c>
       <c r="E164" t="n">
-        <v>410.15</v>
+        <v>411.44</v>
       </c>
       <c r="F164" t="n">
         <v>409.24</v>
@@ -15511,7 +15511,7 @@
         <v>383.28</v>
       </c>
       <c r="E166" t="n">
-        <v>387.29</v>
+        <v>388.58</v>
       </c>
       <c r="F166" t="n">
         <v>379.5</v>
@@ -15697,7 +15697,7 @@
         <v>401.02</v>
       </c>
       <c r="E168" t="n">
-        <v>406.42</v>
+        <v>405.13</v>
       </c>
       <c r="F168" t="n">
         <v>399.51</v>
@@ -15798,7 +15798,7 @@
         <v>374.15</v>
       </c>
       <c r="E169" t="n">
-        <v>384.04</v>
+        <v>383.31</v>
       </c>
       <c r="F169" t="n">
         <v>377.76</v>
@@ -15897,7 +15897,7 @@
         <v>372.22</v>
       </c>
       <c r="E170" t="n">
-        <v>383.51</v>
+        <v>383.53</v>
       </c>
       <c r="F170" t="n">
         <v>378.86</v>
@@ -16229,7 +16229,7 @@
         <v>407.03</v>
       </c>
       <c r="E174" t="n">
-        <v>410.46</v>
+        <v>412.44</v>
       </c>
       <c r="F174" t="n">
         <v>413.99</v>
@@ -16490,7 +16490,7 @@
         <v>402.45</v>
       </c>
       <c r="E177" t="n">
-        <v>404.39</v>
+        <v>407.41</v>
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
@@ -16585,7 +16585,7 @@
         <v>386.61</v>
       </c>
       <c r="E178" t="n">
-        <v>393.78</v>
+        <v>391.96</v>
       </c>
       <c r="F178" t="n">
         <v>396.45</v>
@@ -16690,7 +16690,7 @@
         <v>404.91</v>
       </c>
       <c r="E179" t="n">
-        <v>404.49</v>
+        <v>407.91</v>
       </c>
       <c r="F179" t="n">
         <v>402.87</v>
@@ -16777,7 +16777,7 @@
         <v>388.98</v>
       </c>
       <c r="E180" t="n">
-        <v>390</v>
+        <v>392.02</v>
       </c>
       <c r="F180" t="n">
         <v>387.95</v>
@@ -16927,7 +16927,7 @@
         <v>398.62</v>
       </c>
       <c r="E182" t="n">
-        <v>400.79</v>
+        <v>403.21</v>
       </c>
       <c r="F182" t="n">
         <v>392.76</v>
@@ -17111,7 +17111,7 @@
         <v>395.16</v>
       </c>
       <c r="E184" t="n">
-        <v>374.88</v>
+        <v>372.99</v>
       </c>
       <c r="F184" t="n">
         <v>370.92</v>
@@ -17198,7 +17198,7 @@
         <v>398.22</v>
       </c>
       <c r="E185" t="n">
-        <v>396.28</v>
+        <v>398.01</v>
       </c>
       <c r="F185" t="n">
         <v>387.13</v>
@@ -17303,7 +17303,7 @@
         <v>400.74</v>
       </c>
       <c r="E186" t="n">
-        <v>402.27</v>
+        <v>401.09</v>
       </c>
       <c r="F186" t="n">
         <v>391.82</v>
@@ -17404,7 +17404,7 @@
         <v>395.78</v>
       </c>
       <c r="E187" t="n">
-        <v>393.53</v>
+        <v>392.57</v>
       </c>
       <c r="F187" t="n">
         <v>380.47</v>
@@ -17499,7 +17499,7 @@
         <v>359.82</v>
       </c>
       <c r="E188" t="n">
-        <v>362.01</v>
+        <v>363.61</v>
       </c>
       <c r="F188" t="n">
         <v>348.78</v>
@@ -17568,7 +17568,7 @@
         <v>393.28</v>
       </c>
       <c r="E189" t="n">
-        <v>389.18</v>
+        <v>387.76</v>
       </c>
       <c r="F189" t="n">
         <v>383.15</v>
@@ -17789,7 +17789,7 @@
         <v>403.07</v>
       </c>
       <c r="E192" t="n">
-        <v>400.42</v>
+        <v>403.44</v>
       </c>
       <c r="F192" t="n">
         <v>395.2</v>
@@ -17894,7 +17894,7 @@
         <v>401.5</v>
       </c>
       <c r="E193" t="n">
-        <v>388.16</v>
+        <v>391.89</v>
       </c>
       <c r="F193" t="n">
         <v>389.24</v>
@@ -17977,7 +17977,7 @@
         <v>407.79</v>
       </c>
       <c r="E194" t="n">
-        <v>399.81</v>
+        <v>403.39</v>
       </c>
       <c r="F194" t="n">
         <v>394.98</v>
@@ -18082,7 +18082,7 @@
         <v>400.53</v>
       </c>
       <c r="E195" t="n">
-        <v>399.93</v>
+        <v>402.13</v>
       </c>
       <c r="F195" t="n">
         <v>394.7</v>
@@ -18161,7 +18161,7 @@
         <v>397.74</v>
       </c>
       <c r="E196" t="n">
-        <v>397.98</v>
+        <v>398.11</v>
       </c>
       <c r="F196" t="n">
         <v>378.6</v>
@@ -18248,7 +18248,7 @@
         <v>400.71</v>
       </c>
       <c r="E197" t="n">
-        <v>400.2</v>
+        <v>401.49</v>
       </c>
       <c r="F197" t="n">
         <v>388.78</v>
@@ -18327,7 +18327,7 @@
         <v>402.29</v>
       </c>
       <c r="E198" t="n">
-        <v>405.97</v>
+        <v>406.37</v>
       </c>
       <c r="F198" t="n">
         <v>400.59</v>
@@ -18432,7 +18432,7 @@
         <v>404.2</v>
       </c>
       <c r="E199" t="n">
-        <v>397.26</v>
+        <v>397.88</v>
       </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
@@ -18606,7 +18606,7 @@
         <v>397.65</v>
       </c>
       <c r="E201" t="n">
-        <v>394.32</v>
+        <v>397.48</v>
       </c>
       <c r="F201" t="n">
         <v>391.52</v>
@@ -18691,7 +18691,7 @@
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="n">
-        <v>389.25</v>
+        <v>387.94</v>
       </c>
       <c r="F202" t="n">
         <v>378.83</v>
@@ -18756,7 +18756,7 @@
         <v>408.84</v>
       </c>
       <c r="E203" t="n">
-        <v>410.74</v>
+        <v>409.72</v>
       </c>
       <c r="F203" t="n">
         <v>398.36</v>
@@ -18920,7 +18920,7 @@
         <v>402.9</v>
       </c>
       <c r="E205" t="n">
-        <v>395.91</v>
+        <v>398.22</v>
       </c>
       <c r="F205" t="n">
         <v>385.42</v>
@@ -19025,7 +19025,7 @@
         <v>407.27</v>
       </c>
       <c r="E206" t="n">
-        <v>400.81</v>
+        <v>403.68</v>
       </c>
       <c r="F206" t="n">
         <v>401.55</v>
@@ -19104,7 +19104,7 @@
         <v>379.8</v>
       </c>
       <c r="E207" t="n">
-        <v>385.99</v>
+        <v>384.43</v>
       </c>
       <c r="F207" t="n">
         <v>378.21</v>
@@ -19341,7 +19341,7 @@
         <v>351.54</v>
       </c>
       <c r="E210" t="n">
-        <v>360.54</v>
+        <v>362.83</v>
       </c>
       <c r="F210" t="n">
         <v>359.62</v>
@@ -19430,7 +19430,7 @@
         <v>376.59</v>
       </c>
       <c r="E211" t="n">
-        <v>378.3</v>
+        <v>378.19</v>
       </c>
       <c r="F211" t="n">
         <v>371.87</v>
@@ -19628,7 +19628,7 @@
         <v>358.45</v>
       </c>
       <c r="E213" t="n">
-        <v>365.28</v>
+        <v>364.12</v>
       </c>
       <c r="F213" t="n">
         <v>365.33</v>
@@ -19818,7 +19818,7 @@
         <v>372.66</v>
       </c>
       <c r="E215" t="n">
-        <v>369.66</v>
+        <v>368.64</v>
       </c>
       <c r="F215" t="n">
         <v>371.84</v>
@@ -19901,7 +19901,7 @@
         <v>376.23</v>
       </c>
       <c r="E216" t="n">
-        <v>380.1</v>
+        <v>380.68</v>
       </c>
       <c r="F216" t="n">
         <v>389.92</v>
@@ -20004,7 +20004,7 @@
         <v>380.56</v>
       </c>
       <c r="E217" t="n">
-        <v>369.99</v>
+        <v>373.52</v>
       </c>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
@@ -20156,7 +20156,7 @@
         <v>363.49</v>
       </c>
       <c r="E219" t="n">
-        <v>361.76</v>
+        <v>363.29</v>
       </c>
       <c r="F219" t="n">
         <v>360.31</v>
@@ -20255,7 +20255,7 @@
         <v>360.21</v>
       </c>
       <c r="E220" t="n">
-        <v>354.79</v>
+        <v>355.06</v>
       </c>
       <c r="F220" t="n">
         <v>343.65</v>
@@ -20494,7 +20494,7 @@
         <v>380.63</v>
       </c>
       <c r="E223" t="n">
-        <v>373.47</v>
+        <v>375.96</v>
       </c>
       <c r="F223" t="n">
         <v>373.48</v>
@@ -20654,7 +20654,7 @@
         <v>364.18</v>
       </c>
       <c r="E225" t="n">
-        <v>360.86</v>
+        <v>359.79</v>
       </c>
       <c r="F225" t="n">
         <v>346.33</v>
@@ -20808,7 +20808,7 @@
         <v>379.88</v>
       </c>
       <c r="E227" t="n">
-        <v>377.95</v>
+        <v>380.46</v>
       </c>
       <c r="F227" t="n">
         <v>375.23</v>
@@ -20887,7 +20887,7 @@
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="n">
-        <v>406.37</v>
+        <v>404.28</v>
       </c>
       <c r="F228" t="n">
         <v>397.16</v>
@@ -20968,7 +20968,7 @@
         <v>412.34</v>
       </c>
       <c r="E229" t="n">
-        <v>400.93</v>
+        <v>399.2</v>
       </c>
       <c r="F229" t="n">
         <v>397.19</v>
@@ -21071,7 +21071,7 @@
         <v>395.8</v>
       </c>
       <c r="E230" t="n">
-        <v>380.67</v>
+        <v>383.6</v>
       </c>
       <c r="F230" t="n">
         <v>381.54</v>
@@ -21235,7 +21235,7 @@
         <v>380.11</v>
       </c>
       <c r="E232" t="n">
-        <v>381.79</v>
+        <v>381.3</v>
       </c>
       <c r="F232" t="n">
         <v>376.79</v>
@@ -21338,7 +21338,7 @@
         <v>382.56</v>
       </c>
       <c r="E233" t="n">
-        <v>390.42</v>
+        <v>391.18</v>
       </c>
       <c r="F233" t="n">
         <v>388.44</v>
@@ -21409,7 +21409,7 @@
         <v>382.95</v>
       </c>
       <c r="E234" t="n">
-        <v>400.74</v>
+        <v>400.38</v>
       </c>
       <c r="F234" t="n">
         <v>401.12</v>
@@ -21659,7 +21659,7 @@
         <v>389.38</v>
       </c>
       <c r="E238" t="n">
-        <v>394.53</v>
+        <v>394.71</v>
       </c>
       <c r="F238" t="n">
         <v>391.55</v>
@@ -21742,7 +21742,7 @@
         <v>399.87</v>
       </c>
       <c r="E239" t="n">
-        <v>400.27</v>
+        <v>402.45</v>
       </c>
       <c r="F239" t="n">
         <v>401.9</v>
@@ -21835,7 +21835,7 @@
         <v>382.48</v>
       </c>
       <c r="E240" t="n">
-        <v>381.75</v>
+        <v>384.26</v>
       </c>
       <c r="F240" t="n">
         <v>379.34</v>
@@ -21991,7 +21991,7 @@
         <v>400.92</v>
       </c>
       <c r="E242" t="n">
-        <v>394.34</v>
+        <v>392.43</v>
       </c>
       <c r="F242" t="n">
         <v>391.78</v>
@@ -22094,7 +22094,7 @@
         <v>409.99</v>
       </c>
       <c r="E243" t="n">
-        <v>404.04</v>
+        <v>402.46</v>
       </c>
       <c r="F243" t="n">
         <v>391.65</v>
@@ -22412,7 +22412,7 @@
         <v>411.43</v>
       </c>
       <c r="E247" t="n">
-        <v>412.06</v>
+        <v>411.59</v>
       </c>
       <c r="F247" t="n">
         <v>415.16</v>
@@ -22483,7 +22483,7 @@
         <v>413.16</v>
       </c>
       <c r="E248" t="n">
-        <v>412.23</v>
+        <v>411.85</v>
       </c>
       <c r="F248" t="n">
         <v>403.28</v>
@@ -22759,7 +22759,7 @@
         <v>406.27</v>
       </c>
       <c r="E252" t="n">
-        <v>400.56</v>
+        <v>403.43</v>
       </c>
       <c r="F252" t="n">
         <v>396.93</v>
@@ -22864,7 +22864,7 @@
         <v>410.34</v>
       </c>
       <c r="E253" t="n">
-        <v>405.3</v>
+        <v>403.9</v>
       </c>
       <c r="F253" t="n">
         <v>392.53</v>
@@ -23024,7 +23024,7 @@
         <v>398.02</v>
       </c>
       <c r="E255" t="n">
-        <v>392.01</v>
+        <v>395.79</v>
       </c>
       <c r="F255" t="n">
         <v>391.91</v>
@@ -23176,7 +23176,7 @@
         <v>421.02</v>
       </c>
       <c r="E257" t="n">
-        <v>416.72</v>
+        <v>415.9</v>
       </c>
       <c r="F257" t="n">
         <v>413.2</v>
@@ -23330,7 +23330,7 @@
         <v>400.01</v>
       </c>
       <c r="E259" t="n">
-        <v>391.56</v>
+        <v>394.65</v>
       </c>
       <c r="F259" t="n">
         <v>394.74</v>
@@ -23500,7 +23500,7 @@
         <v>405.49</v>
       </c>
       <c r="E261" t="n">
-        <v>402.3</v>
+        <v>404.92</v>
       </c>
       <c r="F261" t="n">
         <v>404.05</v>
@@ -23620,7 +23620,7 @@
         <v>396.49</v>
       </c>
       <c r="E263" t="n">
-        <v>395.02</v>
+        <v>393.75</v>
       </c>
       <c r="F263" t="n">
         <v>393.44</v>
@@ -23721,7 +23721,7 @@
         <v>390.45</v>
       </c>
       <c r="E264" t="n">
-        <v>390.16</v>
+        <v>390.58</v>
       </c>
       <c r="F264" t="n">
         <v>393.07</v>
@@ -23784,7 +23784,7 @@
         <v>376.7</v>
       </c>
       <c r="E265" t="n">
-        <v>383.1</v>
+        <v>383.3</v>
       </c>
       <c r="F265" t="n">
         <v>376.95</v>
@@ -23889,7 +23889,7 @@
         <v>372.96</v>
       </c>
       <c r="E266" t="n">
-        <v>372.02</v>
+        <v>370.86</v>
       </c>
       <c r="F266" t="n">
         <v>357.88</v>
@@ -23978,7 +23978,7 @@
         <v>398.65</v>
       </c>
       <c r="E267" t="n">
-        <v>391.64</v>
+        <v>391.86</v>
       </c>
       <c r="F267" t="n">
         <v>378.39</v>
@@ -24083,7 +24083,7 @@
         <v>387.6</v>
       </c>
       <c r="E268" t="n">
-        <v>379.43</v>
+        <v>381.36</v>
       </c>
       <c r="F268" t="n">
         <v>374.24</v>
@@ -24379,7 +24379,7 @@
         <v>406.53</v>
       </c>
       <c r="E272" t="n">
-        <v>394.16</v>
+        <v>397.56</v>
       </c>
       <c r="F272" t="n">
         <v>394.89</v>
@@ -24484,7 +24484,7 @@
         <v>397.32</v>
       </c>
       <c r="E273" t="n">
-        <v>395.08</v>
+        <v>394.12</v>
       </c>
       <c r="F273" t="n">
         <v>377.44</v>
@@ -24587,7 +24587,7 @@
         <v>391.63</v>
       </c>
       <c r="E274" t="n">
-        <v>381.04</v>
+        <v>382.88</v>
       </c>
       <c r="F274" t="n">
         <v>371.02</v>
@@ -24692,7 +24692,7 @@
         <v>401.82</v>
       </c>
       <c r="E275" t="n">
-        <v>395.43</v>
+        <v>396.21</v>
       </c>
       <c r="F275" t="n">
         <v>388.85</v>
@@ -24797,7 +24797,7 @@
         <v>390.51</v>
       </c>
       <c r="E276" t="n">
-        <v>385.25</v>
+        <v>388.21</v>
       </c>
       <c r="F276" t="n">
         <v>383.72</v>
@@ -24896,7 +24896,7 @@
         <v>389.48</v>
       </c>
       <c r="E277" t="n">
-        <v>392.2</v>
+        <v>390.98</v>
       </c>
       <c r="F277" t="n">
         <v>386.24</v>
@@ -24999,7 +24999,7 @@
         <v>378.8</v>
       </c>
       <c r="E278" t="n">
-        <v>371.86</v>
+        <v>371.02</v>
       </c>
       <c r="F278" t="n">
         <v>364.03</v>
@@ -25090,7 +25090,7 @@
         <v>382.27</v>
       </c>
       <c r="E279" t="n">
-        <v>379.47</v>
+        <v>378.29</v>
       </c>
       <c r="F279" t="n">
         <v>380.04</v>
@@ -25265,7 +25265,7 @@
         <v>389.55</v>
       </c>
       <c r="E282" t="n">
-        <v>379.32</v>
+        <v>382.48</v>
       </c>
       <c r="F282" t="n">
         <v>393.78</v>
@@ -25368,7 +25368,7 @@
         <v>361.92</v>
       </c>
       <c r="E283" t="n">
-        <v>355.04</v>
+        <v>353.73</v>
       </c>
       <c r="F283" t="n">
         <v>347.38</v>
@@ -25455,7 +25455,7 @@
         <v>369.49</v>
       </c>
       <c r="E284" t="n">
-        <v>366.49</v>
+        <v>367.87</v>
       </c>
       <c r="F284" t="n">
         <v>355.04</v>
@@ -25635,7 +25635,7 @@
         <v>389.63</v>
       </c>
       <c r="E286" t="n">
-        <v>390.17</v>
+        <v>388.13</v>
       </c>
       <c r="F286" t="n">
         <v>386.65</v>
@@ -25720,7 +25720,7 @@
         <v>387.81</v>
       </c>
       <c r="E287" t="n">
-        <v>385.45</v>
+        <v>388.85</v>
       </c>
       <c r="F287" t="n">
         <v>387.86</v>
@@ -25825,7 +25825,7 @@
         <v>373.57</v>
       </c>
       <c r="E288" t="n">
-        <v>385.53</v>
+        <v>384.66</v>
       </c>
       <c r="F288" t="n">
         <v>389.29</v>
@@ -25930,7 +25930,7 @@
         <v>379.64</v>
       </c>
       <c r="E289" t="n">
-        <v>392.19</v>
+        <v>391.92</v>
       </c>
       <c r="F289" t="n">
         <v>388.64</v>
@@ -26035,7 +26035,7 @@
         <v>376.85</v>
       </c>
       <c r="E290" t="n">
-        <v>378.18</v>
+        <v>378.51</v>
       </c>
       <c r="F290" t="n">
         <v>381.65</v>
@@ -26140,7 +26140,7 @@
         <v>390.41</v>
       </c>
       <c r="E291" t="n">
-        <v>390.09</v>
+        <v>393.02</v>
       </c>
       <c r="F291" t="n">
         <v>391.07</v>
@@ -26245,7 +26245,7 @@
         <v>390.7</v>
       </c>
       <c r="E292" t="n">
-        <v>387.38</v>
+        <v>391.16</v>
       </c>
       <c r="F292" t="n">
         <v>393.48</v>
@@ -26346,7 +26346,7 @@
         <v>359.28</v>
       </c>
       <c r="E293" t="n">
-        <v>355.7</v>
+        <v>356.52</v>
       </c>
       <c r="F293" t="n">
         <v>359.07</v>
@@ -26421,7 +26421,7 @@
         <v>372.65</v>
       </c>
       <c r="E294" t="n">
-        <v>386.7</v>
+        <v>389.74</v>
       </c>
       <c r="F294" t="n">
         <v>398.37</v>
@@ -26524,7 +26524,7 @@
         <v>375.45</v>
       </c>
       <c r="E295" t="n">
-        <v>378.99</v>
+        <v>382.1</v>
       </c>
       <c r="F295" t="n">
         <v>383.82</v>
@@ -26605,7 +26605,7 @@
         <v>376.89</v>
       </c>
       <c r="E296" t="n">
-        <v>377.93</v>
+        <v>379.55</v>
       </c>
       <c r="F296" t="n">
         <v>366.91</v>
@@ -26710,7 +26710,7 @@
         <v>390.82</v>
       </c>
       <c r="E297" t="n">
-        <v>390.24</v>
+        <v>393.95</v>
       </c>
       <c r="F297" t="n">
         <v>395.68</v>
@@ -30303,7 +30303,7 @@
         <v>0.052</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.392656486338855</v>
+        <v>-1.378966335417109</v>
       </c>
       <c r="J5" t="n">
         <v>296</v>
@@ -30312,19 +30312,19 @@
         <v>223</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3234750016034929</v>
+        <v>0.3211323650283494</v>
       </c>
       <c r="M5" t="n">
-        <v>11.96730261209243</v>
+        <v>11.89140704601068</v>
       </c>
       <c r="N5" t="n">
-        <v>228.4837229234194</v>
+        <v>226.4292265672858</v>
       </c>
       <c r="O5" t="n">
-        <v>15.11567805040248</v>
+        <v>15.04756546977901</v>
       </c>
       <c r="P5" t="n">
-        <v>419.5164531541616</v>
+        <v>420.1432611026215</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32690,7 +32690,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-37.81995814366775,174.8262721831839</t>
+          <t>-37.81995144092427,174.82626119990957</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -32857,7 +32857,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-37.819829692542626,174.82606170077733</t>
+          <t>-37.81982112179472,174.82604765663908</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -33024,7 +33024,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-37.819734315401924,174.82590541490768</t>
+          <t>-37.81972942566933,174.82589740256682</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -33191,7 +33191,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-37.81977683956895,174.8259750953095</t>
+          <t>-37.81978442139259,174.82598751895534</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -33342,7 +33342,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-37.81980134313893,174.8260152471016</t>
+          <t>-37.81980991389093,174.8260292912324</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -33453,7 +33453,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-37.81975865417469,174.825945296575</t>
+          <t>-37.81976024745729,174.82594790733964</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -33937,7 +33937,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-37.81993171727119,174.82622888028578</t>
+          <t>-37.81993869472056,174.82624031368834</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -34092,7 +34092,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-37.8200383567434,174.82640362252172</t>
+          <t>-37.82003846662421,174.82640380257578</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -34374,7 +34374,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-37.81994616663355,174.8262525573344</t>
+          <t>-37.81992770661077,174.82622230833096</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -34541,7 +34541,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-37.82005363017446,174.82642865004405</t>
+          <t>-37.82005104797608,174.82642441877158</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -34700,7 +34700,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-37.82009214336955,174.82649175905766</t>
+          <t>-37.82010192274863,174.826507783896</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -34807,7 +34807,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-37.81981672653868,174.82604045451816</t>
+          <t>-37.81982441823643,174.82605305823034</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -34922,7 +34922,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-37.819915125221485,174.82620169220326</t>
+          <t>-37.81992353112829,174.82621546629656</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -35065,7 +35065,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-37.81969371412167,174.82583888550244</t>
+          <t>-37.81969162636868,174.82583546450655</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -35228,7 +35228,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-37.81984441664389,174.82608582789413</t>
+          <t>-37.81984991071018,174.8260948305521</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -35391,7 +35391,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-37.8199088619957,174.82619142915536</t>
+          <t>-37.819908257649296,174.82619043886137</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -35534,7 +35534,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-37.81968684651282,174.82582763222723</t>
+          <t>-37.81969503270242,174.8258410461315</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -35661,7 +35661,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-37.81988798456959,174.82615721900817</t>
+          <t>-37.81988150157725,174.82614659586108</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -35828,7 +35828,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-37.81993660697993,174.82623689267004</t>
+          <t>-37.81991963034822,174.82620907439664</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -35995,7 +35995,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-37.81980777120309,174.8260257801994</t>
+          <t>-37.819815353021085,174.82603820385555</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -36098,7 +36098,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-37.81993226667669,174.82622978055363</t>
+          <t>-37.81993896942327,174.82624076382234</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -36261,7 +36261,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-37.8198775458526,174.82614011394173</t>
+          <t>-37.81987573281201,174.82613714306228</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -36360,7 +36360,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-37.81999198701174,174.8263276397468</t>
+          <t>-37.819976603677,174.826302432212</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -36503,7 +36503,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-37.82007121109535,174.82645745871554</t>
+          <t>-37.820082089286416,174.82647528408776</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -36578,7 +36578,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-37.819932816082186,174.82623068082148</t>
+          <t>-37.81991155408409,174.82619584046523</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -36729,7 +36729,7 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-37.81995292431841,174.82626363063403</t>
+          <t>-37.81996209938472,174.82627866511726</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -37007,7 +37007,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-37.819985009571326,174.82631620632796</t>
+          <t>-37.81997314242589,174.8262967605181</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -37142,7 +37142,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-37.81997742778435,174.82630378261538</t>
+          <t>-37.81997561474813,174.82630081172798</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -37281,7 +37281,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-37.81995325396155,174.82626417079504</t>
+          <t>-37.81993627733665,174.82623635250926</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -37535,7 +37535,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-37.81999198701174,174.8263276397468</t>
+          <t>-37.81997369183083,174.82629766078693</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -37642,7 +37642,7 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-37.82004088400217,174.8264077637657</t>
+          <t>-37.820025885268535,174.82638318638698</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -37785,7 +37785,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-37.81991221337102,174.82619692078603</t>
+          <t>-37.81991430111289,174.82620034180212</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -37952,7 +37952,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-37.819951990329514,174.82626210017787</t>
+          <t>-37.8199458919309,174.82625210720033</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -38119,7 +38119,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-37.819915070280906,174.82620160217652</t>
+          <t>-37.81992397065278,174.82621618651066</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -38270,7 +38270,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-37.81996374759999,174.82628136592302</t>
+          <t>-37.819972318318435,174.82629541011485</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -38437,7 +38437,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-37.820031873774546,174.8263929993319</t>
+          <t>-37.82001121617215,174.82635914917995</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -38691,7 +38691,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-37.819942980082594,174.8262473357792</t>
+          <t>-37.81995138598374,174.82626110988272</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -38858,7 +38858,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-37.819922322435914,174.82621348570777</t>
+          <t>-37.81991485051863,174.82620124206952</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -39025,7 +39025,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-37.819921663149145,174.82621240538666</t>
+          <t>-37.81992127856519,174.82621177519934</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -39231,7 +39231,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-37.81989715965026,174.82617225346524</t>
+          <t>-37.81990792800581,174.826189898701</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -39326,7 +39326,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-37.81993188209284,174.82622915036615</t>
+          <t>-37.819920784100105,174.82621096495853</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -39429,7 +39429,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-37.81991298253909,174.82619818116038</t>
+          <t>-37.819893423689514,174.82616613164996</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -39687,7 +39687,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-37.81973689762003,174.82590964614428</t>
+          <t>-37.81973871066669,174.8259126170127</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -39834,7 +39834,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-37.81983320874638,174.82606746247603</t>
+          <t>-37.81982392377019,174.8260522479916</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -40001,7 +40001,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-37.81983628542444,174.8260725039628</t>
+          <t>-37.819833868034564,174.82606854279456</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -40291,7 +40291,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-37.81963921274656,174.8257495795674</t>
+          <t>-37.81964569577679,174.82576020264557</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -40426,7 +40426,7 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-37.81986177789089,174.82611427629783</t>
+          <t>-37.81984710873647,174.8260902391964</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -40716,7 +40716,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-37.81968437417335,174.82582358104867</t>
+          <t>-37.81968997814259,174.82583276372048</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -40966,7 +40966,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-37.81984040597502,174.82607925595465</t>
+          <t>-37.81984579016053,174.8260880785585</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -41077,7 +41077,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-37.819880897230455,174.8261456055678</t>
+          <t>-37.81987518340576,174.8261362427958</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -41224,7 +41224,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-37.81992473982063,174.82621744688538</t>
+          <t>-37.819909246579776,174.82619205934245</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -41371,7 +41371,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-37.8198816663991,174.82614686594107</t>
+          <t>-37.81986716207361,174.82612309890672</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -41506,7 +41506,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-37.81987847984316,174.82614164439485</t>
+          <t>-37.81988496283599,174.82615226754106</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -41641,7 +41641,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-37.81989457744213,174.82616802221048</t>
+          <t>-37.81987468894012,174.82613543255596</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -41780,7 +41780,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-37.819861503187674,174.82611382616477</t>
+          <t>-37.819847438380435,174.82609077935587</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -42117,7 +42117,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-37.819920509397285,174.82621051482474</t>
+          <t>-37.81991902600197,174.82620808410238</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -42268,7 +42268,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-37.819858316630196,174.82610860462134</t>
+          <t>-37.819850240354135,174.82609537071164</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -42419,7 +42419,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>-37.81995402312885,174.82626543117075</t>
+          <t>-37.8199368267421,174.82623725277722</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -42689,7 +42689,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>-37.81985727275787,174.82610689411587</t>
+          <t>-37.81986518421066,174.8261198579482</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -42856,7 +42856,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-37.81995677015483,174.8262699325128</t>
+          <t>-37.8199566602738,174.82626975245907</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -43158,7 +43158,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>-37.81990095055126,174.82617846530786</t>
+          <t>-37.819881062052296,174.8261458756478</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -43313,7 +43313,7 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>-37.819827275152385,174.8260577396098</t>
+          <t>-37.819818704403964,174.82604369547246</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -43464,7 +43464,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>-37.81997198867544,174.82629486995359</t>
+          <t>-37.81995622074966,174.82626903224437</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -43615,7 +43615,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>-37.819848756956326,174.82609293999383</t>
+          <t>-37.81983485696681,174.82607016327245</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -43956,7 +43956,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>-37.81981892416677,174.82604405557854</t>
+          <t>-37.81982233049005,174.8260496372225</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -44099,7 +44099,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>-37.81995891283497,174.82627344355978</t>
+          <t>-37.81994133186647,174.82624463497493</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -44246,7 +44246,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>-37.81986304152568,174.82611634691</t>
+          <t>-37.81985996484961,174.8261113054196</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -44405,7 +44405,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>-37.819977043200915,174.82630315242716</t>
+          <t>-37.81995704485741,174.826270382647</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -44572,7 +44572,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>-37.81989183041203,174.82616352087595</t>
+          <t>-37.81987413953386,174.8261345322895</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -44739,7 +44739,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>-37.81992083904066,174.82621105498527</t>
+          <t>-37.81992072915954,174.82621087493175</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -44929,7 +44929,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>-37.8200333022254,174.82639534003457</t>
+          <t>-37.8200178090251,174.8263699524179</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -45080,7 +45080,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>-37.81988825927263,174.82615766914157</t>
+          <t>-37.81989814858099,174.82617387394586</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -45207,7 +45207,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>-37.81992248725761,174.82621375578807</t>
+          <t>-37.81992347618772,174.82621537626977</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -45501,7 +45501,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>-37.819957649203104,174.8262713729423</t>
+          <t>-37.819942650439366,174.82624679561832</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -45779,7 +45779,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>-37.820002150997645,174.82634429473086</t>
+          <t>-37.81999154748797,174.8263269195314</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -45926,7 +45926,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>-37.82002291848541,174.8263783249286</t>
+          <t>-37.82000473319907,174.82634852599782</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -46069,7 +46069,7 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>-37.81989523672933,174.8261691025308</t>
+          <t>-37.81987974347746,174.82614371500796</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -46212,7 +46212,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>-37.820007645043034,174.82635329742683</t>
+          <t>-37.819990668440404,174.82632547910057</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -46355,7 +46355,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>-37.82005901433228,174.82643747269825</t>
+          <t>-37.82004451006882,174.82641370555106</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -46637,7 +46637,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>-37.8199238058311,174.82621591643036</t>
+          <t>-37.819918421655736,174.8262070938081</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -46804,7 +46804,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>-37.819995722963604,174.82633376157827</t>
+          <t>-37.81997863647512,174.82630576320707</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -46971,7 +46971,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>-37.81991990505106,174.8262095245304</t>
+          <t>-37.819921113743504,174.82621150511906</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -47118,7 +47118,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>-37.81993666192048,174.82623698269683</t>
+          <t>-37.819930453638484,174.8262268096698</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -47273,7 +47273,7 @@
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>-37.82004181798906,174.82640929422553</t>
+          <t>-37.82002984097903,174.82638966833204</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -47559,7 +47559,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>-37.819978911177564,174.82630621334158</t>
+          <t>-37.819989294928554,174.82632322842747</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -47702,7 +47702,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>-37.82001357861125,174.82636302033998</t>
+          <t>-37.81999550320174,174.82633340147052</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -47853,7 +47853,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>-37.81996424206458,174.82628217616477</t>
+          <t>-37.81996704403038,174.82628676753487</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -48095,7 +48095,7 @@
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>-37.82005104797608,174.82642441877158</t>
+          <t>-37.82005286100901,174.82642738966499</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -48258,7 +48258,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>-37.820026105030244,174.826383546495</t>
+          <t>-37.82002550068555,174.8263825561979</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -48401,7 +48401,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>-37.8200383567434,174.82640362252172</t>
+          <t>-37.82003885120709,174.8264044327651</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -48675,7 +48675,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>-37.82011389973784,174.82652740982735</t>
+          <t>-37.8201258767236,174.82654703576497</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -48806,7 +48806,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>-37.81998665778569,174.82631890713537</t>
+          <t>-37.81997165903247,174.8262943297923</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -48949,7 +48949,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>-37.82020301282419,174.82667343415622</t>
+          <t>-37.82020740803928,174.8266806363516</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
@@ -49151,7 +49151,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>-37.82002495128128,174.8263816559278</t>
+          <t>-37.82002665443449,174.82638444676513</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -49294,7 +49294,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>-37.82002088568945,174.82637499392956</t>
+          <t>-37.820003414628154,174.82634636535084</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -49461,7 +49461,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>-37.82004527923444,174.82641496592987</t>
+          <t>-37.8200470922676,174.82641793682282</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -49739,7 +49739,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>-37.820056102491925,174.82643270126266</t>
+          <t>-37.82004269703554,174.82641073465834</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -49882,7 +49882,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>-37.82011087802071,174.82652245833032</t>
+          <t>-37.820094286042696,174.8264952701174</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -50029,7 +50029,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>-37.82002918169397,174.82638858800783</t>
+          <t>-37.820030994727865,174.8263915588995</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -50192,7 +50192,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>-37.820022808604556,174.82637814487458</t>
+          <t>-37.82002192955766,174.82637670444257</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -50335,7 +50335,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>-37.820056542014996,174.82643342147932</t>
+          <t>-37.82004753179079,174.82641865703928</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -50498,7 +50498,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>-37.819849745888206,174.82609456047234</t>
+          <t>-37.8198584265115,174.82610878467457</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -50637,7 +50637,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>-37.82000000831975,174.82634078367983</t>
+          <t>-37.8199826471306,174.82631233517085</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -50800,7 +50800,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>-37.82000253558085,174.82634492491957</t>
+          <t>-37.82001000748233,174.82635716858653</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -50879,7 +50879,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>-37.82001006242278,174.8263572586135</t>
+          <t>-37.81999528343987,174.82633304136277</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -51042,7 +51042,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>-37.82015494012877,174.8265946601994</t>
+          <t>-37.820158456304945,174.82660042194823</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -51205,7 +51205,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>-37.82005093809529,174.8264242387174</t>
+          <t>-37.82004753179079,174.82641865703928</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -51372,7 +51372,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>-37.82004088400217,174.8264077637657</t>
+          <t>-37.82002659949407,174.82638435673812</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -51523,7 +51523,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>-37.81999857986774,174.8263384429792</t>
+          <t>-37.81998099891607,174.82630963436375</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -51666,7 +51666,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>-37.82003478561663,174.82639777076437</t>
+          <t>-37.82002451175786,174.82638093571177</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -51797,7 +51797,7 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>-37.82010780136304,174.8265174168065</t>
+          <t>-37.820118075201144,174.82653425189662</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -51991,7 +51991,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>-37.819995008737536,174.8263325912281</t>
+          <t>-37.82000039290296,174.82634141386845</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -52090,7 +52090,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>-37.81998885540477,174.82632250821212</t>
+          <t>-37.81998665778569,174.82631890713537</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -52225,7 +52225,7 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>-37.82006939806322,174.82645448782066</t>
+          <t>-37.820070606751315,174.8264564684172</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -52328,7 +52328,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>-37.820077803938766,174.8264682619708</t>
+          <t>-37.820064618250875,174.82644665546212</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -52471,7 +52471,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>-37.820029676157766,174.826389398251</t>
+          <t>-37.820014292837,174.82636419069075</t>
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
@@ -52622,7 +52622,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>-37.81984496605055,174.82608672815988</t>
+          <t>-37.819853976318775,174.82610149251985</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -52761,7 +52761,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>-37.820086319693274,174.8264822161784</t>
+          <t>-37.8200871987388,174.8264836566129</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -52884,7 +52884,7 @@
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>-37.82004566381724,174.82641559611926</t>
+          <t>-37.82005714635923,174.82643441177726</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -53023,7 +53023,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>-37.81996171480113,174.82627803492926</t>
+          <t>-37.81994611169302,174.82625246730757</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -53166,7 +53166,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>-37.81992825601632,174.82622320859872</t>
+          <t>-37.819929574589636,174.82622536924134</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -53333,7 +53333,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>-37.820065881879486,174.82644872608554</t>
+          <t>-37.82006610164099,174.82644908619397</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -53480,7 +53480,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>-37.81991034539137,174.8261938598771</t>
+          <t>-37.81989457744213,174.82616802221048</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -53563,7 +53563,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>-37.81999000915473,174.82632439877747</t>
+          <t>-37.81997204361594,174.82629495998046</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -53718,7 +53718,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>-37.81986859053014,174.82612543959908</t>
+          <t>-37.8198644150417,174.8261185975755</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -53861,7 +53861,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>-37.820050113989396,174.82642288831138</t>
+          <t>-37.82003560972283,174.82639912116989</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -54135,7 +54135,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>-37.82007044193022,174.82645619833585</t>
+          <t>-37.820071156154974,174.8264573686884</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -54282,7 +54282,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>-37.81990012644238,174.82617711490724</t>
+          <t>-37.81988424860802,174.82615109719438</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -54441,7 +54441,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>-37.81993166233063,174.82622879025902</t>
+          <t>-37.819942650439366,174.82624679561832</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -54560,7 +54560,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>-37.819960945633966,174.8262767745533</t>
+          <t>-37.81994924330321,174.82625759883643</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -54878,7 +54878,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>-37.81984683403315,174.82608978906347</t>
+          <t>-37.81985392137812,174.82610140249326</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -55009,7 +55009,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>-37.819840131271675,174.82607880582185</t>
+          <t>-37.81985073482006,174.8260961809509</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -55156,7 +55156,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>-37.81991644379521,174.82620385284514</t>
+          <t>-37.81990935646094,174.8261922393959</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -55422,7 +55422,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>-37.82004203775068,174.82640965433373</t>
+          <t>-37.82003495043786,174.82639804084548</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -55708,7 +55708,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>-37.81993693662319,174.82623743283082</t>
+          <t>-37.81994402395276,174.82624904628858</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -55867,7 +55867,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>-37.82005989337838,174.8264389131317</t>
+          <t>-37.820063904026014,174.8264454851098</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -56022,7 +56022,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>-37.820062805218484,174.82644368456778</t>
+          <t>-37.82006269533773,174.82644350451358</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -56514,7 +56514,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>-37.81991474063747,174.82620106201605</t>
+          <t>-37.81990386240252,174.82618323672364</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -56907,7 +56907,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>-37.81994808955213,174.82625570827312</t>
+          <t>-37.819931497508975,174.82622852017866</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
@@ -57054,7 +57054,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>-37.82000638141266,174.82635122680668</t>
+          <t>-37.82001638057371,174.82636761171617</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -57221,7 +57221,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>-37.81994754014683,174.8262548080049</t>
+          <t>-37.819928750481324,174.8262240188397</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -57352,7 +57352,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>-37.820027148898305,174.82638525700824</t>
+          <t>-37.82001605093109,174.82636707155424</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -57566,7 +57566,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>-37.81996786813792,174.8262881179379</t>
+          <t>-37.81995457253407,174.82626633143911</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -57848,7 +57848,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>-37.82011021873693,174.82652137800372</t>
+          <t>-37.82012060245506,174.82653839314946</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -57979,7 +57979,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>-37.819992646297386,174.82632872006997</t>
+          <t>-37.81998314159496,174.82631314541302</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -58146,7 +58146,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>-37.819959736942685,174.82627479396254</t>
+          <t>-37.819966219922804,174.82628541713186</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -58305,7 +58305,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>-37.820007754923935,174.8263534774808</t>
+          <t>-37.82001302920682,174.8263621200702</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -58452,7 +58452,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>-37.820180926861326,174.82663724313718</t>
+          <t>-37.82017213642507,174.82662283875746</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -58547,7 +58547,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>-37.82003165401287,174.82639263922377</t>
+          <t>-37.82003945555157,174.82640542306254</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -58860,7 +58860,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>-37.819969900936485,174.8262914489322</t>
+          <t>-37.81995330890208,174.8262642608219</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -59027,7 +59027,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>-37.82003725793519,174.82640182198094</t>
+          <t>-37.820016765156794,174.82636824190507</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -59150,7 +59150,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>-37.81997325230687,174.82629694057184</t>
+          <t>-37.81995358360468,174.82626471095605</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -59317,7 +59317,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>-37.81997259302092,174.82629586024927</t>
+          <t>-37.819960506109865,174.82627605433845</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -59432,7 +59432,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>-37.819983306416404,174.82631341549376</t>
+          <t>-37.81998259219014,174.82631224514395</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -59563,7 +59563,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>-37.819971109627474,174.82629342952353</t>
+          <t>-37.81996402230253,174.8262818160573</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -59678,7 +59678,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>-37.819939408947604,174.82624148403679</t>
+          <t>-37.8199372113259,174.8262378829648</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -59845,7 +59845,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>-37.81998726213095,174.82631989743146</t>
+          <t>-37.81998385582123,174.82631431576283</t>
         </is>
       </c>
       <c r="F199" t="inlineStr"/>
@@ -60107,7 +60107,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>-37.820003414628154,174.82634636535084</t>
+          <t>-37.81998605344043,174.8263179168393</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -60234,7 +60234,7 @@
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>-37.82003126942995,174.8263920090346</t>
+          <t>-37.82003846662421,174.82640380257578</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -60321,7 +60321,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>-37.819913202301386,174.82619854126733</t>
+          <t>-37.819918806239706,174.82620772399537</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -60563,7 +60563,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>-37.819994679094734,174.8263320510665</t>
+          <t>-37.8199819878448,174.826311254848</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -60730,7 +60730,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>-37.81996775825693,174.82628793788416</t>
+          <t>-37.819951990329514,174.82626210017787</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -60845,7 +60845,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>-37.82004918000269,174.82642135785125</t>
+          <t>-37.820057750703455,174.8264354020752</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -61190,7 +61190,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>-37.820189003073,174.82665047716404</t>
+          <t>-37.82017642176298,174.82662986089215</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -61325,7 +61325,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>-37.820091429145144,174.82649058870447</t>
+          <t>-37.82009203348887,174.82649157900332</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -61635,7 +61635,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>-37.82016296140525,174.82660780418973</t>
+          <t>-37.82016933447313,174.82661824736212</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -61929,7 +61929,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>-37.82013889757115,174.82656837222723</t>
+          <t>-37.82014450147898,174.82657755501074</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -62052,7 +62052,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>-37.82008153988289,174.82647438381633</t>
+          <t>-37.82007835334232,174.82646916224218</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -62215,7 +62215,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>-37.82013708454199,174.826565401327</t>
+          <t>-37.82011769061903,174.826533621706</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -62433,7 +62433,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>-37.820182300366824,174.8266394938218</t>
+          <t>-37.82017389451248,174.8266257196331</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -62588,7 +62588,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>-37.82022059368174,174.82670224294284</t>
+          <t>-37.820219110297174,174.82669981220096</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -62937,7 +62937,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>-37.82011796532055,174.82653407184216</t>
+          <t>-37.820104285182566,174.82651165506545</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -63171,7 +63171,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>-37.820187244986236,174.8266475962872</t>
+          <t>-37.820193123588545,174.82665722921968</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -63393,7 +63393,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>-37.82009335205697,174.82649373965543</t>
+          <t>-37.82007956203015,174.8264711428392</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -63508,7 +63508,7 @@
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>-37.8199372113259,174.8262378829648</t>
+          <t>-37.819948693897935,174.82625669856816</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -63627,7 +63627,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>-37.81996709897088,174.82628685756174</t>
+          <t>-37.819976603677,174.826302432212</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -63790,7 +63790,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>-37.82007840828268,174.8264692522693</t>
+          <t>-37.82006231075508,174.8264428743239</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -64032,7 +64032,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>-37.820072254962284,174.82645916923082</t>
+          <t>-37.82007494704007,174.82646358055996</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -64195,7 +64195,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>-37.82002484140042,174.8263814758738</t>
+          <t>-37.82002066592773,174.82637463382162</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -64294,7 +64294,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>-37.81996814284045,174.82628856807227</t>
+          <t>-37.81997012069849,174.8262918090397</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -64622,7 +64622,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>-37.82000226087856,174.8263444747848</t>
+          <t>-37.820001271950304,174.82634285429964</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -64745,7 +64745,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>-37.81997072504399,174.82629279933536</t>
+          <t>-37.81995874801341,174.82627317347925</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -64888,7 +64888,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>-37.820072474723744,174.8264595293393</t>
+          <t>-37.82005868468998,174.8264369325357</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -65114,7 +65114,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>-37.82000330474724,174.82634618529693</t>
+          <t>-37.82001379837302,174.8263633804479</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -65277,7 +65277,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>-37.8199500124706,174.826258859212</t>
+          <t>-37.81995869307291,174.8262730834524</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -65741,7 +65741,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>-37.81990595014479,174.82618665773896</t>
+          <t>-37.81990853235221,174.826190888995</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -65840,7 +65840,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>-37.81990501615484,174.8261851272847</t>
+          <t>-37.819907103897066,174.82618854830014</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -66220,7 +66220,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>-37.81996913176949,174.826290188556</t>
+          <t>-37.81995336384259,174.82626435084873</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -66387,7 +66387,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>-37.81994308996366,174.8262475158328</t>
+          <t>-37.81995078163797,174.8262601195876</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -66621,7 +66621,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>-37.820016105871524,174.82636716158123</t>
+          <t>-37.81999533838034,174.8263331313897</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -66839,7 +66839,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>-37.81988034782426,174.8261447053012</t>
+          <t>-37.81988485295477,174.82615208748774</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -67061,7 +67061,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>-37.82001857819121,174.82637121279578</t>
+          <t>-37.82000160159306,174.82634339446136</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -67315,7 +67315,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>-37.819959572121135,174.82627452388198</t>
+          <t>-37.81994517770398,174.8262509368517</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -67469,7 +67469,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>-37.81999956879606,174.82634006346422</t>
+          <t>-37.82000654623401,174.82635149688753</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -67628,7 +67628,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>-37.82002626985151,174.82638381657605</t>
+          <t>-37.82002396235357,174.82638003544167</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -67711,7 +67711,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>-37.82006505777388,174.82644737567895</t>
+          <t>-37.82006395896638,174.8264455751369</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -67878,7 +67878,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>-37.82012593166388,174.82654712579225</t>
+          <t>-37.820132304737456,174.82655756895429</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -68013,7 +68013,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>-37.82001813866771,174.82637049257985</t>
+          <t>-37.820016929978095,174.82636851198606</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -68180,7 +68180,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>-37.82008522088634,174.8264804156353</t>
+          <t>-37.82007461739789,174.8264630403972</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -68600,7 +68600,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>-37.82000429367543,174.82634780578215</t>
+          <t>-37.81998561391661,174.826317196624</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -68767,7 +68767,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>-37.81999923915328,174.82633952330255</t>
+          <t>-37.82000451343725,174.82634816588998</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -68930,7 +68930,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>-37.820076375489435,174.82646592126534</t>
+          <t>-37.820066266462106,174.8264493562753</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -69097,7 +69097,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>-37.81999731623709,174.82633637235952</t>
+          <t>-37.81999303088068,174.82632935025848</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -69264,7 +69264,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>-37.82005324559174,174.82642801985452</t>
+          <t>-37.82003698323314,174.82640137184575</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -69419,7 +69419,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>-37.820015062003165,174.8263654510685</t>
+          <t>-37.82002176473637,174.82637643436158</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -69582,7 +69582,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>-37.82012681070858,174.82654856622824</t>
+          <t>-37.820131425692885,174.82655612851804</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -69721,7 +69721,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>-37.820085001124944,174.8264800555267</t>
+          <t>-37.82009148408549,174.82649067873163</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -69942,7 +69942,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>-37.82008582523016,174.82648140593398</t>
+          <t>-37.82006846407695,174.82645295735972</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -70105,7 +70105,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>-37.820219220177506,174.8266999922559</t>
+          <t>-37.82022641733916,174.82671178585642</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -70236,7 +70236,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>-37.820156313635124,174.82659691088247</t>
+          <t>-37.82014873187947,174.82658448711294</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -70510,7 +70510,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>-37.8200262149111,174.82638372654904</t>
+          <t>-37.82003742275642,174.82640209206207</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -70637,7 +70637,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>-37.820052146783915,174.82642621931302</t>
+          <t>-37.820033467046656,174.82639561011567</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -70804,7 +70804,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>-37.82005170726078,174.82642549909644</t>
+          <t>-37.82005648707461,174.82643333145225</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -70971,7 +70971,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>-37.82001511694361,174.8263655410955</t>
+          <t>-37.82001660033548,174.82636797182414</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -71138,7 +71138,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>-37.82009208842921,174.8264916690305</t>
+          <t>-37.820090275398,174.82648869813397</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -71305,7 +71305,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>-37.82002665443449,174.82638444676513</t>
+          <t>-37.8200105568868,174.82635806885625</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -71472,7 +71472,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>-37.82004154328704,174.82640884409028</t>
+          <t>-37.820020775808594,174.8263748138756</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -71631,7 +71631,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>-37.820215594126125,174.82669405044277</t>
+          <t>-37.82021108903155,174.8266866681909</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -71738,7 +71738,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>-37.82004527923444,174.82641496592987</t>
+          <t>-37.82002857734932,174.82638759771064</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -71901,7 +71901,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>-37.82008763826156,174.82648437683017</t>
+          <t>-37.82007055181096,174.8264563783901</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -72020,7 +72020,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>-37.820093461937645,174.8264939197098</t>
+          <t>-37.82008456160216,174.82647933530947</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -72187,7 +72187,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>-37.820025830328106,174.82638309635996</t>
+          <t>-37.82000544742496,174.8263496963483</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
